--- a/db_feed/new_template_v4.xlsx
+++ b/db_feed/new_template_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513701F5-668E-4C8A-8760-66FEFE256FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC48074-8FC4-43FF-990F-51604D40EAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="428">
   <si>
     <t>Solution Information</t>
   </si>
@@ -1511,12 +1511,6 @@
     <t>Fill info below:</t>
   </si>
   <si>
-    <t>Test #</t>
-  </si>
-  <si>
-    <t>filler text</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1540,6 +1534,9 @@
       </rPr>
       <t xml:space="preserve"> Each excel file is for a single sample. For multiple similar samples, duplicate the file and change only the necessary data. One file = one sample.</t>
     </r>
+  </si>
+  <si>
+    <t>Ossila</t>
   </si>
 </sst>
 </file>
@@ -2116,7 +2113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2227,43 +2224,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2275,34 +2238,12 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2310,39 +2251,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2379,10 +2311,25 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2702,15 +2649,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87527978-2A5B-6545-88F5-0DA220A53CEB}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="75.7109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="35.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="9" customWidth="1"/>
     <col min="5" max="5" width="52.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
@@ -2723,7 +2670,7 @@
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="67" t="s">
         <v>305</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -2731,19 +2678,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A2" s="127" t="s">
-        <v>428</v>
-      </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
+      <c r="A2" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2" s="99"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="61"/>
       <c r="B3" s="61"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="15.75">
@@ -2753,8 +2700,8 @@
       <c r="B4" s="61" t="s">
         <v>425</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="15.75">
@@ -2764,8 +2711,8 @@
       <c r="B5" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71" t="b">
+      <c r="C5"/>
+      <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -2776,11 +2723,11 @@
       <c r="A6" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="69" t="s">
         <v>291</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71" t="b">
+      <c r="C6"/>
+      <c r="D6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2791,24 +2738,24 @@
       <c r="B7" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71" t="b">
+      <c r="C7"/>
+      <c r="D7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75">
       <c r="A8" s="30"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="30" t="s">
@@ -2817,17 +2764,17 @@
       <c r="B10" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="30"/>
     </row>
     <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="78"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="15.75">
@@ -2841,8 +2788,8 @@
         <v>51</v>
       </c>
       <c r="B14" s="29"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="71" t="b">
+      <c r="C14" s="66"/>
+      <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" t="s">
@@ -2854,8 +2801,8 @@
         <v>52</v>
       </c>
       <c r="B15" s="29"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="71" t="b">
+      <c r="C15" s="66"/>
+      <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="s">
@@ -2867,8 +2814,8 @@
         <v>53</v>
       </c>
       <c r="B16" s="29"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="71" t="b">
+      <c r="C16" s="66"/>
+      <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -2878,16 +2825,16 @@
     <row r="17" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="78"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="71" t="s">
         <v>337</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="78"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
@@ -2895,7 +2842,6 @@
       <c r="A19" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="74"/>
     </row>
     <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="30" t="s">
@@ -2904,42 +2850,38 @@
       <c r="B20" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="62" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="D21" s="74"/>
     </row>
     <row r="22" spans="1:5" ht="15.75">
       <c r="A22" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="74"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="70" t="s">
         <v>335</v>
       </c>
       <c r="B23" s="11"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>128</v>
       </c>
       <c r="B25" s="27"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71" t="b">
+      <c r="C25"/>
+      <c r="D25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2948,8 +2890,8 @@
         <v>129</v>
       </c>
       <c r="B26" s="27"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71" t="b">
+      <c r="C26"/>
+      <c r="D26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2958,8 +2900,8 @@
         <v>34</v>
       </c>
       <c r="B27" s="27"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71" t="b">
+      <c r="C27"/>
+      <c r="D27" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2968,8 +2910,8 @@
         <v>35</v>
       </c>
       <c r="B28" s="27"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71" t="b">
+      <c r="C28"/>
+      <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="E28" s="9" t="s">
@@ -2981,8 +2923,8 @@
         <v>37</v>
       </c>
       <c r="B29" s="27"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71" t="b">
+      <c r="C29"/>
+      <c r="D29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2991,8 +2933,8 @@
         <v>38</v>
       </c>
       <c r="B30" s="27"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71" t="b">
+      <c r="C30"/>
+      <c r="D30" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3001,8 +2943,8 @@
         <v>39</v>
       </c>
       <c r="B31" s="27"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71" t="b">
+      <c r="C31"/>
+      <c r="D31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3011,8 +2953,8 @@
         <v>40</v>
       </c>
       <c r="B32" s="27"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71" t="b">
+      <c r="C32"/>
+      <c r="D32" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3021,8 +2963,8 @@
         <v>41</v>
       </c>
       <c r="B33" s="27"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71" t="b">
+      <c r="C33"/>
+      <c r="D33" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3031,8 +2973,8 @@
         <v>42</v>
       </c>
       <c r="B34" s="27"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71" t="b">
+      <c r="C34"/>
+      <c r="D34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3041,8 +2983,8 @@
         <v>43</v>
       </c>
       <c r="B35" s="27"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71" t="b">
+      <c r="C35"/>
+      <c r="D35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3051,8 +2993,8 @@
         <v>44</v>
       </c>
       <c r="B36" s="27"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71" t="b">
+      <c r="C36"/>
+      <c r="D36" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3061,8 +3003,8 @@
         <v>45</v>
       </c>
       <c r="B37" s="27"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71" t="b">
+      <c r="C37"/>
+      <c r="D37" t="b">
         <v>1</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -3074,24 +3016,16 @@
         <v>47</v>
       </c>
       <c r="B38" s="29"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="71" t="b">
+      <c r="C38" s="66"/>
+      <c r="D38" t="b">
         <v>1</v>
       </c>
       <c r="E38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="D39" s="74"/>
-    </row>
     <row r="41" spans="1:5" ht="15.75">
-      <c r="A41" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>427</v>
-      </c>
+      <c r="A41" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A10">
@@ -3192,10 +3126,10 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="105" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="105"/>
     </row>
     <row r="3" spans="1:4" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A3" s="16"/>
@@ -58675,8 +58609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5882D5-D74D-473F-B8FF-8824B9621A3C}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="114" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:A49"/>
+    <sheetView topLeftCell="A3" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -59273,7 +59207,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -59466,7 +59400,9 @@
       <c r="A20" t="s">
         <v>307</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="33" t="s">
+        <v>427</v>
+      </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
@@ -59693,7 +59629,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -59715,24 +59651,26 @@
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="D1" s="6" t="s">
+        <v>305</v>
+      </c>
       <c r="E1" s="6"/>
       <c r="F1" s="32"/>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="102" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="68"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="104"/>
     </row>
     <row r="2" spans="1:10" ht="130.15" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="78"/>
+      <c r="E2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -59741,7 +59679,7 @@
     <row r="3" spans="1:10" ht="16.5" thickBot="1">
       <c r="A3" s="14"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="78"/>
+      <c r="E3" s="3"/>
       <c r="G3" s="45" t="s">
         <v>157</v>
       </c>
@@ -59750,7 +59688,7 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="82" t="s">
         <v>366</v>
       </c>
       <c r="B4" s="40" t="s">
@@ -59759,10 +59697,10 @@
       <c r="C4" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="75" t="s">
         <v>367</v>
       </c>
-      <c r="E4" s="85"/>
+      <c r="E4" s="7"/>
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
       <c r="I4" s="3"/>
@@ -59772,13 +59710,11 @@
       <c r="A5" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="71"/>
-      <c r="G5" s="105" t="s">
+      <c r="D5" s="76"/>
+      <c r="G5" s="82" t="s">
         <v>153</v>
       </c>
       <c r="H5" s="40" t="s">
@@ -59787,7 +59723,7 @@
       <c r="I5" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="J5" s="97" t="s">
+      <c r="J5" s="75" t="s">
         <v>367</v>
       </c>
     </row>
@@ -59798,53 +59734,47 @@
       <c r="B6" s="26">
         <v>1</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="71"/>
+      <c r="D6" s="77"/>
       <c r="G6" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="72" t="s">
         <v>345</v>
       </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="98"/>
+      <c r="J6" s="76"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="99" t="b">
+      <c r="B7" s="73"/>
+      <c r="D7" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="71"/>
       <c r="G7" s="36" t="s">
         <v>353</v>
       </c>
       <c r="H7" s="26"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="98"/>
+      <c r="J7" s="76"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="71" t="s">
+      <c r="B8" s="15">
+        <v>250</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="99" t="b">
+      <c r="D8" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="71"/>
       <c r="G8" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="H8" s="92"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="99" t="b">
+      <c r="H8" s="73"/>
+      <c r="J8" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -59852,20 +59782,21 @@
       <c r="A9" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="87" t="s">
+      <c r="B9" s="15">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="99" t="b">
+      <c r="D9" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="86"/>
+      <c r="E9" s="3"/>
       <c r="G9" s="36" t="s">
         <v>363</v>
       </c>
       <c r="H9" s="15"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="99" t="b">
+      <c r="J9" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -59873,19 +59804,20 @@
       <c r="A10" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="87" t="s">
+      <c r="B10" s="15">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="99" t="b">
+      <c r="D10" s="77" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>362</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="99" t="b">
+      <c r="J10" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -59895,17 +59827,17 @@
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="47"/>
-      <c r="D11" s="100" t="b">
+      <c r="D11" s="78" t="b">
         <v>1</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>364</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="87" t="s">
+      <c r="I11" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="99" t="b">
+      <c r="J11" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -59914,19 +59846,18 @@
         <v>354</v>
       </c>
       <c r="H12" s="42"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="100" t="b">
+      <c r="I12" s="47"/>
+      <c r="J12" s="78" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1">
-      <c r="G13" s="90"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="101"/>
+      <c r="G13" s="22"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
-      <c r="G14" s="105" t="s">
+      <c r="G14" s="82" t="s">
         <v>366</v>
       </c>
       <c r="H14" s="40" t="s">
@@ -59935,7 +59866,7 @@
       <c r="I14" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="J14" s="97" t="s">
+      <c r="J14" s="75" t="s">
         <v>367</v>
       </c>
     </row>
@@ -59943,27 +59874,24 @@
       <c r="G15" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="H15" s="89" t="s">
+      <c r="H15" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="I15" s="87"/>
-      <c r="J15" s="98"/>
+      <c r="J15" s="76"/>
     </row>
     <row r="16" spans="1:10">
       <c r="G16" s="36" t="s">
         <v>353</v>
       </c>
       <c r="H16" s="26"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="99"/>
+      <c r="J16" s="77"/>
     </row>
     <row r="17" spans="7:10">
       <c r="G17" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="H17" s="92"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="99" t="b">
+      <c r="H17" s="73"/>
+      <c r="J17" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -59972,10 +59900,10 @@
         <v>358</v>
       </c>
       <c r="H18" s="15"/>
-      <c r="I18" s="71" t="s">
+      <c r="I18" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="99" t="b">
+      <c r="J18" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -59984,10 +59912,10 @@
         <v>355</v>
       </c>
       <c r="H19" s="15"/>
-      <c r="I19" s="87" t="s">
+      <c r="I19" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="99" t="b">
+      <c r="J19" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -59996,10 +59924,10 @@
         <v>356</v>
       </c>
       <c r="H20" s="15"/>
-      <c r="I20" s="87" t="s">
+      <c r="I20" t="s">
         <v>158</v>
       </c>
-      <c r="J20" s="99" t="b">
+      <c r="J20" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60009,17 +59937,15 @@
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="47"/>
-      <c r="J21" s="100" t="b">
+      <c r="J21" s="78" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="7:10" ht="15.75" thickBot="1">
-      <c r="G22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="102"/>
+      <c r="J22" s="80"/>
     </row>
     <row r="23" spans="7:10" ht="15.75">
-      <c r="G23" s="105" t="s">
+      <c r="G23" s="82" t="s">
         <v>154</v>
       </c>
       <c r="H23" s="40" t="s">
@@ -60028,7 +59954,7 @@
       <c r="I23" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="97" t="s">
+      <c r="J23" s="75" t="s">
         <v>367</v>
       </c>
     </row>
@@ -60036,27 +59962,24 @@
       <c r="G24" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="H24" s="89" t="s">
+      <c r="H24" s="72" t="s">
         <v>344</v>
       </c>
-      <c r="I24" s="87"/>
-      <c r="J24" s="98"/>
+      <c r="J24" s="76"/>
     </row>
     <row r="25" spans="7:10">
       <c r="G25" s="36" t="s">
         <v>353</v>
       </c>
       <c r="H25" s="26"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="103"/>
+      <c r="J25" s="76"/>
     </row>
     <row r="26" spans="7:10">
       <c r="G26" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="H26" s="92"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="99" t="b">
+      <c r="H26" s="73"/>
+      <c r="J26" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60065,10 +59988,10 @@
         <v>348</v>
       </c>
       <c r="H27" s="15"/>
-      <c r="I27" s="71" t="s">
+      <c r="I27" t="s">
         <v>251</v>
       </c>
-      <c r="J27" s="99" t="b">
+      <c r="J27" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60077,8 +60000,7 @@
         <v>360</v>
       </c>
       <c r="H28" s="15"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="99" t="b">
+      <c r="J28" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60087,8 +60009,7 @@
         <v>351</v>
       </c>
       <c r="H29" s="15"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="99" t="b">
+      <c r="J29" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60097,8 +60018,7 @@
         <v>359</v>
       </c>
       <c r="H30" s="15"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="99" t="b">
+      <c r="J30" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60107,10 +60027,10 @@
         <v>358</v>
       </c>
       <c r="H31" s="15"/>
-      <c r="I31" s="71" t="s">
+      <c r="I31" t="s">
         <v>21</v>
       </c>
-      <c r="J31" s="99" t="b">
+      <c r="J31" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60119,10 +60039,10 @@
         <v>355</v>
       </c>
       <c r="H32" s="15"/>
-      <c r="I32" s="71" t="s">
+      <c r="I32" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="99" t="b">
+      <c r="J32" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60131,19 +60051,17 @@
         <v>354</v>
       </c>
       <c r="H33" s="42"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="100" t="b">
+      <c r="I33" s="47"/>
+      <c r="J33" s="78" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" thickBot="1">
-      <c r="G34" s="88"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="102"/>
+      <c r="G34" s="14"/>
+      <c r="J34" s="80"/>
     </row>
     <row r="35" spans="1:10" ht="15.75">
-      <c r="G35" s="105" t="s">
+      <c r="G35" s="82" t="s">
         <v>155</v>
       </c>
       <c r="H35" s="40" t="s">
@@ -60152,7 +60070,7 @@
       <c r="I35" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="J35" s="97" t="s">
+      <c r="J35" s="75" t="s">
         <v>367</v>
       </c>
     </row>
@@ -60160,27 +60078,24 @@
       <c r="G36" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="H36" s="93" t="s">
+      <c r="H36" s="74" t="s">
         <v>346</v>
       </c>
-      <c r="I36" s="71"/>
-      <c r="J36" s="103"/>
+      <c r="J36" s="76"/>
     </row>
     <row r="37" spans="1:10">
       <c r="G37" s="36" t="s">
         <v>353</v>
       </c>
       <c r="H37" s="26"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="103"/>
+      <c r="J37" s="76"/>
     </row>
     <row r="38" spans="1:10">
       <c r="G38" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="H38" s="92"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="99" t="b">
+      <c r="H38" s="73"/>
+      <c r="J38" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60189,10 +60104,10 @@
         <v>355</v>
       </c>
       <c r="H39" s="15"/>
-      <c r="I39" s="71" t="s">
+      <c r="I39" t="s">
         <v>23</v>
       </c>
-      <c r="J39" s="99" t="b">
+      <c r="J39" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60201,10 +60116,10 @@
         <v>357</v>
       </c>
       <c r="H40" s="15"/>
-      <c r="I40" s="71" t="s">
+      <c r="I40" t="s">
         <v>158</v>
       </c>
-      <c r="J40" s="99" t="b">
+      <c r="J40" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60213,16 +60128,16 @@
         <v>354</v>
       </c>
       <c r="H41" s="42"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="100" t="b">
+      <c r="I41" s="47"/>
+      <c r="J41" s="78" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1">
-      <c r="G42" s="84"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="104"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="81"/>
     </row>
     <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="2" t="s">
@@ -60231,7 +60146,7 @@
       <c r="B43" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="G43" s="105" t="s">
+      <c r="G43" s="82" t="s">
         <v>156</v>
       </c>
       <c r="H43" s="40" t="s">
@@ -60240,7 +60155,7 @@
       <c r="I43" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="J43" s="97" t="s">
+      <c r="J43" s="75" t="s">
         <v>367</v>
       </c>
     </row>
@@ -60248,27 +60163,24 @@
       <c r="G44" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="H44" s="89" t="s">
+      <c r="H44" s="72" t="s">
         <v>347</v>
       </c>
-      <c r="I44" s="87"/>
-      <c r="J44" s="98"/>
+      <c r="J44" s="76"/>
     </row>
     <row r="45" spans="1:10">
       <c r="G45" s="36" t="s">
         <v>353</v>
       </c>
       <c r="H45" s="26"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="103"/>
+      <c r="J45" s="76"/>
     </row>
     <row r="46" spans="1:10">
       <c r="G46" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="H46" s="92"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="99" t="b">
+      <c r="H46" s="73"/>
+      <c r="J46" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60277,10 +60189,10 @@
         <v>348</v>
       </c>
       <c r="H47" s="15"/>
-      <c r="I47" s="71" t="s">
+      <c r="I47" t="s">
         <v>251</v>
       </c>
-      <c r="J47" s="99" t="b">
+      <c r="J47" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60289,8 +60201,7 @@
         <v>349</v>
       </c>
       <c r="H48" s="15"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="99" t="b">
+      <c r="J48" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60299,10 +60210,10 @@
         <v>350</v>
       </c>
       <c r="H49" s="15"/>
-      <c r="I49" s="71" t="s">
+      <c r="I49" t="s">
         <v>159</v>
       </c>
-      <c r="J49" s="99" t="b">
+      <c r="J49" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60311,10 +60222,10 @@
         <v>351</v>
       </c>
       <c r="H50" s="15"/>
-      <c r="I50" s="71" t="s">
+      <c r="I50" t="s">
         <v>160</v>
       </c>
-      <c r="J50" s="99" t="b">
+      <c r="J50" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60323,8 +60234,8 @@
         <v>354</v>
       </c>
       <c r="H51" s="42"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="100" t="b">
+      <c r="I51" s="47"/>
+      <c r="J51" s="78" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60366,8 +60277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FF38F2-F6A4-4E96-86E9-D45968350123}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -60407,139 +60318,149 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="87" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="B6" s="112">
+      <c r="B6" s="86">
         <v>80</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="87"/>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="B7" s="112">
+      <c r="B7" s="86">
         <v>1500</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="87"/>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="87" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="87"/>
+      <c r="C8" s="83"/>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="34" t="s">
         <v>373</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="106"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="B12" s="114" t="s">
+      <c r="B12" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="112">
+      <c r="B14" s="86">
         <v>350</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="87"/>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
+      <c r="B15" s="87"/>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="107" t="s">
+      <c r="A16" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="112"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
+      <c r="B16" s="86"/>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="B17" s="111"/>
-      <c r="D17" s="87"/>
+      <c r="B17" s="85"/>
     </row>
     <row r="18" spans="1:4" ht="15.75">
       <c r="A18" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="B18" s="112"/>
+      <c r="B18" s="86"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="107" t="s">
+      <c r="A19" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="B19" s="112">
+      <c r="B19" s="86">
         <v>0.17199999999999999</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="34" t="s">
         <v>26</v>
       </c>
       <c r="D19" t="b">
@@ -60547,11 +60468,11 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="107" t="s">
+      <c r="B20" s="86"/>
+      <c r="C20" s="34" t="s">
         <v>26</v>
       </c>
       <c r="D20" t="b">
@@ -60562,8 +60483,8 @@
       <c r="A21" t="s">
         <v>376</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="107"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="34"/>
       <c r="D21" t="b">
         <v>1</v>
       </c>
@@ -60572,8 +60493,8 @@
       <c r="A22" t="s">
         <v>377</v>
       </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="107"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="34"/>
       <c r="D22" t="b">
         <v>1</v>
       </c>
@@ -60582,35 +60503,20 @@
       <c r="A23" t="s">
         <v>378</v>
       </c>
-      <c r="B23" s="112"/>
-      <c r="C23" s="107"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="34"/>
       <c r="D23" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="113"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="D25" s="87"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="D26" s="87"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="D27" s="87"/>
+      <c r="B24" s="85"/>
     </row>
     <row r="28" spans="1:4">
       <c r="D28" s="56"/>
     </row>
-    <row r="29" spans="1:4">
-      <c r="D29" s="87"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="D30" s="87"/>
-    </row>
     <row r="31" spans="1:4">
-      <c r="D31" s="109"/>
+      <c r="D31" s="1"/>
     </row>
     <row r="33" s="1" customFormat="1"/>
     <row r="34" s="1" customFormat="1"/>
@@ -60667,7 +60573,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A46" sqref="A46:B46"/>
     </sheetView>
   </sheetViews>
@@ -60689,19 +60595,19 @@
         <v>305</v>
       </c>
       <c r="E1" s="63"/>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="102" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="68"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="104"/>
     </row>
     <row r="2" spans="1:10" ht="130.5" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -60722,7 +60628,7 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="82" t="s">
         <v>380</v>
       </c>
       <c r="H5" s="40" t="s">
@@ -60731,7 +60637,7 @@
       <c r="I5" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="J5" s="97" t="s">
+      <c r="J5" s="75" t="s">
         <v>367</v>
       </c>
     </row>
@@ -60739,14 +60645,13 @@
       <c r="G6" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="98"/>
+      <c r="J6" s="76"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="82" t="s">
         <v>380</v>
       </c>
       <c r="B7" s="40" t="s">
@@ -60755,31 +60660,28 @@
       <c r="C7" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="75" t="s">
         <v>367</v>
       </c>
       <c r="G7" s="36" t="s">
         <v>353</v>
       </c>
       <c r="H7" s="26"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="98"/>
+      <c r="J7" s="76"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="98"/>
+      <c r="D8" s="76"/>
       <c r="G8" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="H8" s="92"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="99" t="b">
+      <c r="H8" s="73"/>
+      <c r="J8" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60787,17 +60689,15 @@
       <c r="A9" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="B9" s="114">
+      <c r="B9" s="87">
         <v>1</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="98"/>
+      <c r="D9" s="76"/>
       <c r="G9" s="36" t="s">
         <v>382</v>
       </c>
       <c r="H9" s="15"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="99" t="b">
+      <c r="J9" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60805,21 +60705,20 @@
       <c r="A10" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="99" t="b">
+      <c r="D10" s="77" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>355</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="87" t="s">
+      <c r="I10" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="99" t="b">
+      <c r="J10" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60827,11 +60726,10 @@
       <c r="A11" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="90" t="s">
         <v>421</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="99" t="b">
+      <c r="D11" s="77" t="b">
         <v>1</v>
       </c>
       <c r="G11" s="36" t="s">
@@ -60841,7 +60739,7 @@
       <c r="I11" t="s">
         <v>158</v>
       </c>
-      <c r="J11" s="99" t="b">
+      <c r="J11" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60849,21 +60747,21 @@
       <c r="A12" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="B12" s="117">
+      <c r="B12" s="90">
         <v>25</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="99" t="b">
+      <c r="D12" s="77" t="b">
         <v>1</v>
       </c>
       <c r="G12" s="46" t="s">
         <v>354</v>
       </c>
       <c r="H12" s="42"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="100" t="b">
+      <c r="I12" s="47"/>
+      <c r="J12" s="78" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60871,30 +60769,29 @@
       <c r="A13" s="36" t="s">
         <v>383</v>
       </c>
-      <c r="B13" s="117">
+      <c r="B13" s="90">
         <v>0.25</v>
       </c>
       <c r="C13" t="s">
         <v>158</v>
       </c>
-      <c r="D13" s="99" t="b">
+      <c r="D13" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="101"/>
+      <c r="G13" s="22"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickBot="1">
       <c r="A14" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="100" t="b">
+      <c r="B14" s="91"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="78" t="b">
         <v>1</v>
       </c>
-      <c r="G14" s="105" t="s">
+      <c r="G14" s="82" t="s">
         <v>384</v>
       </c>
       <c r="H14" s="40" t="s">
@@ -60903,7 +60800,7 @@
       <c r="I14" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="J14" s="97" t="s">
+      <c r="J14" s="75" t="s">
         <v>367</v>
       </c>
     </row>
@@ -60911,22 +60808,20 @@
       <c r="G15" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="H15" s="89" t="s">
+      <c r="H15" s="72" t="s">
         <v>385</v>
       </c>
-      <c r="I15" s="87"/>
-      <c r="J15" s="98"/>
+      <c r="J15" s="76"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="G16" s="36" t="s">
         <v>353</v>
       </c>
       <c r="H16" s="26"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="103"/>
+      <c r="J16" s="76"/>
     </row>
     <row r="17" spans="1:10" ht="15.75">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="82" t="s">
         <v>384</v>
       </c>
       <c r="B17" s="40" t="s">
@@ -60935,17 +60830,17 @@
       <c r="C17" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="75" t="s">
         <v>367</v>
       </c>
       <c r="G17" s="36" t="s">
         <v>348</v>
       </c>
       <c r="H17" s="15"/>
-      <c r="I17" s="71" t="s">
+      <c r="I17" t="s">
         <v>251</v>
       </c>
-      <c r="J17" s="99" t="b">
+      <c r="J17" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60953,17 +60848,15 @@
       <c r="A18" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="72" t="s">
         <v>385</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="98"/>
+      <c r="D18" s="76"/>
       <c r="G18" s="36" t="s">
         <v>386</v>
       </c>
       <c r="H18" s="15"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="99" t="b">
+      <c r="J18" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60971,19 +60864,18 @@
       <c r="A19" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="B19" s="114">
+      <c r="B19" s="87">
         <v>2</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="103"/>
+      <c r="D19" s="76"/>
       <c r="G19" s="36" t="s">
         <v>351</v>
       </c>
       <c r="H19" s="15"/>
-      <c r="I19" s="71" t="s">
+      <c r="I19" t="s">
         <v>160</v>
       </c>
-      <c r="J19" s="99" t="b">
+      <c r="J19" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -60991,21 +60883,21 @@
       <c r="A20" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="B20" s="117">
+      <c r="B20" s="90">
         <v>30</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" t="s">
         <v>251</v>
       </c>
-      <c r="D20" s="99" t="b">
+      <c r="D20" s="77" t="b">
         <v>1</v>
       </c>
       <c r="G20" s="46" t="s">
         <v>354</v>
       </c>
       <c r="H20" s="42"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="100" t="b">
+      <c r="I20" s="47"/>
+      <c r="J20" s="78" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61013,9 +60905,8 @@
       <c r="A21" s="36" t="s">
         <v>386</v>
       </c>
-      <c r="B21" s="117"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="99" t="b">
+      <c r="B21" s="90"/>
+      <c r="D21" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61023,14 +60914,14 @@
       <c r="A22" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="B22" s="117"/>
-      <c r="C22" s="71" t="s">
+      <c r="B22" s="90"/>
+      <c r="C22" t="s">
         <v>160</v>
       </c>
-      <c r="D22" s="99" t="b">
+      <c r="D22" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="G22" s="105" t="s">
+      <c r="G22" s="82" t="s">
         <v>387</v>
       </c>
       <c r="H22" s="40" t="s">
@@ -61039,7 +60930,7 @@
       <c r="I22" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="J22" s="97" t="s">
+      <c r="J22" s="75" t="s">
         <v>367</v>
       </c>
     </row>
@@ -61047,40 +60938,37 @@
       <c r="A23" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="B23" s="118"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="100" t="b">
+      <c r="B23" s="91"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="78" t="b">
         <v>1</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="H23" s="89" t="s">
+      <c r="H23" s="72" t="s">
         <v>388</v>
       </c>
-      <c r="I23" s="87"/>
-      <c r="J23" s="98"/>
+      <c r="J23" s="76"/>
     </row>
     <row r="24" spans="1:10">
       <c r="G24" s="36" t="s">
         <v>353</v>
       </c>
       <c r="H24" s="26"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="98"/>
+      <c r="J24" s="76"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="G25" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="H25" s="92"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="99" t="b">
+      <c r="H25" s="73"/>
+      <c r="J25" s="77" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75">
-      <c r="A26" s="105" t="s">
+      <c r="A26" s="82" t="s">
         <v>387</v>
       </c>
       <c r="B26" s="40" t="s">
@@ -61089,15 +60977,14 @@
       <c r="C26" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="97" t="s">
+      <c r="D26" s="75" t="s">
         <v>367</v>
       </c>
       <c r="G26" s="36" t="s">
         <v>389</v>
       </c>
       <c r="H26" s="26"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="99" t="b">
+      <c r="J26" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61105,19 +60992,18 @@
       <c r="A27" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="72" t="s">
         <v>388</v>
       </c>
-      <c r="C27" s="87"/>
-      <c r="D27" s="98"/>
+      <c r="D27" s="76"/>
       <c r="G27" s="36" t="s">
         <v>355</v>
       </c>
       <c r="H27" s="15"/>
-      <c r="I27" s="87" t="s">
+      <c r="I27" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="99" t="b">
+      <c r="J27" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61125,11 +61011,10 @@
       <c r="A28" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="B28" s="114">
+      <c r="B28" s="87">
         <v>3</v>
       </c>
-      <c r="C28" s="87"/>
-      <c r="D28" s="98"/>
+      <c r="D28" s="76"/>
       <c r="G28" s="36" t="s">
         <v>383</v>
       </c>
@@ -61137,7 +61022,7 @@
       <c r="I28" t="s">
         <v>158</v>
       </c>
-      <c r="J28" s="99" t="b">
+      <c r="J28" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61145,19 +61030,18 @@
       <c r="A29" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="B29" s="125" t="s">
+      <c r="B29" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="87"/>
-      <c r="D29" s="99" t="b">
+      <c r="D29" s="77" t="b">
         <v>1</v>
       </c>
       <c r="G29" s="46" t="s">
         <v>354</v>
       </c>
       <c r="H29" s="42"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="100" t="b">
+      <c r="I29" s="47"/>
+      <c r="J29" s="78" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61165,11 +61049,10 @@
       <c r="A30" s="36" t="s">
         <v>389</v>
       </c>
-      <c r="B30" s="114" t="s">
+      <c r="B30" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="87"/>
-      <c r="D30" s="99" t="b">
+      <c r="D30" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61177,16 +61060,16 @@
       <c r="A31" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="B31" s="117">
+      <c r="B31" s="90">
         <v>25</v>
       </c>
-      <c r="C31" s="87" t="s">
+      <c r="C31" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="99" t="b">
+      <c r="D31" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="G31" s="105" t="s">
+      <c r="G31" s="82" t="s">
         <v>172</v>
       </c>
       <c r="H31" s="40" t="s">
@@ -61195,7 +61078,7 @@
       <c r="I31" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="J31" s="97" t="s">
+      <c r="J31" s="75" t="s">
         <v>367</v>
       </c>
     </row>
@@ -61203,47 +61086,44 @@
       <c r="A32" s="36" t="s">
         <v>383</v>
       </c>
-      <c r="B32" s="117">
+      <c r="B32" s="90">
         <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="99" t="b">
+      <c r="D32" s="77" t="b">
         <v>1</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="H32" s="115" t="s">
+      <c r="H32" s="88" t="s">
         <v>390</v>
       </c>
-      <c r="I32" s="87"/>
-      <c r="J32" s="98"/>
+      <c r="J32" s="76"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" thickBot="1">
       <c r="A33" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="B33" s="118"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="100" t="b">
+      <c r="B33" s="91"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="78" t="b">
         <v>1</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>353</v>
       </c>
       <c r="H33" s="26"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="98"/>
+      <c r="J33" s="76"/>
     </row>
     <row r="34" spans="1:10">
       <c r="G34" s="36" t="s">
         <v>391</v>
       </c>
       <c r="H34" s="15"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="99" t="b">
+      <c r="J34" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61252,10 +61132,10 @@
         <v>392</v>
       </c>
       <c r="H35" s="15"/>
-      <c r="I35" s="87" t="s">
+      <c r="I35" t="s">
         <v>23</v>
       </c>
-      <c r="J35" s="99" t="b">
+      <c r="J35" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61267,7 +61147,7 @@
       <c r="I36" t="s">
         <v>158</v>
       </c>
-      <c r="J36" s="99" t="b">
+      <c r="J36" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61276,8 +61156,8 @@
         <v>354</v>
       </c>
       <c r="H37" s="42"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="100" t="b">
+      <c r="I37" s="47"/>
+      <c r="J37" s="78" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61327,7 +61207,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -61348,20 +61228,23 @@
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="6"/>
-      <c r="F1" s="66" t="s">
+      <c r="D1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" s="102" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="68"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="104"/>
     </row>
     <row r="2" spans="1:10" ht="93" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="116"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="89"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -61389,9 +61272,7 @@
       <c r="F5" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="G5" s="40" t="s">
-        <v>147</v>
-      </c>
+      <c r="G5" s="40"/>
       <c r="H5" s="40" t="s">
         <v>148</v>
       </c>
@@ -61403,9 +61284,7 @@
       <c r="A6" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>147</v>
-      </c>
+      <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
         <v>148</v>
       </c>
@@ -61415,7 +61294,7 @@
       <c r="F6" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="74" t="s">
         <v>399</v>
       </c>
       <c r="I6" s="37"/>
@@ -61424,15 +61303,15 @@
       <c r="A7" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="74" t="s">
         <v>399</v>
       </c>
       <c r="D7" s="37"/>
       <c r="F7" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="G7" s="119"/>
-      <c r="I7" s="96" t="b">
+      <c r="G7" s="92"/>
+      <c r="I7" s="37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61440,20 +61319,20 @@
       <c r="A8" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="96" t="b">
+      <c r="D8" s="37" t="b">
         <v>1</v>
       </c>
       <c r="F8" s="36" t="s">
         <v>403</v>
       </c>
-      <c r="G8" s="115"/>
+      <c r="G8" s="88"/>
       <c r="H8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="96" t="b">
+      <c r="I8" s="37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61461,23 +61340,23 @@
       <c r="A9" s="36" t="s">
         <v>403</v>
       </c>
-      <c r="B9" s="115">
+      <c r="B9" s="88">
         <v>1500</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="96" t="b">
+      <c r="D9" s="37" t="b">
         <v>1</v>
       </c>
       <c r="F9" s="36" t="s">
         <v>404</v>
       </c>
-      <c r="G9" s="115"/>
+      <c r="G9" s="88"/>
       <c r="H9" t="s">
         <v>250</v>
       </c>
-      <c r="I9" s="96" t="b">
+      <c r="I9" s="37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61485,23 +61364,23 @@
       <c r="A10" s="36" t="s">
         <v>404</v>
       </c>
-      <c r="B10" s="115">
+      <c r="B10" s="88">
         <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>250</v>
       </c>
-      <c r="D10" s="96" t="b">
+      <c r="D10" s="37" t="b">
         <v>1</v>
       </c>
       <c r="F10" s="36" t="s">
         <v>415</v>
       </c>
       <c r="G10" s="15"/>
-      <c r="H10" s="87" t="s">
+      <c r="H10" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="96" t="b">
+      <c r="I10" s="37" t="b">
         <v>1</v>
       </c>
       <c r="J10" s="37" t="s">
@@ -61513,17 +61392,17 @@
         <v>415</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="87" t="s">
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="96" t="b">
+      <c r="D11" s="37" t="b">
         <v>1</v>
       </c>
       <c r="F11" s="36" t="s">
         <v>405</v>
       </c>
-      <c r="G11" s="115"/>
-      <c r="I11" s="96" t="b">
+      <c r="G11" s="88"/>
+      <c r="I11" s="37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61531,14 +61410,14 @@
       <c r="A12" s="36" t="s">
         <v>405</v>
       </c>
-      <c r="B12" s="115"/>
-      <c r="D12" s="96" t="b">
+      <c r="B12" s="88"/>
+      <c r="D12" s="37" t="b">
         <v>1</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="G12" s="120"/>
+      <c r="G12" s="93"/>
       <c r="H12" s="50"/>
       <c r="I12" s="43" t="b">
         <v>1</v>
@@ -61548,7 +61427,7 @@
       <c r="A13" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="B13" s="120"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="50"/>
       <c r="D13" s="43" t="b">
         <v>1</v>
@@ -61556,16 +61435,14 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
-      <c r="F14" s="121" t="s">
+      <c r="F14" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="G14" s="122" t="s">
-        <v>151</v>
-      </c>
-      <c r="H14" s="122" t="s">
+      <c r="G14" s="95"/>
+      <c r="H14" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="123" t="s">
+      <c r="I14" s="96" t="s">
         <v>367</v>
       </c>
     </row>
@@ -61573,19 +61450,17 @@
       <c r="F15" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="G15" s="93" t="s">
+      <c r="G15" s="74" t="s">
         <v>402</v>
       </c>
-      <c r="H15" s="71"/>
-      <c r="I15" s="96"/>
+      <c r="I15" s="37"/>
     </row>
     <row r="16" spans="1:10">
       <c r="F16" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="G16" s="124"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="96" t="b">
+      <c r="G16" s="97"/>
+      <c r="I16" s="37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61594,8 +61469,7 @@
         <v>406</v>
       </c>
       <c r="G17" s="15"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="96" t="b">
+      <c r="I17" s="37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61604,8 +61478,7 @@
         <v>407</v>
       </c>
       <c r="G18" s="15"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="96" t="b">
+      <c r="I18" s="37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61614,8 +61487,7 @@
         <v>408</v>
       </c>
       <c r="G19" s="15"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="96" t="b">
+      <c r="I19" s="37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61624,10 +61496,10 @@
         <v>411</v>
       </c>
       <c r="G20" s="15"/>
-      <c r="I20" s="96" t="b">
+      <c r="I20" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="J20" s="94" t="s">
+      <c r="J20" s="48" t="s">
         <v>269</v>
       </c>
     </row>
@@ -61636,10 +61508,10 @@
         <v>415</v>
       </c>
       <c r="G21" s="15"/>
-      <c r="H21" s="87" t="s">
+      <c r="H21" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="96" t="b">
+      <c r="I21" s="37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61648,10 +61520,10 @@
         <v>409</v>
       </c>
       <c r="G22" s="15"/>
-      <c r="H22" s="71" t="s">
+      <c r="H22" t="s">
         <v>177</v>
       </c>
-      <c r="I22" s="96" t="b">
+      <c r="I22" s="37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61660,8 +61532,7 @@
         <v>412</v>
       </c>
       <c r="G23" s="15"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="96" t="b">
+      <c r="I23" s="37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61670,7 +61541,7 @@
         <v>410</v>
       </c>
       <c r="G24" s="26"/>
-      <c r="I24" s="96" t="b">
+      <c r="I24" s="37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61678,7 +61549,7 @@
       <c r="F25" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="G25" s="120"/>
+      <c r="G25" s="93"/>
       <c r="H25" s="50"/>
       <c r="I25" s="43" t="b">
         <v>1</v>
@@ -61692,9 +61563,7 @@
       <c r="F27" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="G27" s="40" t="s">
-        <v>147</v>
-      </c>
+      <c r="G27" s="40"/>
       <c r="H27" s="40" t="s">
         <v>148</v>
       </c>
@@ -61706,7 +61575,7 @@
       <c r="F28" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="G28" s="93" t="s">
+      <c r="G28" s="74" t="s">
         <v>401</v>
       </c>
       <c r="I28" s="37"/>
@@ -61715,8 +61584,8 @@
       <c r="F29" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="G29" s="119"/>
-      <c r="I29" s="96" t="b">
+      <c r="G29" s="92"/>
+      <c r="I29" s="37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61739,16 +61608,14 @@
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="6:10" ht="15.75">
-      <c r="F32" s="121" t="s">
+      <c r="F32" s="94" t="s">
         <v>418</v>
       </c>
-      <c r="G32" s="122" t="s">
-        <v>151</v>
-      </c>
-      <c r="H32" s="122" t="s">
+      <c r="G32" s="95"/>
+      <c r="H32" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="123" t="s">
+      <c r="I32" s="96" t="s">
         <v>367</v>
       </c>
     </row>
@@ -61756,9 +61623,8 @@
       <c r="F33" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="G33" s="124"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="96"/>
+      <c r="G33" s="97"/>
+      <c r="I33" s="37"/>
       <c r="J33" t="s">
         <v>420</v>
       </c>
@@ -61767,9 +61633,8 @@
       <c r="F34" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="G34" s="124"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="96" t="b">
+      <c r="G34" s="97"/>
+      <c r="I34" s="37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61778,8 +61643,7 @@
         <v>406</v>
       </c>
       <c r="G35" s="15"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="96" t="b">
+      <c r="I35" s="37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61788,10 +61652,10 @@
         <v>415</v>
       </c>
       <c r="G36" s="15"/>
-      <c r="H36" s="87" t="s">
+      <c r="H36" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="96" t="b">
+      <c r="I36" s="37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61800,7 +61664,7 @@
         <v>410</v>
       </c>
       <c r="G37" s="26"/>
-      <c r="I37" s="96" t="b">
+      <c r="I37" s="37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61809,8 +61673,7 @@
         <v>354</v>
       </c>
       <c r="G38" s="15"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="96" t="b">
+      <c r="I38" s="37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -61819,8 +61682,7 @@
         <v>416</v>
       </c>
       <c r="G39" s="38"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="96" t="b">
+      <c r="I39" s="37" t="b">
         <v>1</v>
       </c>
       <c r="J39" t="s">
@@ -61831,7 +61693,7 @@
       <c r="F40" s="44" t="s">
         <v>417</v>
       </c>
-      <c r="G40" s="120"/>
+      <c r="G40" s="93"/>
       <c r="H40" s="50"/>
       <c r="I40" s="43" t="b">
         <v>1</v>
@@ -61842,9 +61704,7 @@
       <c r="F54" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="G54" s="40" t="s">
-        <v>147</v>
-      </c>
+      <c r="G54" s="40"/>
       <c r="H54" s="40" t="s">
         <v>148</v>
       </c>
@@ -61943,19 +61803,19 @@
         <v>305</v>
       </c>
       <c r="E1" s="63"/>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="102" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="68"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="104"/>
     </row>
     <row r="2" spans="1:10" ht="129.75" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="100" t="s">
         <v>395</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -61976,7 +61836,7 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="82" t="s">
         <v>396</v>
       </c>
       <c r="B5" s="40" t="s">
@@ -61985,10 +61845,10 @@
       <c r="C5" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="75" t="s">
         <v>367</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="82" t="s">
         <v>396</v>
       </c>
       <c r="H5" s="40" t="s">
@@ -61997,7 +61857,7 @@
       <c r="I5" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="J5" s="97" t="s">
+      <c r="J5" s="75" t="s">
         <v>367</v>
       </c>
     </row>
@@ -62005,49 +61865,43 @@
       <c r="A6" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="72" t="s">
         <v>397</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="98"/>
+      <c r="D6" s="76"/>
       <c r="G6" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="72" t="s">
         <v>397</v>
       </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="98"/>
+      <c r="J6" s="76"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="36" t="s">
         <v>353</v>
       </c>
       <c r="B7" s="26"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="98"/>
+      <c r="D7" s="76"/>
       <c r="G7" s="36" t="s">
         <v>353</v>
       </c>
       <c r="H7" s="26"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="98"/>
+      <c r="J7" s="76"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="99" t="b">
+      <c r="B8" s="73"/>
+      <c r="D8" s="77" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="H8" s="92"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="99" t="b">
+      <c r="H8" s="73"/>
+      <c r="J8" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -62056,20 +61910,20 @@
         <v>355</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="87" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="99" t="b">
+      <c r="D9" s="77" t="b">
         <v>1</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>355</v>
       </c>
       <c r="H9" s="15"/>
-      <c r="I9" s="87" t="s">
+      <c r="I9" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="99" t="b">
+      <c r="J9" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -62081,7 +61935,7 @@
       <c r="C10" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="99" t="b">
+      <c r="D10" s="77" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="36" t="s">
@@ -62091,7 +61945,7 @@
       <c r="I10" t="s">
         <v>158</v>
       </c>
-      <c r="J10" s="99" t="b">
+      <c r="J10" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -62100,27 +61954,26 @@
         <v>354</v>
       </c>
       <c r="B11" s="42"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="100" t="b">
+      <c r="C11" s="47"/>
+      <c r="D11" s="78" t="b">
         <v>1</v>
       </c>
       <c r="G11" s="46" t="s">
         <v>354</v>
       </c>
       <c r="H11" s="42"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="100" t="b">
+      <c r="I11" s="47"/>
+      <c r="J11" s="78" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
-      <c r="G12" s="90"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="101"/>
+      <c r="G12" s="22"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:10" ht="15.75">
-      <c r="G13" s="105" t="s">
+      <c r="G13" s="82" t="s">
         <v>380</v>
       </c>
       <c r="H13" s="40" t="s">
@@ -62129,7 +61982,7 @@
       <c r="I13" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="J13" s="97" t="s">
+      <c r="J13" s="75" t="s">
         <v>367</v>
       </c>
     </row>
@@ -62137,27 +61990,24 @@
       <c r="G14" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="H14" s="89" t="s">
+      <c r="H14" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="I14" s="87"/>
-      <c r="J14" s="98"/>
+      <c r="J14" s="76"/>
     </row>
     <row r="15" spans="1:10">
       <c r="G15" s="36" t="s">
         <v>353</v>
       </c>
       <c r="H15" s="26"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="98"/>
+      <c r="J15" s="76"/>
     </row>
     <row r="16" spans="1:10">
       <c r="G16" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="H16" s="92"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="99" t="b">
+      <c r="H16" s="73"/>
+      <c r="J16" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -62166,8 +62016,7 @@
         <v>382</v>
       </c>
       <c r="H17" s="15"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="99" t="b">
+      <c r="J17" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -62176,10 +62025,10 @@
         <v>355</v>
       </c>
       <c r="H18" s="15"/>
-      <c r="I18" s="87" t="s">
+      <c r="I18" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="99" t="b">
+      <c r="J18" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -62191,7 +62040,7 @@
       <c r="I19" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="99" t="b">
+      <c r="J19" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -62200,14 +62049,14 @@
         <v>354</v>
       </c>
       <c r="H20" s="42"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="100" t="b">
+      <c r="I20" s="47"/>
+      <c r="J20" s="78" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="7:10" ht="15.75" thickBot="1"/>
     <row r="22" spans="7:10" ht="15.75">
-      <c r="G22" s="105" t="s">
+      <c r="G22" s="82" t="s">
         <v>172</v>
       </c>
       <c r="H22" s="40" t="s">
@@ -62216,7 +62065,7 @@
       <c r="I22" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="J22" s="97" t="s">
+      <c r="J22" s="75" t="s">
         <v>367</v>
       </c>
     </row>
@@ -62224,27 +62073,24 @@
       <c r="G23" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="H23" s="115" t="s">
+      <c r="H23" s="88" t="s">
         <v>390</v>
       </c>
-      <c r="I23" s="87"/>
-      <c r="J23" s="98"/>
+      <c r="J23" s="76"/>
     </row>
     <row r="24" spans="7:10">
       <c r="G24" s="36" t="s">
         <v>353</v>
       </c>
       <c r="H24" s="26"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="98"/>
+      <c r="J24" s="76"/>
     </row>
     <row r="25" spans="7:10">
       <c r="G25" s="36" t="s">
         <v>391</v>
       </c>
       <c r="H25" s="15"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="99" t="b">
+      <c r="J25" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -62253,10 +62099,10 @@
         <v>392</v>
       </c>
       <c r="H26" s="15"/>
-      <c r="I26" s="87" t="s">
+      <c r="I26" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="99" t="b">
+      <c r="J26" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -62268,7 +62114,7 @@
       <c r="I27" t="s">
         <v>158</v>
       </c>
-      <c r="J27" s="99" t="b">
+      <c r="J27" s="77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -62277,8 +62123,8 @@
         <v>354</v>
       </c>
       <c r="H28" s="42"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="100" t="b">
+      <c r="I28" s="47"/>
+      <c r="J28" s="78" t="b">
         <v>1</v>
       </c>
     </row>
@@ -62342,10 +62188,10 @@
       <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:7" s="9" customFormat="1" ht="60" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="105"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:7" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
@@ -62686,11 +62532,11 @@
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="60" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
     </row>

--- a/db_feed/new_template_v4.xlsx
+++ b/db_feed/new_template_v4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC48074-8FC4-43FF-990F-51604D40EAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66338AF9-615E-431C-BF8F-78AFCC3E1264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="427">
   <si>
     <t>Solution Information</t>
   </si>
@@ -134,10 +134,6 @@
   </si>
   <si>
     <t>Annealing Environment</t>
-  </si>
-  <si>
-    <t>Sample Info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Note</t>
@@ -1508,9 +1504,6 @@
     <t>YOUR NAME (Data Contributor) #</t>
   </si>
   <si>
-    <t>Fill info below:</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1537,6 +1530,9 @@
   </si>
   <si>
     <t>Ossila</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
   </si>
 </sst>
 </file>
@@ -2650,7 +2646,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -2666,20 +2662,20 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>426</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="67" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B2" s="99"/>
       <c r="C2" s="61"/>
@@ -2695,36 +2691,34 @@
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>425</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="B4" s="61"/>
       <c r="C4" s="61"/>
       <c r="D4" s="61"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75">
       <c r="A6" s="30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="b">
@@ -2733,10 +2727,10 @@
     </row>
     <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="b">
@@ -2751,7 +2745,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B9" s="68"/>
       <c r="C9" s="64"/>
@@ -2759,10 +2753,10 @@
     </row>
     <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C10" s="65"/>
       <c r="D10" s="65"/>
@@ -2772,20 +2766,20 @@
     </row>
     <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="66"/>
@@ -2793,12 +2787,12 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="66"/>
@@ -2806,12 +2800,12 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="66"/>
@@ -2819,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2831,7 +2825,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="71" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2840,30 +2834,30 @@
     </row>
     <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="65"/>
       <c r="E20" s="62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75">
       <c r="A22" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="70" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2877,7 +2871,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25"/>
@@ -2887,7 +2881,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26"/>
@@ -2897,7 +2891,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27"/>
@@ -2907,7 +2901,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28"/>
@@ -2915,12 +2909,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29"/>
@@ -2930,7 +2924,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30"/>
@@ -2940,7 +2934,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31"/>
@@ -2950,7 +2944,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="27"/>
       <c r="C32"/>
@@ -2960,7 +2954,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="27"/>
       <c r="C33"/>
@@ -2970,7 +2964,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34"/>
@@ -2980,7 +2974,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35"/>
@@ -2990,7 +2984,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="27"/>
       <c r="C36"/>
@@ -3000,7 +2994,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="27"/>
       <c r="C37"/>
@@ -3008,12 +3002,12 @@
         <v>1</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="66"/>
@@ -3021,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75">
@@ -3121,13 +3115,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1" ht="21">
       <c r="A1" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="105" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" s="105"/>
     </row>
@@ -3137,53 +3131,53 @@
     </row>
     <row r="4" spans="1:4" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A4" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>236</v>
-      </c>
       <c r="C4" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A5" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="48"/>
     </row>
     <row r="6" spans="1:4" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="48"/>
     </row>
     <row r="7" spans="1:4" s="9" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="48"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="48"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="48"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1">
       <c r="A10" s="44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B10" s="54"/>
       <c r="C10" s="52"/>
@@ -58628,18 +58622,18 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="C4" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -58649,61 +58643,61 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" t="s">
         <v>73</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="20" customFormat="1">
@@ -58717,19 +58711,19 @@
         <v>8</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>27</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -58739,25 +58733,25 @@
     </row>
     <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -58765,25 +58759,25 @@
     </row>
     <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -58791,25 +58785,25 @@
     </row>
     <row r="19" spans="1:9" ht="15.75">
       <c r="A19" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -58817,16 +58811,16 @@
     </row>
     <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -58834,7 +58828,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -58851,7 +58845,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>17</v>
@@ -58860,174 +58854,174 @@
         <v>25</v>
       </c>
       <c r="H25" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G27" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" t="s">
         <v>104</v>
       </c>
-      <c r="H27" t="s">
-        <v>105</v>
-      </c>
       <c r="I27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75">
       <c r="B30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75">
       <c r="B31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75">
       <c r="B32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75">
       <c r="B33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75">
       <c r="B34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75">
       <c r="G35" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75">
       <c r="G36" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="G37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75">
       <c r="G38" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -59038,162 +59032,162 @@
         <v>20</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="F45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E47" t="s">
         <v>23</v>
       </c>
       <c r="F47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D53" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D55" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D56" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -59207,7 +59201,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -59222,28 +59216,28 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21">
       <c r="A1" s="31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="63" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E1" s="63" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -59253,13 +59247,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" t="s">
         <v>140</v>
-      </c>
-      <c r="E5" t="s">
-        <v>141</v>
       </c>
       <c r="F5" s="56" t="s">
         <v>3</v>
@@ -59267,7 +59261,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B6" s="33">
         <v>100</v>
@@ -59281,16 +59275,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="26"/>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" t="s">
@@ -59302,29 +59296,29 @@
     </row>
     <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="56"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B13" s="33">
         <v>80</v>
@@ -59333,12 +59327,12 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B14" s="33">
         <v>55</v>
@@ -59349,7 +59343,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B15" s="33">
         <v>199</v>
@@ -59360,24 +59354,24 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B16" s="33">
         <v>3.62</v>
       </c>
       <c r="E16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75">
       <c r="A17" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B17" s="33"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B18" s="33"/>
       <c r="D18" t="b">
@@ -59386,7 +59380,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" t="s">
@@ -59398,10 +59392,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -59409,19 +59403,19 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B21" s="33"/>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B22" s="33"/>
       <c r="D22" t="b">
@@ -59430,29 +59424,29 @@
     </row>
     <row r="24" spans="1:5" ht="15.75">
       <c r="A24" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E26" s="56"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B27" s="33">
         <v>20</v>
@@ -59463,7 +59457,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B28" s="33">
         <v>2.1800000000000002</v>
@@ -59474,7 +59468,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B29" s="33">
         <v>2.2000000000000002</v>
@@ -59485,24 +59479,24 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B30" s="33">
         <v>1.01</v>
       </c>
       <c r="E30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75">
       <c r="A31" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B31" s="33"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B32" s="33"/>
       <c r="D32" t="b">
@@ -59511,7 +59505,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B33" s="33"/>
       <c r="D33" t="b">
@@ -59520,19 +59514,19 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B34" s="33"/>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B35" s="33"/>
       <c r="D35" t="b">
@@ -59546,7 +59540,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B38" s="33">
         <v>4</v>
@@ -59556,7 +59550,7 @@
       </c>
       <c r="D38" s="34"/>
       <c r="E38" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -59629,7 +59623,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -59647,17 +59641,17 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="32"/>
       <c r="G1" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H1" s="103"/>
       <c r="I1" s="103"/>
@@ -59665,7 +59659,7 @@
     </row>
     <row r="2" spans="1:10" ht="130.15" customHeight="1">
       <c r="A2" s="100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="101"/>
       <c r="C2" s="101"/>
@@ -59681,7 +59675,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="G3" s="45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H3" s="45"/>
       <c r="I3" s="3"/>
@@ -59689,16 +59683,16 @@
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1">
       <c r="A4" s="82" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="75" t="s">
         <v>366</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="75" t="s">
-        <v>367</v>
       </c>
       <c r="E4" s="7"/>
       <c r="G4" s="45"/>
@@ -59708,58 +59702,58 @@
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D5" s="76"/>
       <c r="G5" s="82" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H5" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="I5" s="40" t="s">
-        <v>148</v>
-      </c>
       <c r="J5" s="75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B6" s="26">
         <v>1</v>
       </c>
       <c r="D6" s="77"/>
       <c r="G6" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H6" s="72" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J6" s="76"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B7" s="73"/>
       <c r="D7" s="77" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H7" s="26"/>
       <c r="J7" s="76"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B8" s="15">
         <v>250</v>
@@ -59771,7 +59765,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H8" s="73"/>
       <c r="J8" s="77" t="b">
@@ -59780,7 +59774,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B9" s="15">
         <v>60</v>
@@ -59793,7 +59787,7 @@
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H9" s="15"/>
       <c r="J9" s="77" t="b">
@@ -59802,19 +59796,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B10" s="15">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D10" s="77" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H10" s="15"/>
       <c r="J10" s="77" t="b">
@@ -59823,7 +59817,7 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1">
       <c r="A11" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="47"/>
@@ -59831,7 +59825,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" t="s">
@@ -59843,7 +59837,7 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
       <c r="G12" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="47"/>
@@ -59852,52 +59846,99 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A13" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>366</v>
+      </c>
       <c r="G13" s="22"/>
       <c r="I13" s="3"/>
       <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
+      <c r="A14" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" s="76"/>
       <c r="G14" s="82" t="s">
+        <v>365</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="75" t="s">
         <v>366</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="J14" s="75" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:10">
+      <c r="A15" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15" s="26">
+        <v>2</v>
+      </c>
+      <c r="D15" s="76"/>
       <c r="G15" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H15" s="72" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J15" s="76"/>
     </row>
     <row r="16" spans="1:10">
+      <c r="A16" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="B16" s="73"/>
+      <c r="D16" s="77" t="b">
+        <v>1</v>
+      </c>
       <c r="G16" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H16" s="26"/>
       <c r="J16" s="77"/>
     </row>
-    <row r="17" spans="7:10">
+    <row r="17" spans="1:10">
+      <c r="A17" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="D17" s="77" t="b">
+        <v>1</v>
+      </c>
       <c r="G17" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H17" s="73"/>
       <c r="J17" s="77" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="7:10">
+    <row r="18" spans="1:10">
+      <c r="A18" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="D18" s="77" t="b">
+        <v>1</v>
+      </c>
       <c r="G18" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" t="s">
@@ -59907,9 +59948,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="7:10">
+    <row r="19" spans="1:10">
+      <c r="A19" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="77" t="b">
+        <v>1</v>
+      </c>
       <c r="G19" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" t="s">
@@ -59919,21 +59970,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="7:10">
+    <row r="20" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A20" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="78" t="b">
+        <v>1</v>
+      </c>
       <c r="G20" s="36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J20" s="77" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="7:10" ht="16.5" thickBot="1">
+    <row r="21" spans="1:10" ht="16.5" thickBot="1">
       <c r="G21" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="47"/>
@@ -59941,90 +60000,90 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="7:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="J22" s="80"/>
     </row>
-    <row r="23" spans="7:10" ht="15.75">
+    <row r="23" spans="1:10" ht="15.75">
       <c r="G23" s="82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J23" s="75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="24" spans="7:10">
+    <row r="24" spans="1:10">
       <c r="G24" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="H24" s="72" t="s">
         <v>343</v>
-      </c>
-      <c r="H24" s="72" t="s">
-        <v>344</v>
       </c>
       <c r="J24" s="76"/>
     </row>
-    <row r="25" spans="7:10">
+    <row r="25" spans="1:10">
       <c r="G25" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H25" s="26"/>
       <c r="J25" s="76"/>
     </row>
-    <row r="26" spans="7:10">
+    <row r="26" spans="1:10">
       <c r="G26" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H26" s="73"/>
       <c r="J26" s="77" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="7:10">
+    <row r="27" spans="1:10">
       <c r="G27" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J27" s="77" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="7:10">
+    <row r="28" spans="1:10">
       <c r="G28" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H28" s="15"/>
       <c r="J28" s="77" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="7:10">
+    <row r="29" spans="1:10">
       <c r="G29" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H29" s="15"/>
       <c r="J29" s="77" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="7:10">
+    <row r="30" spans="1:10">
       <c r="G30" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H30" s="15"/>
       <c r="J30" s="77" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="7:10">
+    <row r="31" spans="1:10">
       <c r="G31" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" t="s">
@@ -60034,9 +60093,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="7:10">
+    <row r="32" spans="1:10">
       <c r="G32" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" t="s">
@@ -60048,7 +60107,7 @@
     </row>
     <row r="33" spans="1:10" ht="16.5" thickBot="1">
       <c r="G33" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="47"/>
@@ -60062,37 +60121,37 @@
     </row>
     <row r="35" spans="1:10" ht="15.75">
       <c r="G35" s="82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H35" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I35" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="I35" s="40" t="s">
-        <v>148</v>
-      </c>
       <c r="J35" s="75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="G36" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H36" s="74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J36" s="76"/>
     </row>
     <row r="37" spans="1:10">
       <c r="G37" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H37" s="26"/>
       <c r="J37" s="76"/>
     </row>
     <row r="38" spans="1:10">
       <c r="G38" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H38" s="73"/>
       <c r="J38" s="77" t="b">
@@ -60101,7 +60160,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="G39" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" t="s">
@@ -60113,11 +60172,11 @@
     </row>
     <row r="40" spans="1:10">
       <c r="G40" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J40" s="77" t="b">
         <v>1</v>
@@ -60125,7 +60184,7 @@
     </row>
     <row r="41" spans="1:10" ht="16.5" thickBot="1">
       <c r="G41" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H41" s="42"/>
       <c r="I41" s="47"/>
@@ -60141,43 +60200,43 @@
     </row>
     <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G43" s="82" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H43" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I43" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="I43" s="40" t="s">
-        <v>148</v>
-      </c>
       <c r="J43" s="75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="G44" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H44" s="72" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J44" s="76"/>
     </row>
     <row r="45" spans="1:10">
       <c r="G45" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H45" s="26"/>
       <c r="J45" s="76"/>
     </row>
     <row r="46" spans="1:10">
       <c r="G46" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H46" s="73"/>
       <c r="J46" s="77" t="b">
@@ -60186,11 +60245,11 @@
     </row>
     <row r="47" spans="1:10">
       <c r="G47" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H47" s="15"/>
       <c r="I47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J47" s="77" t="b">
         <v>1</v>
@@ -60198,7 +60257,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="G48" s="36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H48" s="15"/>
       <c r="J48" s="77" t="b">
@@ -60207,11 +60266,11 @@
     </row>
     <row r="49" spans="7:10">
       <c r="G49" s="36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J49" s="77" t="b">
         <v>1</v>
@@ -60219,11 +60278,11 @@
     </row>
     <row r="50" spans="7:10">
       <c r="G50" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H50" s="15"/>
       <c r="I50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J50" s="77" t="b">
         <v>1</v>
@@ -60231,7 +60290,7 @@
     </row>
     <row r="51" spans="7:10" ht="16.5" thickBot="1">
       <c r="G51" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H51" s="42"/>
       <c r="I51" s="47"/>
@@ -60259,13 +60318,13 @@
           <x14:formula1>
             <xm:f>'Dropdown Items'!$C$45:$C$49</xm:f>
           </x14:formula1>
-          <xm:sqref>H46 H26 H38 H8 H17 B7</xm:sqref>
+          <xm:sqref>H46 H26 H38 H8 H17 B7 B16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{78D39FEA-743C-473E-8A17-D508AE3698B1}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$H$16:$H$20</xm:f>
           </x14:formula1>
-          <xm:sqref>H37 H7 H25 H45 H16 B6</xm:sqref>
+          <xm:sqref>H37 H7 H25 H45 H16 B6 B15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -60277,8 +60336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FF38F2-F6A4-4E96-86E9-D45968350123}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -60291,22 +60350,22 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="63" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E1" s="63" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75">
@@ -60314,15 +60373,15 @@
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B5" s="87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -60330,7 +60389,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B6" s="86">
         <v>80</v>
@@ -60344,7 +60403,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B7" s="86">
         <v>1500</v>
@@ -60358,10 +60417,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C8" s="83"/>
       <c r="D8" t="b">
@@ -60370,10 +60429,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -60387,7 +60446,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B11" s="84"/>
       <c r="C11" s="2"/>
@@ -60395,10 +60454,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B12" s="87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -60406,7 +60465,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -60449,13 +60508,13 @@
     </row>
     <row r="18" spans="1:4" ht="15.75">
       <c r="A18" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B18" s="86"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B19" s="86">
         <v>0.17199999999999999</v>
@@ -60469,7 +60528,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B20" s="86"/>
       <c r="C20" s="34" t="s">
@@ -60481,7 +60540,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B21" s="86"/>
       <c r="C21" s="34"/>
@@ -60491,7 +60550,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B22" s="86"/>
       <c r="C22" s="34"/>
@@ -60501,7 +60560,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B23" s="86"/>
       <c r="C23" s="34"/>
@@ -60573,8 +60632,8 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46:B46"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -60587,16 +60646,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="63"/>
       <c r="D1" s="63" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E1" s="63"/>
       <c r="G1" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H1" s="103"/>
       <c r="I1" s="103"/>
@@ -60604,7 +60663,7 @@
     </row>
     <row r="2" spans="1:10" ht="130.5" customHeight="1">
       <c r="A2" s="100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="101"/>
       <c r="C2" s="101"/>
@@ -60615,7 +60674,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="G3" s="45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H3" s="45"/>
       <c r="I3" s="3"/>
@@ -60629,56 +60688,56 @@
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="G5" s="82" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H5" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="I5" s="40" t="s">
-        <v>148</v>
-      </c>
       <c r="J5" s="75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1">
       <c r="G6" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H6" s="72" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J6" s="76"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="82" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B7" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>148</v>
-      </c>
       <c r="D7" s="75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H7" s="26"/>
       <c r="J7" s="76"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D8" s="76"/>
       <c r="G8" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H8" s="73"/>
       <c r="J8" s="77" t="b">
@@ -60687,14 +60746,14 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B9" s="87">
         <v>1</v>
       </c>
       <c r="D9" s="76"/>
       <c r="G9" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H9" s="15"/>
       <c r="J9" s="77" t="b">
@@ -60703,16 +60762,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B10" s="98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="77" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" t="s">
@@ -60724,20 +60783,20 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B11" s="90" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D11" s="77" t="b">
         <v>1</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J11" s="77" t="b">
         <v>1</v>
@@ -60745,7 +60804,7 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" thickBot="1">
       <c r="A12" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B12" s="90">
         <v>25</v>
@@ -60757,7 +60816,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="47"/>
@@ -60767,13 +60826,13 @@
     </row>
     <row r="13" spans="1:10" ht="16.5" thickBot="1">
       <c r="A13" s="36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B13" s="90">
         <v>0.25</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" s="77" t="b">
         <v>1</v>
@@ -60784,7 +60843,7 @@
     </row>
     <row r="14" spans="1:10" ht="16.5" thickBot="1">
       <c r="A14" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B14" s="91"/>
       <c r="C14" s="47"/>
@@ -60792,53 +60851,53 @@
         <v>1</v>
       </c>
       <c r="G14" s="82" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H14" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="I14" s="40" t="s">
-        <v>148</v>
-      </c>
       <c r="J14" s="75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="G15" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H15" s="72" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J15" s="76"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="G16" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H16" s="26"/>
       <c r="J16" s="76"/>
     </row>
     <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="82" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B17" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>148</v>
-      </c>
       <c r="D17" s="75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J17" s="77" t="b">
         <v>1</v>
@@ -60846,14 +60905,14 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D18" s="76"/>
       <c r="G18" s="36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H18" s="15"/>
       <c r="J18" s="77" t="b">
@@ -60862,18 +60921,18 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B19" s="87">
         <v>2</v>
       </c>
       <c r="D19" s="76"/>
       <c r="G19" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J19" s="77" t="b">
         <v>1</v>
@@ -60881,19 +60940,19 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1">
       <c r="A20" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B20" s="90">
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D20" s="77" t="b">
         <v>1</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="47"/>
@@ -60903,7 +60962,7 @@
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B21" s="90"/>
       <c r="D21" s="77" t="b">
@@ -60912,31 +60971,31 @@
     </row>
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B22" s="90"/>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" s="77" t="b">
         <v>1</v>
       </c>
       <c r="G22" s="82" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H22" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="I22" s="40" t="s">
-        <v>148</v>
-      </c>
       <c r="J22" s="75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickBot="1">
       <c r="A23" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B23" s="91"/>
       <c r="C23" s="47"/>
@@ -60944,23 +61003,23 @@
         <v>1</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H23" s="72" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J23" s="76"/>
     </row>
     <row r="24" spans="1:10">
       <c r="G24" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H24" s="26"/>
       <c r="J24" s="76"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="G25" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H25" s="73"/>
       <c r="J25" s="77" t="b">
@@ -60969,19 +61028,19 @@
     </row>
     <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="82" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B26" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="40" t="s">
-        <v>148</v>
-      </c>
       <c r="D26" s="75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H26" s="26"/>
       <c r="J26" s="77" t="b">
@@ -60990,14 +61049,14 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D27" s="76"/>
       <c r="G27" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" t="s">
@@ -61009,18 +61068,18 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B28" s="87">
         <v>3</v>
       </c>
       <c r="D28" s="76"/>
       <c r="G28" s="36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J28" s="77" t="b">
         <v>1</v>
@@ -61028,16 +61087,16 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1">
       <c r="A29" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B29" s="98" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" s="77" t="b">
         <v>1</v>
       </c>
       <c r="G29" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H29" s="42"/>
       <c r="I29" s="47"/>
@@ -61047,10 +61106,10 @@
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1">
       <c r="A30" s="36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B30" s="87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30" s="77" t="b">
         <v>1</v>
@@ -61058,7 +61117,7 @@
     </row>
     <row r="31" spans="1:10" ht="15.75">
       <c r="A31" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B31" s="90">
         <v>25</v>
@@ -61070,42 +61129,42 @@
         <v>1</v>
       </c>
       <c r="G31" s="82" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H31" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="I31" s="40" t="s">
-        <v>148</v>
-      </c>
       <c r="J31" s="75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B32" s="90">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D32" s="77" t="b">
         <v>1</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H32" s="88" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J32" s="76"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" thickBot="1">
       <c r="A33" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B33" s="91"/>
       <c r="C33" s="47"/>
@@ -61113,14 +61172,14 @@
         <v>1</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H33" s="26"/>
       <c r="J33" s="76"/>
     </row>
     <row r="34" spans="1:10">
       <c r="G34" s="36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H34" s="15"/>
       <c r="J34" s="77" t="b">
@@ -61129,7 +61188,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="G35" s="36" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" t="s">
@@ -61141,11 +61200,11 @@
     </row>
     <row r="36" spans="1:10">
       <c r="G36" s="36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J36" s="77" t="b">
         <v>1</v>
@@ -61153,7 +61212,7 @@
     </row>
     <row r="37" spans="1:10" ht="16.5" thickBot="1">
       <c r="G37" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H37" s="42"/>
       <c r="I37" s="47"/>
@@ -61163,10 +61222,10 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -61207,7 +61266,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -61224,15 +61283,15 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="6"/>
       <c r="D1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F1" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G1" s="103"/>
       <c r="H1" s="103"/>
@@ -61240,7 +61299,7 @@
     </row>
     <row r="2" spans="1:10" ht="93" customHeight="1">
       <c r="A2" s="100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="101"/>
       <c r="C2" s="101"/>
@@ -61253,7 +61312,7 @@
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="53"/>
       <c r="F3" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G3" s="45"/>
       <c r="H3" s="3"/>
@@ -61261,54 +61320,54 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="F4" s="51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1">
       <c r="A5" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F6" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="G6" s="74" t="s">
         <v>398</v>
-      </c>
-      <c r="G6" s="74" t="s">
-        <v>399</v>
       </c>
       <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="B7" s="74" t="s">
         <v>398</v>
-      </c>
-      <c r="B7" s="74" t="s">
-        <v>399</v>
       </c>
       <c r="D7" s="37"/>
       <c r="F7" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G7" s="92"/>
       <c r="I7" s="37" t="b">
@@ -61317,16 +61376,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="37" t="b">
         <v>1</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G8" s="88"/>
       <c r="H8" t="s">
@@ -61338,7 +61397,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="88">
         <v>1500</v>
@@ -61350,11 +61409,11 @@
         <v>1</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G9" s="88"/>
       <c r="H9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I9" s="37" t="b">
         <v>1</v>
@@ -61362,19 +61421,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B10" s="88">
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D10" s="37" t="b">
         <v>1</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" t="s">
@@ -61384,12 +61443,12 @@
         <v>1</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" t="s">
@@ -61399,7 +61458,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G11" s="88"/>
       <c r="I11" s="37" t="b">
@@ -61408,14 +61467,14 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1">
       <c r="A12" s="36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B12" s="88"/>
       <c r="D12" s="37" t="b">
         <v>1</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G12" s="93"/>
       <c r="H12" s="50"/>
@@ -61425,7 +61484,7 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1">
       <c r="A13" s="44" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B13" s="93"/>
       <c r="C13" s="50"/>
@@ -61436,28 +61495,28 @@
     </row>
     <row r="14" spans="1:10" ht="15.75">
       <c r="F14" s="94" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G14" s="95"/>
       <c r="H14" s="95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14" s="96" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="F15" s="36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I15" s="37"/>
     </row>
     <row r="16" spans="1:10">
       <c r="F16" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G16" s="97"/>
       <c r="I16" s="37" t="b">
@@ -61466,7 +61525,7 @@
     </row>
     <row r="17" spans="6:10">
       <c r="F17" s="36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G17" s="15"/>
       <c r="I17" s="37" t="b">
@@ -61475,7 +61534,7 @@
     </row>
     <row r="18" spans="6:10">
       <c r="F18" s="36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G18" s="15"/>
       <c r="I18" s="37" t="b">
@@ -61484,7 +61543,7 @@
     </row>
     <row r="19" spans="6:10">
       <c r="F19" s="36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G19" s="15"/>
       <c r="I19" s="37" t="b">
@@ -61493,19 +61552,19 @@
     </row>
     <row r="20" spans="6:10">
       <c r="F20" s="36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G20" s="15"/>
       <c r="I20" s="37" t="b">
         <v>1</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="6:10">
       <c r="F21" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" t="s">
@@ -61517,11 +61576,11 @@
     </row>
     <row r="22" spans="6:10">
       <c r="F22" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I22" s="37" t="b">
         <v>1</v>
@@ -61529,7 +61588,7 @@
     </row>
     <row r="23" spans="6:10">
       <c r="F23" s="36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G23" s="15"/>
       <c r="I23" s="37" t="b">
@@ -61538,7 +61597,7 @@
     </row>
     <row r="24" spans="6:10">
       <c r="F24" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G24" s="26"/>
       <c r="I24" s="37" t="b">
@@ -61547,7 +61606,7 @@
     </row>
     <row r="25" spans="6:10" ht="15.75" thickBot="1">
       <c r="F25" s="44" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G25" s="93"/>
       <c r="H25" s="50"/>
@@ -61561,28 +61620,28 @@
     </row>
     <row r="27" spans="6:10" ht="15.75">
       <c r="F27" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G27" s="40"/>
       <c r="H27" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I27" s="41" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="28" spans="6:10">
       <c r="F28" s="36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G28" s="74" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I28" s="37"/>
     </row>
     <row r="29" spans="6:10">
       <c r="F29" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G29" s="92"/>
       <c r="I29" s="37" t="b">
@@ -61591,11 +61650,11 @@
     </row>
     <row r="30" spans="6:10" ht="15.75" thickBot="1">
       <c r="F30" s="44" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G30" s="42"/>
       <c r="H30" s="50" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I30" s="43" t="b">
         <v>1</v>
@@ -61609,29 +61668,29 @@
     </row>
     <row r="32" spans="6:10" ht="15.75">
       <c r="F32" s="94" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G32" s="95"/>
       <c r="H32" s="95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I32" s="96" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="6:10">
       <c r="F33" s="36" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G33" s="97"/>
       <c r="I33" s="37"/>
       <c r="J33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="6:10">
       <c r="F34" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G34" s="97"/>
       <c r="I34" s="37" t="b">
@@ -61640,7 +61699,7 @@
     </row>
     <row r="35" spans="6:10">
       <c r="F35" s="36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G35" s="15"/>
       <c r="I35" s="37" t="b">
@@ -61649,7 +61708,7 @@
     </row>
     <row r="36" spans="6:10">
       <c r="F36" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" t="s">
@@ -61661,7 +61720,7 @@
     </row>
     <row r="37" spans="6:10">
       <c r="F37" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G37" s="26"/>
       <c r="I37" s="37" t="b">
@@ -61670,7 +61729,7 @@
     </row>
     <row r="38" spans="6:10">
       <c r="F38" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G38" s="15"/>
       <c r="I38" s="37" t="b">
@@ -61679,19 +61738,19 @@
     </row>
     <row r="39" spans="6:10">
       <c r="F39" s="36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G39" s="38"/>
       <c r="I39" s="37" t="b">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="6:10" ht="15.75" thickBot="1">
       <c r="F40" s="44" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G40" s="93"/>
       <c r="H40" s="50"/>
@@ -61702,26 +61761,26 @@
     <row r="53" spans="6:9" ht="15.75" thickBot="1"/>
     <row r="54" spans="6:9" ht="15.75">
       <c r="F54" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G54" s="40"/>
       <c r="H54" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="I54" s="41" t="s">
         <v>148</v>
-      </c>
-      <c r="I54" s="41" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="55" spans="6:9">
       <c r="F55" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G55" s="26"/>
       <c r="I55" s="37"/>
     </row>
     <row r="56" spans="6:9">
       <c r="F56" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G56" s="49"/>
       <c r="H56" s="49"/>
@@ -61729,7 +61788,7 @@
     </row>
     <row r="57" spans="6:9">
       <c r="F57" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G57" s="49"/>
       <c r="H57" s="49"/>
@@ -61737,7 +61796,7 @@
     </row>
     <row r="58" spans="6:9" ht="15.75" thickBot="1">
       <c r="F58" s="44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G58" s="42"/>
       <c r="H58" s="42"/>
@@ -61795,16 +61854,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="63"/>
       <c r="D1" s="63" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E1" s="63"/>
       <c r="G1" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H1" s="103"/>
       <c r="I1" s="103"/>
@@ -61812,7 +61871,7 @@
     </row>
     <row r="2" spans="1:10" ht="129.75" customHeight="1">
       <c r="A2" s="100" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B2" s="101"/>
       <c r="C2" s="101"/>
@@ -61823,7 +61882,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="G3" s="45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H3" s="45"/>
       <c r="I3" s="3"/>
@@ -61837,68 +61896,68 @@
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B5" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>148</v>
-      </c>
       <c r="D5" s="75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G5" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H5" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="I5" s="40" t="s">
-        <v>148</v>
-      </c>
       <c r="J5" s="75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D6" s="76"/>
       <c r="G6" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H6" s="72" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J6" s="76"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B7" s="26"/>
       <c r="D7" s="76"/>
       <c r="G7" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H7" s="26"/>
       <c r="J7" s="76"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B8" s="73"/>
       <c r="D8" s="77" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H8" s="73"/>
       <c r="J8" s="77" t="b">
@@ -61907,7 +61966,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" t="s">
@@ -61917,7 +61976,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" t="s">
@@ -61929,21 +61988,21 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D10" s="77" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J10" s="77" t="b">
         <v>1</v>
@@ -61951,7 +62010,7 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1">
       <c r="A11" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="47"/>
@@ -61959,7 +62018,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H11" s="42"/>
       <c r="I11" s="47"/>
@@ -61974,37 +62033,37 @@
     </row>
     <row r="13" spans="1:10" ht="15.75">
       <c r="G13" s="82" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H13" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="I13" s="40" t="s">
-        <v>148</v>
-      </c>
       <c r="J13" s="75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="G14" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H14" s="72" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J14" s="76"/>
     </row>
     <row r="15" spans="1:10">
       <c r="G15" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H15" s="26"/>
       <c r="J15" s="76"/>
     </row>
     <row r="16" spans="1:10">
       <c r="G16" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H16" s="73"/>
       <c r="J16" s="77" t="b">
@@ -62013,7 +62072,7 @@
     </row>
     <row r="17" spans="7:10">
       <c r="G17" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H17" s="15"/>
       <c r="J17" s="77" t="b">
@@ -62022,7 +62081,7 @@
     </row>
     <row r="18" spans="7:10">
       <c r="G18" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" t="s">
@@ -62034,11 +62093,11 @@
     </row>
     <row r="19" spans="7:10">
       <c r="G19" s="36" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J19" s="77" t="b">
         <v>1</v>
@@ -62046,7 +62105,7 @@
     </row>
     <row r="20" spans="7:10" ht="16.5" thickBot="1">
       <c r="G20" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="47"/>
@@ -62057,37 +62116,37 @@
     <row r="21" spans="7:10" ht="15.75" thickBot="1"/>
     <row r="22" spans="7:10" ht="15.75">
       <c r="G22" s="82" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H22" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="I22" s="40" t="s">
-        <v>148</v>
-      </c>
       <c r="J22" s="75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="7:10">
       <c r="G23" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H23" s="88" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J23" s="76"/>
     </row>
     <row r="24" spans="7:10">
       <c r="G24" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H24" s="26"/>
       <c r="J24" s="76"/>
     </row>
     <row r="25" spans="7:10">
       <c r="G25" s="36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H25" s="15"/>
       <c r="J25" s="77" t="b">
@@ -62096,7 +62155,7 @@
     </row>
     <row r="26" spans="7:10">
       <c r="G26" s="36" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" t="s">
@@ -62108,11 +62167,11 @@
     </row>
     <row r="27" spans="7:10">
       <c r="G27" s="36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J27" s="77" t="b">
         <v>1</v>
@@ -62120,7 +62179,7 @@
     </row>
     <row r="28" spans="7:10" ht="16.5" thickBot="1">
       <c r="G28" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H28" s="42"/>
       <c r="I28" s="47"/>
@@ -62130,10 +62189,10 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -62167,8 +62226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74937810-402C-794A-86DB-3B61877792EA}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -62182,14 +62241,14 @@
   <sheetData>
     <row r="1" spans="1:7" s="9" customFormat="1" ht="21">
       <c r="A1" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:7" s="9" customFormat="1" ht="60" customHeight="1">
       <c r="A2" s="105" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="105"/>
     </row>
@@ -62199,45 +62258,45 @@
         <v>1</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="E4" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>57</v>
-      </c>
       <c r="F4" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G5" s="48"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" t="s">
@@ -62247,36 +62306,36 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" s="33"/>
       <c r="G9" s="48"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" s="33"/>
       <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11" s="33">
         <v>2.02E-4</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="33"/>
@@ -62284,11 +62343,11 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="33"/>
@@ -62296,11 +62355,11 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="33"/>
@@ -62308,11 +62367,11 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="33"/>
@@ -62320,11 +62379,11 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="33"/>
@@ -62332,11 +62391,11 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="33"/>
@@ -62344,11 +62403,11 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="33"/>
@@ -62356,11 +62415,11 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="33"/>
@@ -62368,11 +62427,11 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="33"/>
@@ -62380,7 +62439,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B20" s="33"/>
       <c r="D20" s="26"/>
@@ -62389,68 +62448,68 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B22" s="33">
         <v>-3</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1">
       <c r="A26" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B26" s="54"/>
       <c r="C26" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="54"/>
@@ -62523,7 +62582,7 @@
   <sheetData>
     <row r="1" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="21">
       <c r="A1" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
@@ -62533,7 +62592,7 @@
     </row>
     <row r="2" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="60" customHeight="1">
       <c r="A2" s="105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="105"/>
       <c r="C2" s="105"/>
@@ -62549,22 +62608,22 @@
     </row>
     <row r="4" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75">
       <c r="A4" s="39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="D4" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="41" t="s">
         <v>148</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>149</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -64617,10 +64676,10 @@
     </row>
     <row r="5" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A5" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -64630,7 +64689,7 @@
     </row>
     <row r="6" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A6" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6"/>
@@ -64640,11 +64699,11 @@
     </row>
     <row r="7" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A7" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="33"/>
@@ -64652,7 +64711,7 @@
     </row>
     <row r="8" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75" thickBot="1">
       <c r="A8" s="44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8" s="54"/>
       <c r="C8" s="50"/>
@@ -64663,27 +64722,27 @@
     <row r="10" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75">
       <c r="A11" s="39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>147</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>148</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
       <c r="F11" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A12" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -64692,7 +64751,7 @@
     </row>
     <row r="13" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A13" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13"/>
@@ -64702,7 +64761,7 @@
     </row>
     <row r="14" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="A14" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14"/>
@@ -64712,7 +64771,7 @@
     </row>
     <row r="15" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75" thickBot="1">
       <c r="A15" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="50"/>
@@ -64723,26 +64782,26 @@
     <row r="17" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="18" spans="1:6" ht="15.75">
       <c r="A18" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B18" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="40" t="s">
         <v>147</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>148</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
       <c r="F18" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -64751,7 +64810,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B20" s="33">
         <v>1000</v>
@@ -64765,7 +64824,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21"/>
@@ -64775,7 +64834,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" t="s">
@@ -64787,7 +64846,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B23" s="59">
         <v>175</v>
@@ -64801,11 +64860,11 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1">
       <c r="A24" s="44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B24" s="54"/>
       <c r="C24" s="50" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D24" s="55"/>
       <c r="E24" s="54"/>
@@ -64814,26 +64873,26 @@
     <row r="26" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="27" spans="1:6" ht="15.75">
       <c r="A27" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="40" t="s">
         <v>147</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>148</v>
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="40"/>
       <c r="F27" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -64842,13 +64901,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B29" s="33">
         <v>17.600000000000001</v>
       </c>
       <c r="C29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="33"/>
@@ -64856,7 +64915,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B30" s="33">
         <v>75</v>
@@ -64868,7 +64927,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" t="s">
@@ -64880,7 +64939,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32"/>
@@ -64890,11 +64949,11 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="33"/>
@@ -64902,7 +64961,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34"/>
@@ -64912,7 +64971,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" t="s">
@@ -64924,7 +64983,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36"/>
@@ -64934,7 +64993,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B37" s="59"/>
       <c r="C37" t="s">
@@ -64946,7 +65005,7 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1">
       <c r="A38" s="44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B38" s="54"/>
       <c r="C38" s="50"/>
@@ -64957,23 +65016,23 @@
     <row r="40" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="41" spans="1:12" ht="15.75">
       <c r="A41" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B41" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="40" t="s">
         <v>147</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>148</v>
       </c>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
       <c r="F41" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42"/>
@@ -64983,7 +65042,7 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1">
       <c r="A43" s="44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B43" s="54"/>
       <c r="C43" s="50" t="s">

--- a/db_feed/new_template_v4.xlsx
+++ b/db_feed/new_template_v4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5B129E-344A-4D4A-96CD-C6418B00B169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102DA47E-23FA-4EF2-A4F3-23A39353AADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="0" yWindow="396" windowWidth="22680" windowHeight="11964" firstSheet="2" activeTab="2" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="435">
   <si>
     <t>Solution Information</t>
   </si>
@@ -1544,6 +1544,18 @@
   <si>
     <t>A00_A01</t>
   </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>param1</t>
+  </si>
+  <si>
+    <t>param2</t>
+  </si>
 </sst>
 </file>
 
@@ -2134,7 +2146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2331,46 +2343,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2390,20 +2364,31 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2712,7 +2697,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2726,15 +2711,15 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="75.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="52.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="75.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="52.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
@@ -2759,14 +2744,14 @@
       <c r="D2" s="59"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" spans="1:5" ht="15.6">
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
       <c r="D3" s="59"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="10" t="s">
         <v>364</v>
       </c>
@@ -2777,7 +2762,7 @@
       <c r="D4" s="59"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75">
+    <row r="5" spans="1:5" ht="15.6">
       <c r="A5" s="30" t="s">
         <v>272</v>
       </c>
@@ -2792,7 +2777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75">
+    <row r="6" spans="1:5" ht="15.6">
       <c r="A6" s="30" t="s">
         <v>273</v>
       </c>
@@ -2804,7 +2789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75">
+    <row r="7" spans="1:5" ht="15.6">
       <c r="A7" s="30" t="s">
         <v>274</v>
       </c>
@@ -2816,13 +2801,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75">
+    <row r="8" spans="1:5" ht="15.6">
       <c r="A8" s="30"/>
       <c r="B8" s="62"/>
       <c r="C8" s="62"/>
       <c r="D8" s="62"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75">
+    <row r="9" spans="1:5" ht="15.6">
       <c r="A9" s="10" t="s">
         <v>276</v>
       </c>
@@ -2830,7 +2815,7 @@
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:5" ht="15.6">
       <c r="A10" s="30" t="s">
         <v>31</v>
       </c>
@@ -2840,17 +2825,17 @@
       <c r="C10" s="63"/>
       <c r="D10" s="63"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="15.6">
       <c r="A11" s="30"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="12" spans="1:5" ht="15.6">
       <c r="A12" s="69" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75">
+    <row r="13" spans="1:5" ht="15.6">
       <c r="A13" s="8" t="s">
         <v>49</v>
       </c>
@@ -2902,7 +2887,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75">
+    <row r="18" spans="1:5" ht="15.6">
       <c r="A18" s="69" t="s">
         <v>277</v>
       </c>
@@ -2911,12 +2896,12 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75">
+    <row r="19" spans="1:5" ht="15.6">
       <c r="A19" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75">
+    <row r="20" spans="1:5" ht="15.6">
       <c r="A20" s="30" t="s">
         <v>32</v>
       </c>
@@ -2929,7 +2914,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75">
+    <row r="22" spans="1:5" ht="15.6">
       <c r="A22" s="10" t="s">
         <v>125</v>
       </c>
@@ -3097,7 +3082,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75">
+    <row r="41" spans="1:5" ht="15.6">
       <c r="A41" s="10"/>
     </row>
   </sheetData>
@@ -3183,13 +3168,13 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="51" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="3"/>
+    <col min="2" max="2" width="24.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1" ht="21">
@@ -3199,16 +3184,16 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="114" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="103"/>
+      <c r="B2" s="114"/>
     </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="3" spans="1:4" s="9" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
     </row>
-    <row r="4" spans="1:4" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="4" spans="1:4" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A4" s="58" t="s">
         <v>184</v>
       </c>
@@ -3219,14 +3204,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="5" spans="1:4" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A5" s="36" t="s">
         <v>186</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="48"/>
     </row>
-    <row r="6" spans="1:4" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="6" spans="1:4" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>187</v>
       </c>
@@ -3254,7 +3239,7 @@
       <c r="B9" s="33"/>
       <c r="C9" s="48"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+    <row r="10" spans="1:4" ht="15" thickBot="1">
       <c r="A10" s="44" t="s">
         <v>191</v>
       </c>
@@ -3273,7 +3258,7 @@
     <row r="13" spans="1:4">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75">
+    <row r="14" spans="1:4" ht="15.6">
       <c r="A14" s="14"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3309,7 +3294,7 @@
     <row r="49" spans="1:16379">
       <c r="A49"/>
     </row>
-    <row r="50" spans="1:16379" ht="15.75">
+    <row r="50" spans="1:16379" ht="15.6">
       <c r="A50" s="14"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -3335,13 +3320,13 @@
     <row r="55" spans="1:16379">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:16379" ht="15.75">
+    <row r="56" spans="1:16379" ht="15.6">
       <c r="A56" s="14"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="1:16379" s="7" customFormat="1" ht="15.75">
+    <row r="57" spans="1:16379" s="7" customFormat="1" ht="15.6">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57" s="3"/>
@@ -42253,7 +42238,7 @@
     <row r="91" spans="1:4">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:4" ht="15.75">
+    <row r="92" spans="1:4" ht="15.6">
       <c r="A92" s="14"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -42279,7 +42264,7 @@
     <row r="97" spans="1:16379">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:16379" ht="15.75">
+    <row r="98" spans="1:16379" ht="15.6">
       <c r="A98" s="14"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -58686,17 +58671,17 @@
       <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -58810,7 +58795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75">
+    <row r="17" spans="1:9" ht="15.6">
       <c r="A17" s="22" t="s">
         <v>132</v>
       </c>
@@ -58836,7 +58821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75">
+    <row r="18" spans="1:9" ht="15.6">
       <c r="A18" s="22" t="s">
         <v>75</v>
       </c>
@@ -58862,7 +58847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75">
+    <row r="19" spans="1:9" ht="15.6">
       <c r="A19" s="21" t="s">
         <v>133</v>
       </c>
@@ -58888,7 +58873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75">
+    <row r="20" spans="1:9" ht="15.6">
       <c r="A20" s="21" t="s">
         <v>131</v>
       </c>
@@ -59011,7 +58996,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75">
+    <row r="30" spans="1:9" ht="15.6">
       <c r="B30" t="s">
         <v>90</v>
       </c>
@@ -59025,7 +59010,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75">
+    <row r="31" spans="1:9" ht="15.6">
       <c r="B31" t="s">
         <v>91</v>
       </c>
@@ -59039,7 +59024,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75">
+    <row r="32" spans="1:9" ht="15.6">
       <c r="B32" t="s">
         <v>92</v>
       </c>
@@ -59053,7 +59038,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="B33" t="s">
         <v>93</v>
       </c>
@@ -59067,7 +59052,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="B34" t="s">
         <v>94</v>
       </c>
@@ -59078,12 +59063,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="G35" s="22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="G36" s="22" t="s">
         <v>107</v>
       </c>
@@ -59093,7 +59078,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="G38" s="22" t="s">
         <v>109</v>
       </c>
@@ -59318,14 +59303,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="93.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" customWidth="1"/>
+    <col min="5" max="5" width="93.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
@@ -59344,12 +59329,12 @@
       </c>
       <c r="F1" s="32"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="13" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="15.6">
       <c r="A4" s="10" t="s">
         <v>238</v>
       </c>
@@ -59408,7 +59393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75">
+    <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="10" t="s">
         <v>240</v>
       </c>
@@ -59477,7 +59462,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75">
+    <row r="17" spans="1:5" ht="15.6">
       <c r="A17" s="10" t="s">
         <v>246</v>
       </c>
@@ -59536,7 +59521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75">
+    <row r="24" spans="1:5" ht="15.6">
       <c r="A24" s="10" t="s">
         <v>240</v>
       </c>
@@ -59602,7 +59587,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75">
+    <row r="31" spans="1:5" ht="15.6">
       <c r="A31" s="10" t="s">
         <v>246</v>
       </c>
@@ -59647,7 +59632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75">
+    <row r="37" spans="1:5" ht="15.6">
       <c r="A37" s="10" t="s">
         <v>0</v>
       </c>
@@ -59736,24 +59721,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6BB566-6734-43D2-B721-97B73307DE8D}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="21.6" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>145</v>
       </c>
@@ -59764,19 +59749,19 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="32"/>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="102"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="113"/>
     </row>
-    <row r="2" spans="1:10" ht="130.15" customHeight="1">
-      <c r="A2" s="98" t="s">
+    <row r="2" spans="1:10" ht="130.19999999999999" customHeight="1">
+      <c r="A2" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -59784,7 +59769,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1">
+    <row r="3" spans="1:10" ht="16.2" thickBot="1">
       <c r="A3" s="14"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -59795,7 +59780,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" thickBot="1">
+    <row r="4" spans="1:10" ht="16.2" thickBot="1">
       <c r="A4" s="80" t="s">
         <v>306</v>
       </c>
@@ -59814,7 +59799,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="15.6">
       <c r="A5" s="36" t="s">
         <v>283</v>
       </c>
@@ -59882,8 +59867,8 @@
         <v>292</v>
       </c>
       <c r="H8" s="71"/>
-      <c r="J8" s="75" t="b">
-        <v>1</v>
+      <c r="J8" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -59904,8 +59889,8 @@
         <v>303</v>
       </c>
       <c r="H9" s="15"/>
-      <c r="J9" s="75" t="b">
-        <v>1</v>
+      <c r="J9" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -59925,11 +59910,11 @@
         <v>302</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="J10" s="75" t="b">
-        <v>1</v>
+      <c r="J10" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1">
+    <row r="11" spans="1:10" ht="16.2" thickBot="1">
       <c r="A11" s="46" t="s">
         <v>294</v>
       </c>
@@ -59945,26 +59930,26 @@
       <c r="I11" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="75" t="b">
-        <v>1</v>
+      <c r="J11" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1">
+    <row r="12" spans="1:10" ht="16.2" thickBot="1">
       <c r="G12" s="46" t="s">
         <v>294</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="47"/>
-      <c r="J12" s="76" t="b">
-        <v>1</v>
+      <c r="J12" s="76" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" thickBot="1">
+    <row r="13" spans="1:10" ht="16.2" thickBot="1">
       <c r="G13" s="22"/>
       <c r="I13" s="3"/>
       <c r="J13" s="77"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75">
+    <row r="14" spans="1:10" ht="15.6">
       <c r="G14" s="80" t="s">
         <v>306</v>
       </c>
@@ -59999,8 +59984,8 @@
         <v>292</v>
       </c>
       <c r="H17" s="71"/>
-      <c r="J17" s="75" t="b">
-        <v>1</v>
+      <c r="J17" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="7:10">
@@ -60011,8 +59996,8 @@
       <c r="I18" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="75" t="b">
-        <v>1</v>
+      <c r="J18" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="7:10">
@@ -60023,8 +60008,8 @@
       <c r="I19" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="75" t="b">
-        <v>1</v>
+      <c r="J19" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="7:10">
@@ -60035,24 +60020,24 @@
       <c r="I20" t="s">
         <v>151</v>
       </c>
-      <c r="J20" s="75" t="b">
-        <v>1</v>
+      <c r="J20" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
-    <row r="21" spans="7:10" ht="16.5" thickBot="1">
+    <row r="21" spans="7:10" ht="16.2" thickBot="1">
       <c r="G21" s="46" t="s">
         <v>294</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="47"/>
-      <c r="J21" s="76" t="b">
-        <v>1</v>
+      <c r="J21" s="76" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="22" spans="7:10" ht="15.75" thickBot="1">
+    <row r="22" spans="7:10" ht="15" thickBot="1">
       <c r="J22" s="78"/>
     </row>
-    <row r="23" spans="7:10" ht="15.75">
+    <row r="23" spans="7:10" ht="15.6">
       <c r="G23" s="80" t="s">
         <v>147</v>
       </c>
@@ -60087,8 +60072,8 @@
         <v>292</v>
       </c>
       <c r="H26" s="71"/>
-      <c r="J26" s="75" t="b">
-        <v>1</v>
+      <c r="J26" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="7:10">
@@ -60099,8 +60084,8 @@
       <c r="I27" t="s">
         <v>199</v>
       </c>
-      <c r="J27" s="75" t="b">
-        <v>1</v>
+      <c r="J27" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="7:10">
@@ -60108,8 +60093,8 @@
         <v>300</v>
       </c>
       <c r="H28" s="15"/>
-      <c r="J28" s="75" t="b">
-        <v>1</v>
+      <c r="J28" s="75" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="7:10">
@@ -60117,8 +60102,8 @@
         <v>291</v>
       </c>
       <c r="H29" s="15"/>
-      <c r="J29" s="75" t="b">
-        <v>1</v>
+      <c r="J29" s="75" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="7:10">
@@ -60126,8 +60111,8 @@
         <v>299</v>
       </c>
       <c r="H30" s="15"/>
-      <c r="J30" s="75" t="b">
-        <v>1</v>
+      <c r="J30" s="75" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="7:10">
@@ -60138,8 +60123,8 @@
       <c r="I31" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="75" t="b">
-        <v>1</v>
+      <c r="J31" s="75" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="7:10">
@@ -60150,25 +60135,25 @@
       <c r="I32" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="75" t="b">
-        <v>1</v>
+      <c r="J32" s="75" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16.5" thickBot="1">
+    <row r="33" spans="1:10" ht="16.2" thickBot="1">
       <c r="G33" s="46" t="s">
         <v>294</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="47"/>
-      <c r="J33" s="76" t="b">
-        <v>1</v>
+      <c r="J33" s="76" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16.5" thickBot="1">
+    <row r="34" spans="1:10" ht="16.2" thickBot="1">
       <c r="G34" s="14"/>
       <c r="J34" s="78"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75">
+    <row r="35" spans="1:10" ht="15.6">
       <c r="G35" s="80" t="s">
         <v>148</v>
       </c>
@@ -60203,8 +60188,8 @@
         <v>292</v>
       </c>
       <c r="H38" s="71"/>
-      <c r="J38" s="75" t="b">
-        <v>1</v>
+      <c r="J38" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -60215,8 +60200,8 @@
       <c r="I39" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="75" t="b">
-        <v>1</v>
+      <c r="J39" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -60227,27 +60212,27 @@
       <c r="I40" t="s">
         <v>151</v>
       </c>
-      <c r="J40" s="75" t="b">
-        <v>1</v>
+      <c r="J40" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16.5" thickBot="1">
+    <row r="41" spans="1:10" ht="16.2" thickBot="1">
       <c r="G41" s="46" t="s">
         <v>294</v>
       </c>
       <c r="H41" s="42"/>
       <c r="I41" s="47"/>
-      <c r="J41" s="76" t="b">
-        <v>1</v>
+      <c r="J41" s="76" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1">
+    <row r="42" spans="1:10" ht="15" thickBot="1">
       <c r="G42" s="3"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="79"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75">
+    <row r="43" spans="1:10" ht="15.6">
       <c r="A43" s="2" t="s">
         <v>363</v>
       </c>
@@ -60288,8 +60273,8 @@
         <v>292</v>
       </c>
       <c r="H46" s="71"/>
-      <c r="J46" s="75" t="b">
-        <v>1</v>
+      <c r="J46" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -60300,8 +60285,8 @@
       <c r="I47" t="s">
         <v>199</v>
       </c>
-      <c r="J47" s="75" t="b">
-        <v>1</v>
+      <c r="J47" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -60309,8 +60294,8 @@
         <v>289</v>
       </c>
       <c r="H48" s="15"/>
-      <c r="J48" s="75" t="b">
-        <v>1</v>
+      <c r="J48" s="75" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="7:10">
@@ -60321,8 +60306,8 @@
       <c r="I49" t="s">
         <v>152</v>
       </c>
-      <c r="J49" s="75" t="b">
-        <v>1</v>
+      <c r="J49" s="75" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -60333,18 +60318,18 @@
       <c r="I50" t="s">
         <v>153</v>
       </c>
-      <c r="J50" s="75" t="b">
-        <v>1</v>
+      <c r="J50" s="75" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="51" spans="7:10" ht="16.5" thickBot="1">
+    <row r="51" spans="7:10" ht="16.2" thickBot="1">
       <c r="G51" s="46" t="s">
         <v>294</v>
       </c>
       <c r="H51" s="42"/>
       <c r="I51" s="47"/>
-      <c r="J51" s="76" t="b">
-        <v>1</v>
+      <c r="J51" s="76" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -60386,15 +60371,15 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
@@ -60412,15 +60397,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75">
+    <row r="2" spans="1:5" ht="15.6">
       <c r="A2" s="13" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" spans="1:5" ht="15.6">
       <c r="A3" s="13"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="13" t="s">
         <v>314</v>
       </c>
@@ -60432,8 +60417,8 @@
       <c r="B5" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -60446,8 +60431,8 @@
       <c r="C6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="b">
-        <v>1</v>
+      <c r="D6" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -60460,8 +60445,8 @@
       <c r="C7" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="b">
-        <v>1</v>
+      <c r="D7" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -60472,8 +60457,8 @@
         <v>205</v>
       </c>
       <c r="C8" s="81"/>
-      <c r="D8" t="b">
-        <v>1</v>
+      <c r="D8" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -60483,8 +60468,8 @@
       <c r="B9" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="D9" t="b">
-        <v>1</v>
+      <c r="D9" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -60493,7 +60478,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="15.6">
       <c r="A11" s="13" t="s">
         <v>315</v>
       </c>
@@ -60508,6 +60493,9 @@
       <c r="B12" s="85" t="s">
         <v>85</v>
       </c>
+      <c r="D12" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="34" t="s">
@@ -60516,8 +60504,8 @@
       <c r="B13" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="D13" t="b">
-        <v>1</v>
+      <c r="D13" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -60530,8 +60518,8 @@
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" t="b">
-        <v>1</v>
+      <c r="D14" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -60539,8 +60527,8 @@
         <v>10</v>
       </c>
       <c r="B15" s="85"/>
-      <c r="D15" t="b">
-        <v>1</v>
+      <c r="D15" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -60548,14 +60536,14 @@
         <v>11</v>
       </c>
       <c r="B16" s="84"/>
-      <c r="D16" t="b">
-        <v>1</v>
+      <c r="D16" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="B17" s="83"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75">
+    <row r="18" spans="1:4" ht="15.6">
       <c r="A18" s="10" t="s">
         <v>246</v>
       </c>
@@ -60571,8 +60559,8 @@
       <c r="C19" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="b">
-        <v>1</v>
+      <c r="D19" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -60583,8 +60571,8 @@
       <c r="C20" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D20" t="b">
-        <v>1</v>
+      <c r="D20" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -60593,8 +60581,8 @@
       </c>
       <c r="B21" s="84"/>
       <c r="C21" s="34"/>
-      <c r="D21" t="b">
-        <v>1</v>
+      <c r="D21" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -60603,8 +60591,8 @@
       </c>
       <c r="B22" s="84"/>
       <c r="C22" s="34"/>
-      <c r="D22" t="b">
-        <v>1</v>
+      <c r="D22" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -60613,8 +60601,8 @@
       </c>
       <c r="B23" s="84"/>
       <c r="C23" s="34"/>
-      <c r="D23" t="b">
-        <v>1</v>
+      <c r="D23" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -60681,19 +60669,19 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46:B46"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="21.6" thickBot="1">
       <c r="A1" s="31" t="s">
         <v>319</v>
       </c>
@@ -60703,19 +60691,19 @@
         <v>245</v>
       </c>
       <c r="E1" s="61"/>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="102"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="113"/>
     </row>
     <row r="2" spans="1:10" ht="130.5" customHeight="1">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -60729,13 +60717,13 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="15.6">
       <c r="G5" s="80" t="s">
         <v>320</v>
       </c>
@@ -60749,7 +60737,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="G6" s="36" t="s">
         <v>283</v>
       </c>
@@ -60758,7 +60746,7 @@
       </c>
       <c r="J6" s="74"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75">
+    <row r="7" spans="1:10" ht="15.6">
       <c r="A7" s="80" t="s">
         <v>320</v>
       </c>
@@ -60789,8 +60777,8 @@
         <v>292</v>
       </c>
       <c r="H8" s="71"/>
-      <c r="J8" s="75" t="b">
-        <v>1</v>
+      <c r="J8" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -60805,8 +60793,8 @@
         <v>322</v>
       </c>
       <c r="H9" s="15"/>
-      <c r="J9" s="75" t="b">
-        <v>1</v>
+      <c r="J9" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -60826,8 +60814,8 @@
       <c r="I10" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="75" t="b">
-        <v>1</v>
+      <c r="J10" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -60847,11 +60835,11 @@
       <c r="I11" t="s">
         <v>151</v>
       </c>
-      <c r="J11" s="75" t="b">
-        <v>1</v>
+      <c r="J11" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1">
+    <row r="12" spans="1:10" ht="16.2" thickBot="1">
       <c r="A12" s="36" t="s">
         <v>295</v>
       </c>
@@ -60869,11 +60857,11 @@
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="47"/>
-      <c r="J12" s="76" t="b">
-        <v>1</v>
+      <c r="J12" s="76" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" thickBot="1">
+    <row r="13" spans="1:10" ht="16.2" thickBot="1">
       <c r="A13" s="36" t="s">
         <v>323</v>
       </c>
@@ -60890,7 +60878,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="77"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5" thickBot="1">
+    <row r="14" spans="1:10" ht="16.2" thickBot="1">
       <c r="A14" s="46" t="s">
         <v>294</v>
       </c>
@@ -60921,14 +60909,14 @@
       </c>
       <c r="J15" s="74"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="G16" s="36" t="s">
         <v>293</v>
       </c>
       <c r="H16" s="26"/>
       <c r="J16" s="74"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75">
+    <row r="17" spans="1:10" ht="15.6">
       <c r="A17" s="80" t="s">
         <v>324</v>
       </c>
@@ -60948,8 +60936,8 @@
       <c r="I17" t="s">
         <v>199</v>
       </c>
-      <c r="J17" s="75" t="b">
-        <v>1</v>
+      <c r="J17" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -60964,8 +60952,8 @@
         <v>326</v>
       </c>
       <c r="H18" s="15"/>
-      <c r="J18" s="75" t="b">
-        <v>1</v>
+      <c r="J18" s="75" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -60983,11 +60971,11 @@
       <c r="I19" t="s">
         <v>153</v>
       </c>
-      <c r="J19" s="75" t="b">
-        <v>1</v>
+      <c r="J19" s="75" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" thickBot="1">
+    <row r="20" spans="1:10" ht="16.2" thickBot="1">
       <c r="A20" s="36" t="s">
         <v>288</v>
       </c>
@@ -61005,11 +60993,11 @@
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="47"/>
-      <c r="J20" s="76" t="b">
-        <v>1</v>
+      <c r="J20" s="76" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="36" t="s">
         <v>326</v>
       </c>
@@ -61018,7 +61006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
+    <row r="22" spans="1:10" ht="15.6">
       <c r="A22" s="36" t="s">
         <v>291</v>
       </c>
@@ -61042,7 +61030,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" thickBot="1">
+    <row r="23" spans="1:10" ht="16.2" thickBot="1">
       <c r="A23" s="46" t="s">
         <v>294</v>
       </c>
@@ -61066,16 +61054,16 @@
       <c r="H24" s="26"/>
       <c r="J24" s="74"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="G25" s="36" t="s">
         <v>292</v>
       </c>
       <c r="H25" s="71"/>
-      <c r="J25" s="75" t="b">
-        <v>1</v>
+      <c r="J25" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75">
+    <row r="26" spans="1:10" ht="15.6">
       <c r="A26" s="80" t="s">
         <v>327</v>
       </c>
@@ -61092,8 +61080,8 @@
         <v>329</v>
       </c>
       <c r="H26" s="26"/>
-      <c r="J26" s="75" t="b">
-        <v>1</v>
+      <c r="J26" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -61111,8 +61099,8 @@
       <c r="I27" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="75" t="b">
-        <v>1</v>
+      <c r="J27" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -61130,11 +61118,11 @@
       <c r="I28" t="s">
         <v>151</v>
       </c>
-      <c r="J28" s="75" t="b">
-        <v>1</v>
+      <c r="J28" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.5" thickBot="1">
+    <row r="29" spans="1:10" ht="16.2" thickBot="1">
       <c r="A29" s="36" t="s">
         <v>292</v>
       </c>
@@ -61149,11 +61137,11 @@
       </c>
       <c r="H29" s="42"/>
       <c r="I29" s="47"/>
-      <c r="J29" s="76" t="b">
-        <v>1</v>
+      <c r="J29" s="76" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1">
+    <row r="30" spans="1:10" ht="15" thickBot="1">
       <c r="A30" s="36" t="s">
         <v>329</v>
       </c>
@@ -61164,7 +61152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75">
+    <row r="31" spans="1:10" ht="15.6">
       <c r="A31" s="36" t="s">
         <v>295</v>
       </c>
@@ -61211,7 +61199,7 @@
       </c>
       <c r="J32" s="74"/>
     </row>
-    <row r="33" spans="1:10" ht="16.5" thickBot="1">
+    <row r="33" spans="1:10" ht="16.2" thickBot="1">
       <c r="A33" s="46" t="s">
         <v>294</v>
       </c>
@@ -61231,8 +61219,8 @@
         <v>331</v>
       </c>
       <c r="H34" s="15"/>
-      <c r="J34" s="75" t="b">
-        <v>1</v>
+      <c r="J34" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -61243,8 +61231,8 @@
       <c r="I35" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="75" t="b">
-        <v>1</v>
+      <c r="J35" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -61255,18 +61243,36 @@
       <c r="I36" t="s">
         <v>151</v>
       </c>
-      <c r="J36" s="75" t="b">
-        <v>1</v>
+      <c r="J36" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="16.5" thickBot="1">
-      <c r="G37" s="46" t="s">
+    <row r="37" spans="1:10">
+      <c r="G37" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="H37" s="38"/>
+      <c r="J37" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="G38" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="H38" s="38"/>
+      <c r="J38" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="16.2" thickBot="1">
+      <c r="G39" s="46" t="s">
         <v>294</v>
       </c>
-      <c r="H37" s="42"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="76" t="b">
-        <v>1</v>
+      <c r="H39" s="42"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="76" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -61314,23 +61320,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E323FD3-6C48-44BB-9F06-8E13A7AFDEDD}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:I12"/>
+    <sheetView topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41:I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="21.6" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>160</v>
       </c>
@@ -61339,26 +61345,26 @@
       <c r="D1" t="s">
         <v>245</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="102"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="113"/>
     </row>
     <row r="2" spans="1:10" ht="93" customHeight="1">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
       <c r="D2" s="87"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10" ht="15.6">
       <c r="A3" s="53"/>
       <c r="F3" s="45" t="s">
         <v>170</v>
@@ -61367,13 +61373,13 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="F4" s="51" t="s">
         <v>171</v>
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5" thickBot="1">
+    <row r="5" spans="1:10" ht="16.2" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>173</v>
       </c>
@@ -61388,7 +61394,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75">
+    <row r="6" spans="1:10" ht="15.6">
       <c r="A6" s="39" t="s">
         <v>161</v>
       </c>
@@ -61419,19 +61425,17 @@
         <v>340</v>
       </c>
       <c r="G7" s="90"/>
-      <c r="I7" s="37" t="b">
-        <v>1</v>
+      <c r="I7" s="37" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="B8" s="90" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="37" t="b">
-        <v>1</v>
+      <c r="B8" s="90"/>
+      <c r="D8" s="37" t="s">
+        <v>432</v>
       </c>
       <c r="F8" s="36" t="s">
         <v>343</v>
@@ -61440,22 +61444,20 @@
       <c r="H8" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="37" t="b">
-        <v>1</v>
+      <c r="I8" s="37" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="B9" s="86">
-        <v>1500</v>
-      </c>
+      <c r="B9" s="86"/>
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="37" t="b">
-        <v>1</v>
+      <c r="D9" s="37" t="s">
+        <v>432</v>
       </c>
       <c r="F9" s="36" t="s">
         <v>344</v>
@@ -61464,22 +61466,20 @@
       <c r="H9" t="s">
         <v>198</v>
       </c>
-      <c r="I9" s="37" t="b">
-        <v>1</v>
+      <c r="I9" s="37" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="36" t="s">
         <v>344</v>
       </c>
-      <c r="B10" s="86">
-        <v>60</v>
-      </c>
+      <c r="B10" s="86"/>
       <c r="C10" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="37" t="b">
-        <v>1</v>
+      <c r="D10" s="37" t="s">
+        <v>432</v>
       </c>
       <c r="F10" s="36" t="s">
         <v>355</v>
@@ -61488,12 +61488,10 @@
       <c r="H10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>168</v>
-      </c>
+      <c r="I10" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="J10" s="37"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="36" t="s">
@@ -61503,46 +61501,49 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="37" t="b">
-        <v>1</v>
+      <c r="D11" s="37" t="s">
+        <v>432</v>
       </c>
       <c r="F11" s="36" t="s">
         <v>345</v>
       </c>
       <c r="G11" s="86"/>
-      <c r="I11" s="37" t="b">
-        <v>1</v>
+      <c r="I11" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="36" t="s">
         <v>345</v>
       </c>
       <c r="B12" s="86"/>
-      <c r="D12" s="37" t="b">
-        <v>1</v>
+      <c r="D12" s="37" t="s">
+        <v>432</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>294</v>
       </c>
       <c r="G12" s="91"/>
       <c r="H12" s="50"/>
-      <c r="I12" s="43" t="b">
-        <v>1</v>
+      <c r="I12" s="43" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1">
+    <row r="13" spans="1:10" ht="15" thickBot="1">
       <c r="A13" s="44" t="s">
         <v>294</v>
       </c>
       <c r="B13" s="91"/>
       <c r="C13" s="50"/>
-      <c r="D13" s="43" t="b">
-        <v>1</v>
+      <c r="D13" s="43" t="s">
+        <v>382</v>
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75">
+    <row r="14" spans="1:10" ht="15.6">
       <c r="F14" s="92" t="s">
         <v>162</v>
       </c>
@@ -61568,8 +61569,8 @@
         <v>340</v>
       </c>
       <c r="G16" s="95"/>
-      <c r="I16" s="37" t="b">
-        <v>1</v>
+      <c r="I16" s="37" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="6:10">
@@ -61577,8 +61578,8 @@
         <v>346</v>
       </c>
       <c r="G17" s="15"/>
-      <c r="I17" s="37" t="b">
-        <v>1</v>
+      <c r="I17" s="37" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="6:10">
@@ -61586,8 +61587,8 @@
         <v>347</v>
       </c>
       <c r="G18" s="15"/>
-      <c r="I18" s="37" t="b">
-        <v>1</v>
+      <c r="I18" s="37" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="6:10">
@@ -61595,8 +61596,8 @@
         <v>348</v>
       </c>
       <c r="G19" s="15"/>
-      <c r="I19" s="37" t="b">
-        <v>1</v>
+      <c r="I19" s="37" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="6:10">
@@ -61604,8 +61605,8 @@
         <v>351</v>
       </c>
       <c r="G20" s="15"/>
-      <c r="I20" s="37" t="b">
-        <v>1</v>
+      <c r="I20" s="37" t="s">
+        <v>432</v>
       </c>
       <c r="J20" s="48" t="s">
         <v>217</v>
@@ -61619,8 +61620,8 @@
       <c r="H21" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="37" t="b">
-        <v>1</v>
+      <c r="I21" s="37" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="6:10">
@@ -61631,8 +61632,8 @@
       <c r="H22" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="37" t="b">
-        <v>1</v>
+      <c r="I22" s="37" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="6:10">
@@ -61640,8 +61641,8 @@
         <v>352</v>
       </c>
       <c r="G23" s="15"/>
-      <c r="I23" s="37" t="b">
-        <v>1</v>
+      <c r="I23" s="37" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="6:10">
@@ -61649,25 +61650,25 @@
         <v>350</v>
       </c>
       <c r="G24" s="26"/>
-      <c r="I24" s="37" t="b">
-        <v>1</v>
+      <c r="I24" s="37" t="s">
+        <v>432</v>
       </c>
     </row>
-    <row r="25" spans="6:10" ht="15.75" thickBot="1">
+    <row r="25" spans="6:10" ht="15" thickBot="1">
       <c r="F25" s="44" t="s">
         <v>294</v>
       </c>
       <c r="G25" s="91"/>
       <c r="H25" s="50"/>
-      <c r="I25" s="43" t="b">
-        <v>1</v>
+      <c r="I25" s="43" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="26" spans="6:10" ht="16.5" thickBot="1">
+    <row r="26" spans="6:10" ht="16.2" thickBot="1">
       <c r="F26" s="14"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="6:10" ht="15.75">
+    <row r="27" spans="6:10" ht="15.6">
       <c r="F27" s="39" t="s">
         <v>165</v>
       </c>
@@ -61693,11 +61694,11 @@
         <v>340</v>
       </c>
       <c r="G29" s="90"/>
-      <c r="I29" s="37" t="b">
-        <v>1</v>
+      <c r="I29" s="37" t="s">
+        <v>432</v>
       </c>
     </row>
-    <row r="30" spans="6:10" ht="15.75" thickBot="1">
+    <row r="30" spans="6:10" ht="15" thickBot="1">
       <c r="F30" s="44" t="s">
         <v>353</v>
       </c>
@@ -61705,17 +61706,17 @@
       <c r="H30" s="50" t="s">
         <v>354</v>
       </c>
-      <c r="I30" s="43" t="b">
-        <v>1</v>
+      <c r="I30" s="43" t="s">
+        <v>432</v>
       </c>
     </row>
-    <row r="31" spans="6:10" ht="15.75" thickBot="1">
+    <row r="31" spans="6:10" ht="15" thickBot="1">
       <c r="F31" s="3"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="6:10" ht="15.75">
+    <row r="32" spans="6:10" ht="15.6">
       <c r="F32" s="92" t="s">
         <v>358</v>
       </c>
@@ -61742,8 +61743,8 @@
         <v>340</v>
       </c>
       <c r="G34" s="95"/>
-      <c r="I34" s="37" t="b">
-        <v>1</v>
+      <c r="I34" s="37" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="6:10">
@@ -61751,8 +61752,8 @@
         <v>346</v>
       </c>
       <c r="G35" s="15"/>
-      <c r="I35" s="37" t="b">
-        <v>1</v>
+      <c r="I35" s="37" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="6:10">
@@ -61763,8 +61764,8 @@
       <c r="H36" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="37" t="b">
-        <v>1</v>
+      <c r="I36" s="37" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="37" spans="6:10">
@@ -61772,8 +61773,8 @@
         <v>350</v>
       </c>
       <c r="G37" s="26"/>
-      <c r="I37" s="37" t="b">
-        <v>1</v>
+      <c r="I37" s="37" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="38" spans="6:10">
@@ -61781,34 +61782,52 @@
         <v>294</v>
       </c>
       <c r="G38" s="15"/>
-      <c r="I38" s="37" t="b">
-        <v>1</v>
+      <c r="I38" s="37" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="6:10">
       <c r="F39" s="36" t="s">
-        <v>356</v>
+        <v>433</v>
       </c>
       <c r="G39" s="38"/>
-      <c r="I39" s="37" t="b">
-        <v>1</v>
+      <c r="I39" s="37" t="s">
+        <v>432</v>
       </c>
       <c r="J39" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="6:10" ht="15.75" thickBot="1">
-      <c r="F40" s="44" t="s">
+    <row r="40" spans="6:10">
+      <c r="F40" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="G40" s="15"/>
+      <c r="I40" s="37" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10">
+      <c r="F41" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="G41" s="38"/>
+      <c r="I41" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" ht="15" thickBot="1">
+      <c r="F42" s="44" t="s">
         <v>357</v>
       </c>
-      <c r="G40" s="91"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="43" t="b">
-        <v>1</v>
+      <c r="G42" s="91"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="43" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="53" spans="6:9" ht="15.75" thickBot="1"/>
-    <row r="54" spans="6:9" ht="15.75">
+    <row r="53" spans="6:9" ht="15" thickBot="1"/>
+    <row r="54" spans="6:9" ht="15.6">
       <c r="F54" s="39" t="s">
         <v>164</v>
       </c>
@@ -61843,7 +61862,7 @@
       <c r="H57" s="49"/>
       <c r="I57" s="37"/>
     </row>
-    <row r="58" spans="6:9" ht="15.75" thickBot="1">
+    <row r="58" spans="6:9" ht="15" thickBot="1">
       <c r="F58" s="44" t="s">
         <v>167</v>
       </c>
@@ -61889,19 +61908,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407D2B8A-E356-4CF8-BF78-D6DBB98A494F}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:B35"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="21.6" thickBot="1">
       <c r="A1" s="31" t="s">
         <v>334</v>
       </c>
@@ -61911,19 +61930,19 @@
         <v>245</v>
       </c>
       <c r="E1" s="61"/>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="102"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="113"/>
     </row>
     <row r="2" spans="1:10" ht="129.75" customHeight="1">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -61937,13 +61956,13 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="15.6">
       <c r="A5" s="80"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -61991,8 +62010,8 @@
         <v>292</v>
       </c>
       <c r="H8" s="71"/>
-      <c r="J8" s="75" t="b">
-        <v>1</v>
+      <c r="J8" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -62006,8 +62025,8 @@
       <c r="I9" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="75" t="b">
-        <v>1</v>
+      <c r="J9" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -62021,11 +62040,11 @@
       <c r="I10" t="s">
         <v>151</v>
       </c>
-      <c r="J10" s="75" t="b">
-        <v>1</v>
+      <c r="J10" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1">
+    <row r="11" spans="1:10" ht="16.2" thickBot="1">
       <c r="A11" s="46"/>
       <c r="B11" s="42"/>
       <c r="C11" s="47"/>
@@ -62035,16 +62054,16 @@
       </c>
       <c r="H11" s="42"/>
       <c r="I11" s="47"/>
-      <c r="J11" s="76" t="b">
-        <v>1</v>
+      <c r="J11" s="76" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1">
+    <row r="12" spans="1:10" ht="16.2" thickBot="1">
       <c r="G12" s="22"/>
       <c r="I12" s="3"/>
       <c r="J12" s="77"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10" ht="15.6">
       <c r="G13" s="80" t="s">
         <v>320</v>
       </c>
@@ -62079,8 +62098,8 @@
         <v>292</v>
       </c>
       <c r="H16" s="71"/>
-      <c r="J16" s="75" t="b">
-        <v>1</v>
+      <c r="J16" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="7:10">
@@ -62088,8 +62107,8 @@
         <v>322</v>
       </c>
       <c r="H17" s="15"/>
-      <c r="J17" s="75" t="b">
-        <v>1</v>
+      <c r="J17" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="7:10">
@@ -62100,8 +62119,8 @@
       <c r="I18" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="75" t="b">
-        <v>1</v>
+      <c r="J18" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="7:10">
@@ -62112,22 +62131,22 @@
       <c r="I19" t="s">
         <v>151</v>
       </c>
-      <c r="J19" s="75" t="b">
-        <v>1</v>
+      <c r="J19" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
-    <row r="20" spans="7:10" ht="16.5" thickBot="1">
+    <row r="20" spans="7:10" ht="16.2" thickBot="1">
       <c r="G20" s="46" t="s">
         <v>294</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="47"/>
-      <c r="J20" s="76" t="b">
-        <v>1</v>
+      <c r="J20" s="76" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="21" spans="7:10" ht="15.75" thickBot="1"/>
-    <row r="22" spans="7:10" ht="15.75">
+    <row r="21" spans="7:10" ht="15" thickBot="1"/>
+    <row r="22" spans="7:10" ht="15.6">
       <c r="G22" s="80" t="s">
         <v>164</v>
       </c>
@@ -62162,8 +62181,8 @@
         <v>331</v>
       </c>
       <c r="H25" s="15"/>
-      <c r="J25" s="75" t="b">
-        <v>1</v>
+      <c r="J25" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="7:10">
@@ -62174,8 +62193,8 @@
       <c r="I26" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="75" t="b">
-        <v>1</v>
+      <c r="J26" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="7:10">
@@ -62186,18 +62205,18 @@
       <c r="I27" t="s">
         <v>151</v>
       </c>
-      <c r="J27" s="75" t="b">
-        <v>1</v>
+      <c r="J27" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
-    <row r="28" spans="7:10" ht="16.5" thickBot="1">
+    <row r="28" spans="7:10" ht="16.2" thickBot="1">
       <c r="G28" s="46" t="s">
         <v>294</v>
       </c>
       <c r="H28" s="42"/>
       <c r="I28" s="47"/>
-      <c r="J28" s="76" t="b">
-        <v>1</v>
+      <c r="J28" s="76" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -62239,47 +62258,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74937810-402C-794A-86DB-3B61877792EA}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="28.5703125" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="28.5546875" customWidth="1"/>
+    <col min="8" max="8" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="21.75" thickBot="1">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="21.6" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>172</v>
       </c>
       <c r="B1" s="35"/>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="E1" s="109" t="s">
+      <c r="E1" s="9" t="s">
         <v>378</v>
       </c>
       <c r="F1" t="s">
         <v>307</v>
       </c>
       <c r="G1"/>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="102"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="113"/>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="15.75">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="15.6">
       <c r="A2" s="97" t="s">
         <v>399</v>
       </c>
@@ -62301,8 +62320,8 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="A4" s="123" t="s">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
+      <c r="A4" s="106" t="s">
         <v>397</v>
       </c>
       <c r="B4" s="2"/>
@@ -62312,114 +62331,105 @@
       <c r="I4"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="G5" s="121"/>
-      <c r="H5" s="113" t="s">
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
+      <c r="H5" s="99" t="s">
         <v>380</v>
       </c>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114" t="s">
+      <c r="I5" s="100"/>
+      <c r="J5" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="114" t="s">
+      <c r="K5" s="100" t="s">
         <v>377</v>
       </c>
-      <c r="L5" s="114" t="s">
+      <c r="L5" s="100" t="s">
         <v>378</v>
       </c>
-      <c r="M5" s="115" t="s">
+      <c r="M5" s="101" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75">
-      <c r="A6" s="113" t="s">
+    <row r="6" spans="1:13" ht="15.6">
+      <c r="A6" s="99" t="s">
         <v>380</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="100" t="s">
         <v>377</v>
       </c>
-      <c r="E6" s="114" t="s">
+      <c r="E6" s="100" t="s">
         <v>378</v>
       </c>
-      <c r="F6" s="115" t="s">
+      <c r="F6" s="101" t="s">
         <v>307</v>
       </c>
-      <c r="H6" s="116" t="s">
+      <c r="H6" s="102" t="s">
         <v>392</v>
       </c>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
       <c r="M6" s="48"/>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A7" s="116" t="s">
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A7" s="102" t="s">
         <v>392</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
       <c r="F7" s="48"/>
-      <c r="G7" s="111"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="72" t="s">
         <v>375</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
+      <c r="J7"/>
       <c r="M7" s="37"/>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A8" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="72" t="s">
         <v>375</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
+      <c r="C8"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="111"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="36" t="s">
         <v>381</v>
       </c>
       <c r="I8" s="85"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
       <c r="M8" s="37" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A9" s="36" t="s">
         <v>381</v>
       </c>
       <c r="B9" s="85"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
       <c r="F9" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="G9" s="111"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="36" t="s">
         <v>374</v>
       </c>
       <c r="I9" s="88">
         <v>2.02E-4</v>
       </c>
-      <c r="J9" s="106" t="s">
+      <c r="J9" t="s">
         <v>376</v>
       </c>
       <c r="K9" s="33"/>
@@ -62428,14 +62438,14 @@
         <v>379</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="10" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A10" s="36" t="s">
         <v>374</v>
       </c>
       <c r="B10" s="88">
         <v>2.02E-4</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" t="s">
         <v>376</v>
       </c>
       <c r="D10" s="33"/>
@@ -62443,148 +62453,122 @@
       <c r="F10" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="G10" s="109"/>
-      <c r="H10" s="117" t="s">
+      <c r="H10" s="103" t="s">
         <v>385</v>
       </c>
       <c r="I10" s="85" t="s">
         <v>226</v>
       </c>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
       <c r="M10" s="37" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A11" s="117" t="s">
+    <row r="11" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A11" s="103" t="s">
         <v>385</v>
       </c>
       <c r="B11" s="85" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
       <c r="F11" s="37" t="s">
         <v>382</v>
       </c>
-      <c r="G11" s="111"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="36" t="s">
         <v>372</v>
       </c>
       <c r="I11" s="88"/>
-      <c r="J11" s="106"/>
+      <c r="J11"/>
       <c r="K11" s="33"/>
       <c r="L11" s="26"/>
       <c r="M11" s="37" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="12" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A12" s="36" t="s">
         <v>372</v>
       </c>
       <c r="B12" s="88"/>
-      <c r="C12" s="106"/>
+      <c r="C12"/>
       <c r="D12" s="33"/>
       <c r="E12" s="26"/>
       <c r="F12" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="G12" s="111"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="36" t="s">
         <v>373</v>
       </c>
       <c r="I12" s="88"/>
-      <c r="J12" s="106"/>
+      <c r="J12"/>
       <c r="K12" s="33"/>
       <c r="L12" s="26"/>
       <c r="M12" s="37" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="13" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A13" s="36" t="s">
         <v>373</v>
       </c>
       <c r="B13" s="88"/>
-      <c r="C13" s="106"/>
+      <c r="C13"/>
       <c r="D13" s="33"/>
       <c r="E13" s="26"/>
       <c r="F13" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="G13" s="112"/>
-      <c r="H13" s="119" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="36" t="s">
         <v>391</v>
       </c>
       <c r="I13" s="88"/>
-      <c r="J13" s="106" t="s">
+      <c r="J13" t="s">
         <v>58</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="26"/>
-      <c r="M13" s="120" t="s">
+      <c r="M13" s="37" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="36" t="s">
         <v>391</v>
       </c>
       <c r="B14" s="88"/>
-      <c r="C14" s="106" t="s">
+      <c r="C14" t="s">
         <v>58</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="26"/>
-      <c r="F14" s="120" t="s">
+      <c r="F14" s="37" t="s">
         <v>379</v>
       </c>
       <c r="H14" s="36"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
       <c r="M14" s="48"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75">
+    <row r="15" spans="1:13" ht="15.6">
       <c r="A15" s="36"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
       <c r="F15" s="48"/>
-      <c r="H15" s="116" t="s">
+      <c r="H15" s="102" t="s">
         <v>393</v>
       </c>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
       <c r="M15" s="48"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75">
-      <c r="A16" s="116" t="s">
+    <row r="16" spans="1:13" ht="15.6">
+      <c r="A16" s="102" t="s">
         <v>393</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
       <c r="F16" s="48"/>
-      <c r="G16" s="111"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="36" t="s">
         <v>383</v>
       </c>
       <c r="I16" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="J16" s="106"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
       <c r="M16" s="37" t="s">
         <v>382</v>
       </c>
@@ -62596,22 +62580,17 @@
       <c r="B17" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
       <c r="F17" s="37" t="s">
         <v>382</v>
       </c>
-      <c r="G17" s="111"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="36" t="s">
         <v>384</v>
       </c>
       <c r="I17" s="86"/>
-      <c r="J17" s="106" t="s">
+      <c r="J17" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
       <c r="M17" s="37" t="s">
         <v>382</v>
       </c>
@@ -62621,107 +62600,102 @@
         <v>384</v>
       </c>
       <c r="B18" s="86"/>
-      <c r="C18" s="106" t="s">
+      <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
       <c r="F18" s="37" t="s">
         <v>382</v>
       </c>
-      <c r="G18" s="106"/>
       <c r="H18" s="36" t="s">
         <v>386</v>
       </c>
       <c r="I18" s="86">
         <v>-3</v>
       </c>
-      <c r="J18" s="106" t="s">
+      <c r="J18" t="s">
         <v>57</v>
       </c>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
       <c r="M18" s="48" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="19" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A19" s="36" t="s">
         <v>386</v>
       </c>
       <c r="B19" s="86">
         <v>-3</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
+      <c r="D19"/>
+      <c r="E19"/>
       <c r="F19" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="G19" s="106"/>
+      <c r="G19"/>
       <c r="H19" s="36" t="s">
         <v>387</v>
       </c>
       <c r="I19" s="86"/>
-      <c r="J19" s="106" t="s">
+      <c r="J19" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
+      <c r="K19"/>
+      <c r="L19"/>
       <c r="M19" s="48" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="20" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>387</v>
       </c>
       <c r="B20" s="86"/>
-      <c r="C20" s="106" t="s">
+      <c r="C20" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
+      <c r="D20"/>
+      <c r="E20"/>
       <c r="F20" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="G20" s="106"/>
+      <c r="G20"/>
       <c r="H20" s="36" t="s">
         <v>326</v>
       </c>
       <c r="I20" s="86" t="s">
         <v>227</v>
       </c>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
       <c r="M20" s="48" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="21" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>326</v>
       </c>
       <c r="B21" s="86" t="s">
         <v>227</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
       <c r="F21" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="G21" s="106"/>
+      <c r="G21"/>
       <c r="H21" s="36" t="s">
         <v>316</v>
       </c>
       <c r="I21" s="86"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
       <c r="M21" s="48" t="s">
         <v>382</v>
       </c>
@@ -62731,9 +62705,6 @@
         <v>316</v>
       </c>
       <c r="B22" s="86"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
       <c r="F22" s="48" t="s">
         <v>382</v>
       </c>
@@ -62741,9 +62712,6 @@
         <v>317</v>
       </c>
       <c r="I22" s="86"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
       <c r="M22" s="48" t="s">
         <v>382</v>
       </c>
@@ -62753,19 +62721,13 @@
         <v>317</v>
       </c>
       <c r="B23" s="86"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
       <c r="F23" s="48" t="s">
         <v>382</v>
       </c>
       <c r="H23" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="I23" s="122"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
+      <c r="I23" s="105"/>
       <c r="M23" s="48" t="s">
         <v>382</v>
       </c>
@@ -62774,35 +62736,29 @@
       <c r="A24" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="B24" s="122"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
+      <c r="B24" s="105"/>
       <c r="F24" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="G24" s="125" t="s">
+      <c r="G24" s="108" t="s">
         <v>403</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="I24" s="122"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
+        <v>431</v>
+      </c>
+      <c r="I24" s="105"/>
       <c r="M24" s="48" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="25" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
       <c r="A25" s="36" t="s">
         <v>402</v>
       </c>
-      <c r="B25" s="122"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
+      <c r="B25" s="105"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
       <c r="F25" s="48" t="s">
         <v>382</v>
       </c>
@@ -62817,7 +62773,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="26" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
       <c r="A26" s="44" t="s">
         <v>294</v>
       </c>
@@ -62828,7 +62784,7 @@
       <c r="F26" s="52" t="s">
         <v>382</v>
       </c>
-      <c r="H26" s="106"/>
+      <c r="H26"/>
       <c r="I26"/>
       <c r="J26" s="3"/>
     </row>
@@ -62840,8 +62796,8 @@
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="G28" s="111"/>
+    <row r="28" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
+      <c r="G28" s="3"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
@@ -62849,84 +62805,81 @@
       <c r="L28"/>
       <c r="M28"/>
     </row>
-    <row r="29" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="G29" s="111"/>
-      <c r="H29" s="113" t="s">
+    <row r="29" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
+      <c r="G29" s="3"/>
+      <c r="H29" s="99" t="s">
         <v>394</v>
       </c>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114" t="s">
+      <c r="I29" s="100"/>
+      <c r="J29" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="K29" s="114" t="s">
+      <c r="K29" s="100" t="s">
         <v>377</v>
       </c>
-      <c r="L29" s="114" t="s">
+      <c r="L29" s="100" t="s">
         <v>378</v>
       </c>
-      <c r="M29" s="115" t="s">
+      <c r="M29" s="101" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="30" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="116" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30" s="102" t="s">
         <v>392</v>
       </c>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
       <c r="M30" s="48"/>
     </row>
-    <row r="31" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="31" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="F31" s="51"/>
-      <c r="G31" s="109"/>
       <c r="H31" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="I31" s="110" t="s">
+      <c r="I31" s="72" t="s">
         <v>395</v>
       </c>
-      <c r="J31" s="106"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
+      <c r="J31"/>
       <c r="M31" s="37"/>
     </row>
-    <row r="32" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="32" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
-      <c r="G32" s="111"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="36" t="s">
         <v>381</v>
       </c>
       <c r="I32" s="85"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
       <c r="M32" s="37" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="G33" s="111"/>
+    <row r="33" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
+      <c r="G33" s="3"/>
       <c r="H33" s="36" t="s">
         <v>374</v>
       </c>
       <c r="I33" s="88">
         <v>2.02E-4</v>
       </c>
-      <c r="J33" s="106" t="s">
+      <c r="J33" t="s">
         <v>376</v>
       </c>
       <c r="K33" s="33"/>
@@ -62935,25 +62888,21 @@
         <v>379</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="G34" s="112"/>
-      <c r="H34" s="117" t="s">
+    <row r="34" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
+      <c r="G34" s="3"/>
+      <c r="H34" s="103" t="s">
         <v>385</v>
       </c>
       <c r="I34" s="85" t="s">
         <v>226</v>
       </c>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="109"/>
-      <c r="M34" s="118"/>
+      <c r="M34" s="104"/>
     </row>
     <row r="35" spans="1:13">
       <c r="H35" s="36" t="s">
         <v>372</v>
       </c>
       <c r="I35" s="88"/>
-      <c r="J35" s="106"/>
       <c r="K35" s="33"/>
       <c r="L35" s="26"/>
       <c r="M35" s="37" t="s">
@@ -62965,7 +62914,6 @@
         <v>373</v>
       </c>
       <c r="I36" s="88"/>
-      <c r="J36" s="106"/>
       <c r="K36" s="33"/>
       <c r="L36" s="26"/>
       <c r="M36" s="37" t="s">
@@ -62979,17 +62927,17 @@
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="119" t="s">
+      <c r="G37" s="3"/>
+      <c r="H37" s="36" t="s">
         <v>391</v>
       </c>
       <c r="I37" s="88"/>
-      <c r="J37" s="106" t="s">
+      <c r="J37" t="s">
         <v>58</v>
       </c>
       <c r="K37" s="33"/>
       <c r="L37" s="26"/>
-      <c r="M37" s="120" t="s">
+      <c r="M37" s="37" t="s">
         <v>379</v>
       </c>
     </row>
@@ -63000,42 +62948,33 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="111"/>
+      <c r="G38" s="3"/>
       <c r="H38" s="36"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="106"/>
       <c r="M38" s="48"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75">
+    <row r="39" spans="1:13" ht="15.6">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="116" t="s">
+      <c r="H39" s="102" t="s">
         <v>393</v>
       </c>
-      <c r="I39" s="106"/>
-      <c r="J39" s="106"/>
-      <c r="K39" s="106"/>
-      <c r="L39" s="106"/>
       <c r="M39" s="48"/>
     </row>
-    <row r="40" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="G40" s="106"/>
+    <row r="40" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
+      <c r="G40"/>
       <c r="H40" s="36" t="s">
         <v>383</v>
       </c>
       <c r="I40" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="J40" s="106"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="108"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
       <c r="M40" s="37" t="s">
         <v>382</v>
       </c>
@@ -63051,11 +62990,9 @@
         <v>384</v>
       </c>
       <c r="I41" s="86"/>
-      <c r="J41" s="106" t="s">
+      <c r="J41" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="108"/>
-      <c r="L41" s="108"/>
       <c r="M41" s="37" t="s">
         <v>382</v>
       </c>
@@ -63073,124 +63010,122 @@
       <c r="I42" s="86">
         <v>-3</v>
       </c>
-      <c r="J42" s="106" t="s">
+      <c r="J42" t="s">
         <v>57</v>
       </c>
-      <c r="K42" s="106"/>
-      <c r="L42" s="106"/>
       <c r="M42" s="48" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="G43" s="111"/>
+    <row r="43" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
+      <c r="G43" s="3"/>
       <c r="H43" s="36" t="s">
         <v>387</v>
       </c>
       <c r="I43" s="86"/>
-      <c r="J43" s="106" t="s">
+      <c r="J43" t="s">
         <v>57</v>
       </c>
-      <c r="K43" s="106"/>
-      <c r="L43" s="106"/>
+      <c r="K43"/>
+      <c r="L43"/>
       <c r="M43" s="48" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="44" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
-      <c r="G44" s="111"/>
+      <c r="G44" s="3"/>
       <c r="H44" s="36" t="s">
         <v>326</v>
       </c>
       <c r="I44" s="86" t="s">
         <v>227</v>
       </c>
-      <c r="J44" s="106"/>
-      <c r="K44" s="106"/>
-      <c r="L44" s="106"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
       <c r="M44" s="48" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="45" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
-      <c r="G45" s="111"/>
+      <c r="G45" s="3"/>
       <c r="H45" s="36" t="s">
         <v>316</v>
       </c>
       <c r="I45" s="86"/>
-      <c r="J45" s="106"/>
-      <c r="K45" s="106"/>
-      <c r="L45" s="106"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
       <c r="M45" s="48" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="46" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
-      <c r="G46" s="106"/>
+      <c r="G46"/>
       <c r="H46" s="36" t="s">
         <v>317</v>
       </c>
       <c r="I46" s="86"/>
-      <c r="J46" s="106"/>
-      <c r="K46" s="106"/>
-      <c r="L46" s="106"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
       <c r="M46" s="48" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="47" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
-      <c r="G47" s="106"/>
+      <c r="G47"/>
       <c r="H47" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="I47" s="122"/>
-      <c r="J47" s="106"/>
-      <c r="K47" s="106"/>
-      <c r="L47" s="106"/>
+      <c r="I47" s="105"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
       <c r="M47" s="48" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
+    <row r="48" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
       <c r="H48" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="I48" s="122"/>
-      <c r="J48" s="106"/>
-      <c r="K48" s="106"/>
-      <c r="L48" s="106"/>
+        <v>431</v>
+      </c>
+      <c r="I48" s="105"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
       <c r="M48" s="48" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
+    <row r="49" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -63243,20 +63178,20 @@
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="1:13" ht="15.75">
-      <c r="A54" s="105"/>
-      <c r="B54" s="107"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="107"/>
-      <c r="E54" s="107"/>
+    <row r="54" spans="1:13" ht="15.6">
+      <c r="A54" s="98"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="1:13" ht="15.75">
-      <c r="A55" s="105"/>
-      <c r="B55" s="107"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="107"/>
-      <c r="E55" s="107"/>
+    <row r="55" spans="1:13" ht="15.6">
+      <c r="A55" s="98"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -63301,58 +63236,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD2D44-9B1B-421A-86D6-11D29F42E873}">
   <dimension ref="A1:XEX120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="51" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="42.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="3"/>
+    <col min="2" max="2" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="42.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.109375" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="21.75" thickBot="1">
+    <row r="1" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="21.6" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>400</v>
       </c>
       <c r="B1" s="35"/>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="E1" s="109" t="s">
+      <c r="E1" s="9" t="s">
         <v>378</v>
       </c>
       <c r="F1" t="s">
         <v>307</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="102"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="113"/>
     </row>
     <row r="2" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="90" customHeight="1">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="H2" s="3"/>
@@ -63360,8 +63295,8 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="16.899999999999999" customHeight="1">
-      <c r="A3" s="124" t="s">
+    <row r="3" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="16.95" customHeight="1">
+      <c r="A3" s="107" t="s">
         <v>397</v>
       </c>
       <c r="B3" s="16"/>
@@ -63375,8 +63310,8 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="A4" s="124"/>
+    <row r="4" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
+      <c r="A4" s="107"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -63386,7 +63321,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75">
+    <row r="5" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.6">
       <c r="A5" s="39"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -65467,12 +65402,12 @@
       <c r="H6" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="I6" s="110" t="s">
+      <c r="I6" s="72" t="s">
         <v>410</v>
       </c>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
       <c r="M6" s="37"/>
     </row>
     <row r="7" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
@@ -65488,9 +65423,9 @@
       <c r="I7" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
       <c r="M7" s="48" t="s">
         <v>382</v>
       </c>
@@ -65506,14 +65441,14 @@
         <v>430</v>
       </c>
       <c r="I8" s="33"/>
-      <c r="J8" s="106"/>
+      <c r="J8"/>
       <c r="K8" s="33"/>
       <c r="L8" s="26"/>
       <c r="M8" s="37" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75" thickBot="1">
+    <row r="9" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15" thickBot="1">
       <c r="A9" s="44"/>
       <c r="B9" s="54"/>
       <c r="C9" s="50"/>
@@ -65524,7 +65459,7 @@
         <v>417</v>
       </c>
       <c r="I9" s="33"/>
-      <c r="J9" s="106" t="s">
+      <c r="J9" t="s">
         <v>175</v>
       </c>
       <c r="K9" s="33"/>
@@ -65538,7 +65473,7 @@
         <v>418</v>
       </c>
       <c r="I10" s="33"/>
-      <c r="J10" s="106"/>
+      <c r="J10"/>
       <c r="K10" s="33"/>
       <c r="L10" s="26"/>
       <c r="M10" s="37" t="s">
@@ -65547,17 +65482,17 @@
     </row>
     <row r="11" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
       <c r="H11" s="36" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="I11" s="33"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
       <c r="M11" s="48" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="12" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75" thickBot="1">
+    <row r="12" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15" thickBot="1">
       <c r="H12" s="44" t="s">
         <v>429</v>
       </c>
@@ -65569,8 +65504,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="14" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75" thickBot="1"/>
-    <row r="15" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.75">
+    <row r="14" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15" thickBot="1"/>
+    <row r="15" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.6">
       <c r="H15" s="39" t="s">
         <v>177</v>
       </c>
@@ -65592,12 +65527,12 @@
       <c r="H16" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="I16" s="110" t="s">
+      <c r="I16" s="72" t="s">
         <v>409</v>
       </c>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
       <c r="M16" s="37"/>
     </row>
     <row r="17" spans="8:13">
@@ -65607,9 +65542,9 @@
       <c r="I17" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
       <c r="M17" s="48" t="s">
         <v>382</v>
       </c>
@@ -65619,7 +65554,7 @@
         <v>419</v>
       </c>
       <c r="I18" s="33"/>
-      <c r="J18" s="106"/>
+      <c r="J18"/>
       <c r="K18" s="33"/>
       <c r="L18" s="26"/>
       <c r="M18" s="37" t="s">
@@ -65631,7 +65566,7 @@
         <v>417</v>
       </c>
       <c r="I19" s="33"/>
-      <c r="J19" s="106" t="s">
+      <c r="J19" t="s">
         <v>175</v>
       </c>
       <c r="K19" s="33"/>
@@ -65642,17 +65577,17 @@
     </row>
     <row r="20" spans="8:13">
       <c r="H20" s="36" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="I20" s="33"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
       <c r="M20" s="48" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="8:13" ht="15.75" thickBot="1">
+    <row r="21" spans="8:13" ht="15" thickBot="1">
       <c r="H21" s="44" t="s">
         <v>429</v>
       </c>
@@ -65664,8 +65599,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="23" spans="8:13" ht="15.75" thickBot="1"/>
-    <row r="24" spans="8:13" ht="15.75">
+    <row r="23" spans="8:13" ht="15" thickBot="1"/>
+    <row r="24" spans="8:13" ht="15.6">
       <c r="H24" s="39" t="s">
         <v>178</v>
       </c>
@@ -65687,7 +65622,7 @@
       <c r="H25" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="I25" s="110" t="s">
+      <c r="I25" s="72" t="s">
         <v>408</v>
       </c>
       <c r="J25"/>
@@ -65783,17 +65718,17 @@
     </row>
     <row r="32" spans="8:13">
       <c r="H32" s="36" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="I32" s="33"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
       <c r="M32" s="48" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="33" spans="8:13" ht="15.75" thickBot="1">
+    <row r="33" spans="8:13" ht="15" thickBot="1">
       <c r="H33" s="44" t="s">
         <v>429</v>
       </c>
@@ -65805,8 +65740,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="35" spans="8:13" ht="15.75" thickBot="1"/>
-    <row r="36" spans="8:13" ht="15.75">
+    <row r="35" spans="8:13" ht="15" thickBot="1"/>
+    <row r="36" spans="8:13" ht="15.6">
       <c r="H36" s="39" t="s">
         <v>180</v>
       </c>
@@ -65828,12 +65763,12 @@
       <c r="H37" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="I37" s="110" t="s">
+      <c r="I37" s="72" t="s">
         <v>407</v>
       </c>
-      <c r="J37" s="106"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="106"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
       <c r="M37" s="37"/>
     </row>
     <row r="38" spans="8:13">
@@ -65843,9 +65778,9 @@
       <c r="I38" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="J38" s="106"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="106"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
       <c r="M38" s="48" t="s">
         <v>382</v>
       </c>
@@ -65857,7 +65792,7 @@
       <c r="I39" s="33">
         <v>17.600000000000001</v>
       </c>
-      <c r="J39" s="106" t="s">
+      <c r="J39" t="s">
         <v>181</v>
       </c>
       <c r="K39" s="33"/>
@@ -65873,7 +65808,7 @@
       <c r="I40" s="33">
         <v>75</v>
       </c>
-      <c r="J40" s="106"/>
+      <c r="J40"/>
       <c r="K40" s="33"/>
       <c r="L40" s="26"/>
       <c r="M40" s="37" t="s">
@@ -65885,7 +65820,7 @@
         <v>411</v>
       </c>
       <c r="I41" s="33"/>
-      <c r="J41" s="106" t="s">
+      <c r="J41" t="s">
         <v>6</v>
       </c>
       <c r="K41" s="33"/>
@@ -65899,7 +65834,7 @@
         <v>412</v>
       </c>
       <c r="I42" s="33"/>
-      <c r="J42" s="106"/>
+      <c r="J42"/>
       <c r="K42" s="33"/>
       <c r="L42" s="26"/>
       <c r="M42" s="37" t="s">
@@ -65911,7 +65846,7 @@
         <v>426</v>
       </c>
       <c r="I43" s="33"/>
-      <c r="J43" s="106" t="s">
+      <c r="J43" t="s">
         <v>181</v>
       </c>
       <c r="K43" s="33"/>
@@ -65925,7 +65860,7 @@
         <v>427</v>
       </c>
       <c r="I44" s="33"/>
-      <c r="J44" s="106"/>
+      <c r="J44"/>
       <c r="K44" s="33"/>
       <c r="L44" s="26"/>
       <c r="M44" s="37" t="s">
@@ -65937,7 +65872,7 @@
         <v>413</v>
       </c>
       <c r="I45" s="33"/>
-      <c r="J45" s="106" t="s">
+      <c r="J45" t="s">
         <v>6</v>
       </c>
       <c r="K45" s="33"/>
@@ -65951,7 +65886,7 @@
         <v>414</v>
       </c>
       <c r="I46" s="33"/>
-      <c r="J46" s="106"/>
+      <c r="J46"/>
       <c r="K46" s="33"/>
       <c r="L46" s="26"/>
       <c r="M46" s="37" t="s">
@@ -65963,7 +65898,7 @@
         <v>415</v>
       </c>
       <c r="I47" s="33"/>
-      <c r="J47" s="106" t="s">
+      <c r="J47" t="s">
         <v>9</v>
       </c>
       <c r="K47" s="33"/>
@@ -65977,7 +65912,7 @@
         <v>416</v>
       </c>
       <c r="I48" s="33"/>
-      <c r="J48" s="106"/>
+      <c r="J48"/>
       <c r="K48" s="33"/>
       <c r="L48" s="26"/>
       <c r="M48" s="37" t="s">
@@ -65986,17 +65921,17 @@
     </row>
     <row r="49" spans="1:13">
       <c r="H49" s="36" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="I49" s="33"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="106"/>
-      <c r="L49" s="106"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
       <c r="M49" s="48" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.75" thickBot="1">
+    <row r="50" spans="1:13" ht="15" thickBot="1">
       <c r="H50" s="44" t="s">
         <v>429</v>
       </c>
@@ -66008,8 +65943,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="52" spans="1:13" ht="15.75">
+    <row r="51" spans="1:13" ht="15" thickBot="1"/>
+    <row r="52" spans="1:13" ht="15.6">
       <c r="H52" s="39" t="s">
         <v>182</v>
       </c>
@@ -66031,7 +65966,7 @@
       <c r="H53" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="I53" s="110" t="s">
+      <c r="I53" s="72" t="s">
         <v>404</v>
       </c>
       <c r="J53"/>
@@ -66045,8 +65980,8 @@
       </c>
       <c r="I54" s="33"/>
       <c r="J54"/>
-      <c r="K54" s="106"/>
-      <c r="L54" s="106"/>
+      <c r="K54"/>
+      <c r="L54"/>
       <c r="M54" s="48" t="s">
         <v>382</v>
       </c>
@@ -66067,17 +66002,17 @@
     </row>
     <row r="56" spans="1:13">
       <c r="H56" s="36" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="I56" s="33"/>
-      <c r="J56" s="106"/>
-      <c r="K56" s="106"/>
-      <c r="L56" s="106"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
       <c r="M56" s="48" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.75" thickBot="1">
+    <row r="57" spans="1:13" ht="15" thickBot="1">
       <c r="H57" s="44" t="s">
         <v>429</v>
       </c>
@@ -66131,7 +66066,7 @@
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="51"/>
-      <c r="G65" s="121"/>
+      <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="2" t="s">
@@ -66153,7 +66088,6 @@
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="111"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="9"/>
@@ -66162,7 +66096,6 @@
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="111"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69"/>
@@ -66171,7 +66104,6 @@
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69"/>
-      <c r="G69" s="111"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70"/>
@@ -66180,7 +66112,7 @@
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70"/>
-      <c r="G70" s="109"/>
+      <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -66195,7 +66127,6 @@
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="111"/>
       <c r="H71"/>
       <c r="I71"/>
       <c r="J71"/>
@@ -66210,7 +66141,6 @@
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="111"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -66225,7 +66155,6 @@
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
-      <c r="G73" s="112"/>
       <c r="H73"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -66264,7 +66193,6 @@
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="111"/>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="9"/>
@@ -66273,7 +66201,6 @@
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
-      <c r="G77" s="111"/>
     </row>
     <row r="78" spans="1:13">
       <c r="A78"/>
@@ -66282,7 +66209,7 @@
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78"/>
-      <c r="G78" s="106"/>
+      <c r="G78"/>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="9"/>
@@ -66291,7 +66218,7 @@
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="51"/>
-      <c r="G79" s="106"/>
+      <c r="G79"/>
     </row>
     <row r="80" spans="1:13">
       <c r="A80"/>
@@ -66300,7 +66227,7 @@
       <c r="D80"/>
       <c r="E80"/>
       <c r="F80"/>
-      <c r="G80" s="106"/>
+      <c r="G80"/>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="9"/>
@@ -66309,7 +66236,7 @@
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
-      <c r="G81" s="106"/>
+      <c r="G81"/>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="9"/>
@@ -66357,7 +66284,6 @@
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
-      <c r="G85" s="111"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -66402,7 +66328,6 @@
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
-      <c r="G88" s="111"/>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="9"/>
@@ -66411,7 +66336,6 @@
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
-      <c r="G89" s="111"/>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="9"/>
@@ -66420,7 +66344,6 @@
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
-      <c r="G90" s="111"/>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="9"/>
@@ -66429,7 +66352,7 @@
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="109"/>
+      <c r="G91" s="9"/>
     </row>
     <row r="92" spans="1:13">
       <c r="A92"/>
@@ -66438,7 +66361,6 @@
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92"/>
-      <c r="G92" s="111"/>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="9"/>
@@ -66447,7 +66369,6 @@
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
-      <c r="G93" s="111"/>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="9"/>
@@ -66456,7 +66377,6 @@
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
-      <c r="G94" s="112"/>
     </row>
     <row r="95" spans="1:13">
       <c r="A95"/>
@@ -66495,7 +66415,6 @@
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="111"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -66510,7 +66429,6 @@
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
-      <c r="G98" s="111"/>
       <c r="H98"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -66525,7 +66443,7 @@
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
-      <c r="G99" s="106"/>
+      <c r="G99"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -66540,7 +66458,7 @@
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
-      <c r="G100" s="106"/>
+      <c r="G100"/>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="9"/>
@@ -66567,7 +66485,6 @@
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
-      <c r="G103" s="111"/>
     </row>
     <row r="104" spans="1:13">
       <c r="A104"/>
@@ -66576,7 +66493,6 @@
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104"/>
-      <c r="G104" s="111"/>
     </row>
     <row r="105" spans="1:13">
       <c r="A105"/>
@@ -66585,7 +66501,6 @@
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105"/>
-      <c r="G105" s="111"/>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="9"/>
@@ -66594,7 +66509,7 @@
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106"/>
-      <c r="G106" s="106"/>
+      <c r="G106"/>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="9"/>
@@ -66603,7 +66518,7 @@
       <c r="D107"/>
       <c r="E107"/>
       <c r="F107"/>
-      <c r="G107" s="106"/>
+      <c r="G107"/>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="9"/>

--- a/db_feed/new_template_v4.xlsx
+++ b/db_feed/new_template_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102DA47E-23FA-4EF2-A4F3-23A39353AADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C8F14F-DFAF-4CE8-A15C-A7B3C8E53ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="396" windowWidth="22680" windowHeight="11964" firstSheet="2" activeTab="2" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="0" yWindow="396" windowWidth="22680" windowHeight="11964" firstSheet="4" activeTab="5" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="434">
   <si>
     <t>Solution Information</t>
   </si>
@@ -847,9 +847,6 @@
     <t>Veeco Digital Instruments Dimension 3100</t>
   </si>
   <si>
-    <t>Panalytical X'pert Pro</t>
-  </si>
-  <si>
     <t>Rahul</t>
   </si>
   <si>
@@ -893,9 +890,6 @@
   </si>
   <si>
     <t>Polymer 1 - Polydispersity Index (PDI)</t>
-  </si>
-  <si>
-    <t>META</t>
   </si>
   <si>
     <t>Include other metadata here:</t>
@@ -1300,12 +1294,6 @@
     <t>PASTE ABOVE THIS LINE #</t>
   </si>
   <si>
-    <t>YOUR NAME (Data Contributor) #</t>
-  </si>
-  <si>
-    <t>Fill info below:</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1555,6 +1543,15 @@
   </si>
   <si>
     <t>param2</t>
+  </si>
+  <si>
+    <t>YOUR NAME (Data Contributor)</t>
+  </si>
+  <si>
+    <t>Entela T20</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -2146,7 +2143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2240,7 +2237,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2707,8 +2703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87527978-2A5B-6545-88F5-0DA220A53CEB}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -2728,8 +2724,8 @@
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="65" t="s">
-        <v>245</v>
+      <c r="D1" s="64" t="s">
+        <v>305</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>29</v>
@@ -2737,41 +2733,39 @@
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+        <v>362</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="15.6">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>365</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+        <v>431</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="15.6">
       <c r="A5" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5"/>
-      <c r="D5" t="b">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>378</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>30</v>
@@ -2779,57 +2773,57 @@
     </row>
     <row r="6" spans="1:5" ht="15.6">
       <c r="A6" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>231</v>
+        <v>271</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>230</v>
       </c>
       <c r="C6"/>
-      <c r="D6" t="b">
-        <v>1</v>
+      <c r="D6" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.6">
       <c r="A7" s="30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C7"/>
-      <c r="D7" t="b">
-        <v>1</v>
+      <c r="D7" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.6">
       <c r="A8" s="30"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
     </row>
     <row r="9" spans="1:5" ht="15.6">
       <c r="A9" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
+        <v>274</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
     </row>
     <row r="10" spans="1:5" ht="15.6">
       <c r="A10" s="30" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
+        <v>277</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
     </row>
     <row r="11" spans="1:5" ht="15.6">
       <c r="A11" s="30"/>
     </row>
     <row r="12" spans="1:5" ht="15.6">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="68" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="3"/>
@@ -2846,9 +2840,9 @@
         <v>50</v>
       </c>
       <c r="B14" s="29"/>
-      <c r="C14" s="64"/>
-      <c r="D14" t="b">
-        <v>1</v>
+      <c r="C14" s="63"/>
+      <c r="D14" t="s">
+        <v>378</v>
       </c>
       <c r="E14" t="s">
         <v>47</v>
@@ -2859,9 +2853,9 @@
         <v>51</v>
       </c>
       <c r="B15" s="29"/>
-      <c r="C15" s="64"/>
-      <c r="D15" t="b">
-        <v>1</v>
+      <c r="C15" s="63"/>
+      <c r="D15" t="s">
+        <v>378</v>
       </c>
       <c r="E15" t="s">
         <v>47</v>
@@ -2872,9 +2866,9 @@
         <v>52</v>
       </c>
       <c r="B16" s="29"/>
-      <c r="C16" s="64"/>
-      <c r="D16" t="b">
-        <v>1</v>
+      <c r="C16" s="63"/>
+      <c r="D16" t="s">
+        <v>378</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>154</v>
@@ -2888,8 +2882,8 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.6">
-      <c r="A18" s="69" t="s">
-        <v>277</v>
+      <c r="A18" s="68" t="s">
+        <v>275</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2906,11 +2900,11 @@
         <v>32</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="59" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2920,8 +2914,8 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="68" t="s">
-        <v>275</v>
+      <c r="A23" s="67" t="s">
+        <v>273</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2939,8 +2933,8 @@
       </c>
       <c r="B25" s="27"/>
       <c r="C25"/>
-      <c r="D25" t="b">
-        <v>1</v>
+      <c r="D25" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2949,8 +2943,8 @@
       </c>
       <c r="B26" s="27"/>
       <c r="C26"/>
-      <c r="D26" t="b">
-        <v>1</v>
+      <c r="D26" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2959,8 +2953,8 @@
       </c>
       <c r="B27" s="27"/>
       <c r="C27"/>
-      <c r="D27" t="b">
-        <v>1</v>
+      <c r="D27" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2969,8 +2963,8 @@
       </c>
       <c r="B28" s="27"/>
       <c r="C28"/>
-      <c r="D28" t="b">
-        <v>1</v>
+      <c r="D28" t="s">
+        <v>378</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>35</v>
@@ -2982,8 +2976,8 @@
       </c>
       <c r="B29" s="27"/>
       <c r="C29"/>
-      <c r="D29" t="b">
-        <v>1</v>
+      <c r="D29" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2992,8 +2986,8 @@
       </c>
       <c r="B30" s="27"/>
       <c r="C30"/>
-      <c r="D30" t="b">
-        <v>1</v>
+      <c r="D30" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3002,8 +2996,8 @@
       </c>
       <c r="B31" s="27"/>
       <c r="C31"/>
-      <c r="D31" t="b">
-        <v>1</v>
+      <c r="D31" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3012,8 +3006,8 @@
       </c>
       <c r="B32" s="27"/>
       <c r="C32"/>
-      <c r="D32" t="b">
-        <v>1</v>
+      <c r="D32" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3022,8 +3016,8 @@
       </c>
       <c r="B33" s="27"/>
       <c r="C33"/>
-      <c r="D33" t="b">
-        <v>1</v>
+      <c r="D33" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3032,8 +3026,8 @@
       </c>
       <c r="B34" s="27"/>
       <c r="C34"/>
-      <c r="D34" t="b">
-        <v>1</v>
+      <c r="D34" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3042,8 +3036,8 @@
       </c>
       <c r="B35" s="27"/>
       <c r="C35"/>
-      <c r="D35" t="b">
-        <v>1</v>
+      <c r="D35" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3052,8 +3046,8 @@
       </c>
       <c r="B36" s="27"/>
       <c r="C36"/>
-      <c r="D36" t="b">
-        <v>1</v>
+      <c r="D36" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3062,8 +3056,8 @@
       </c>
       <c r="B37" s="27"/>
       <c r="C37"/>
-      <c r="D37" t="b">
-        <v>1</v>
+      <c r="D37" t="s">
+        <v>378</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>45</v>
@@ -3074,9 +3068,9 @@
         <v>46</v>
       </c>
       <c r="B38" s="29"/>
-      <c r="C38" s="64"/>
-      <c r="D38" t="b">
-        <v>1</v>
+      <c r="C38" s="63"/>
+      <c r="D38" t="s">
+        <v>378</v>
       </c>
       <c r="E38" t="s">
         <v>47</v>
@@ -3087,6 +3081,102 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:D9">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:A8 A11">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D16">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D27">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:D30">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D33">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D35">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3098,32 +3188,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
+  <conditionalFormatting sqref="D36:D38">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:D9">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A8 A11">
-    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3152,7 +3218,7 @@
           <x14:formula1>
             <xm:f>'Dropdown Items'!$C$6:$C$11</xm:f>
           </x14:formula1>
-          <xm:sqref>D12 B14:D16</xm:sqref>
+          <xm:sqref>D12 B14:C16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3184,17 +3250,17 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="113" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="114"/>
+      <c r="B2" s="113"/>
     </row>
     <row r="3" spans="1:4" s="9" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
     </row>
     <row r="4" spans="1:4" s="9" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="57" t="s">
         <v>184</v>
       </c>
       <c r="B4" s="40" t="s">
@@ -58710,7 +58776,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -58721,7 +58787,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
@@ -58781,13 +58847,13 @@
         <v>17</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -58806,13 +58872,13 @@
         <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>130</v>
       </c>
       <c r="F17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G17" t="s">
         <v>77</v>
@@ -58832,13 +58898,13 @@
         <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G18" t="s">
         <v>78</v>
@@ -58858,13 +58924,13 @@
         <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G19" t="s">
         <v>79</v>
@@ -58884,7 +58950,7 @@
         <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -59215,13 +59281,13 @@
         <v>224</v>
       </c>
       <c r="E53" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F53" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G53" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -59238,13 +59304,13 @@
         <v>225</v>
       </c>
       <c r="E55" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F55" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G55" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -59261,13 +59327,13 @@
         <v>226</v>
       </c>
       <c r="E56" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F56" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G56" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -59281,12 +59347,12 @@
         <v>223</v>
       </c>
       <c r="E57" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="E58" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -59300,7 +59366,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -59315,28 +59381,28 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21">
       <c r="A1" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B1" s="32"/>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>237</v>
+      <c r="D1" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>236</v>
       </c>
       <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.6">
       <c r="A4" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -59354,13 +59420,13 @@
       <c r="E5" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="55" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B6" s="33">
         <v>100</v>
@@ -59383,7 +59449,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" t="s">
@@ -59395,12 +59461,12 @@
     </row>
     <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>127</v>
@@ -59408,16 +59474,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="56"/>
+      <c r="E12" s="55"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B13" s="33">
         <v>80</v>
@@ -59426,12 +59492,12 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B14" s="33">
         <v>55</v>
@@ -59442,7 +59508,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B15" s="33">
         <v>199</v>
@@ -59453,82 +59519,82 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B16" s="33">
         <v>3.62</v>
       </c>
       <c r="E16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.6">
       <c r="A17" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B17" s="33"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B18" s="33"/>
-      <c r="D18" t="b">
-        <v>1</v>
+      <c r="D18" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="b">
-        <v>1</v>
+      <c r="D19" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="D20" t="b">
-        <v>1</v>
+        <v>363</v>
+      </c>
+      <c r="D20" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="D21" t="s">
+        <v>378</v>
+      </c>
+      <c r="E21" t="s">
         <v>249</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B22" s="33"/>
-      <c r="D22" t="b">
-        <v>1</v>
+      <c r="D22" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.6">
       <c r="A24" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B25" s="26" t="s">
         <v>130</v>
@@ -59536,16 +59602,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="E26" s="56"/>
+        <v>260</v>
+      </c>
+      <c r="E26" s="55"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B27" s="33">
         <v>20</v>
@@ -59556,7 +59622,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B28" s="33">
         <v>2.1800000000000002</v>
@@ -59567,7 +59633,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B29" s="33">
         <v>2.2000000000000002</v>
@@ -59578,58 +59644,58 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B30" s="33">
         <v>1.01</v>
       </c>
       <c r="E30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.6">
       <c r="A31" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B31" s="33"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B32" s="33"/>
-      <c r="D32" t="b">
-        <v>1</v>
+      <c r="D32" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B33" s="33"/>
-      <c r="D33" t="b">
-        <v>1</v>
+      <c r="D33" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B34" s="33"/>
-      <c r="D34" t="b">
-        <v>1</v>
+      <c r="D34" t="s">
+        <v>378</v>
       </c>
       <c r="E34" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B35" s="33"/>
-      <c r="D35" t="b">
-        <v>1</v>
+      <c r="D35" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.6">
@@ -59667,6 +59733,54 @@
       <c r="E42" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D18:D19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D22">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D35">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" xr:uid="{E226433A-B23E-6841-92D3-872E2ABABBD1}"/>
   </hyperlinks>
@@ -59721,8 +59835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6BB566-6734-43D2-B721-97B73307DE8D}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -59745,23 +59859,23 @@
       <c r="B1" s="35"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6" t="s">
-        <v>245</v>
+        <v>305</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="32"/>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="113"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="112"/>
     </row>
     <row r="2" spans="1:10" ht="130.19999999999999" customHeight="1">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -59781,8 +59895,8 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A4" s="80" t="s">
-        <v>306</v>
+      <c r="A4" s="79" t="s">
+        <v>304</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>140</v>
@@ -59790,8 +59904,8 @@
       <c r="C4" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="73" t="s">
-        <v>307</v>
+      <c r="D4" s="72" t="s">
+        <v>305</v>
       </c>
       <c r="E4" s="7"/>
       <c r="G4" s="45"/>
@@ -59801,13 +59915,13 @@
     </row>
     <row r="5" spans="1:10" ht="15.6">
       <c r="A5" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>305</v>
-      </c>
-      <c r="D5" s="74"/>
-      <c r="G5" s="80" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="73"/>
+      <c r="G5" s="79" t="s">
         <v>146</v>
       </c>
       <c r="H5" s="40" t="s">
@@ -59816,43 +59930,43 @@
       <c r="I5" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="J5" s="73" t="s">
-        <v>307</v>
+      <c r="J5" s="72" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B6" s="26">
         <v>1</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="74"/>
       <c r="G6" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H6" s="69" t="s">
         <v>283</v>
       </c>
-      <c r="H6" s="70" t="s">
-        <v>285</v>
-      </c>
-      <c r="J6" s="74"/>
+      <c r="J6" s="73"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="B7" s="71"/>
-      <c r="D7" s="75" t="b">
-        <v>1</v>
+        <v>290</v>
+      </c>
+      <c r="B7" s="70"/>
+      <c r="D7" s="74" t="s">
+        <v>428</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H7" s="26"/>
-      <c r="J7" s="74"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="36" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B8" s="15">
         <v>250</v>
@@ -59860,20 +59974,20 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="75" t="b">
-        <v>1</v>
+      <c r="D8" s="74" t="s">
+        <v>428</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="H8" s="71"/>
-      <c r="J8" s="75" t="s">
-        <v>432</v>
+        <v>290</v>
+      </c>
+      <c r="H8" s="70"/>
+      <c r="J8" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="36" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B9" s="15">
         <v>60</v>
@@ -59881,21 +59995,21 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="75" t="b">
-        <v>1</v>
+      <c r="D9" s="74" t="s">
+        <v>428</v>
       </c>
       <c r="E9" s="3"/>
       <c r="G9" s="36" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H9" s="15"/>
-      <c r="J9" s="75" t="s">
-        <v>432</v>
+      <c r="J9" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B10" s="15">
         <v>1</v>
@@ -59903,55 +60017,55 @@
       <c r="C10" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="75" t="b">
-        <v>1</v>
+      <c r="D10" s="74" t="s">
+        <v>428</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="J10" s="75" t="s">
-        <v>432</v>
+      <c r="J10" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.2" thickBot="1">
       <c r="A11" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="47"/>
-      <c r="D11" s="76" t="b">
-        <v>1</v>
+      <c r="D11" s="75" t="s">
+        <v>378</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="75" t="s">
-        <v>432</v>
+      <c r="J11" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.2" thickBot="1">
       <c r="G12" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="47"/>
-      <c r="J12" s="76" t="s">
-        <v>382</v>
+      <c r="J12" s="75" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.2" thickBot="1">
       <c r="G13" s="22"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="77"/>
+      <c r="J13" s="76"/>
     </row>
     <row r="14" spans="1:10" ht="15.6">
-      <c r="G14" s="80" t="s">
-        <v>306</v>
+      <c r="G14" s="79" t="s">
+        <v>304</v>
       </c>
       <c r="H14" s="40" t="s">
         <v>140</v>
@@ -59959,86 +60073,86 @@
       <c r="I14" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="J14" s="73" t="s">
-        <v>307</v>
+      <c r="J14" s="72" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="G15" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="H15" s="70" t="s">
-        <v>305</v>
-      </c>
-      <c r="J15" s="74"/>
+        <v>281</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="J15" s="73"/>
     </row>
     <row r="16" spans="1:10">
       <c r="G16" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H16" s="26"/>
-      <c r="J16" s="75"/>
+      <c r="J16" s="74"/>
     </row>
     <row r="17" spans="7:10">
       <c r="G17" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="H17" s="71"/>
-      <c r="J17" s="75" t="s">
-        <v>432</v>
+        <v>290</v>
+      </c>
+      <c r="H17" s="70"/>
+      <c r="J17" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="7:10">
       <c r="G18" s="36" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="75" t="s">
-        <v>432</v>
+      <c r="J18" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="7:10">
       <c r="G19" s="36" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="75" t="s">
-        <v>432</v>
+      <c r="J19" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="7:10">
       <c r="G20" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" t="s">
         <v>151</v>
       </c>
-      <c r="J20" s="75" t="s">
-        <v>432</v>
+      <c r="J20" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="7:10" ht="16.2" thickBot="1">
       <c r="G21" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H21" s="42"/>
       <c r="I21" s="47"/>
-      <c r="J21" s="76" t="s">
-        <v>382</v>
+      <c r="J21" s="75" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="7:10" ht="15" thickBot="1">
-      <c r="J22" s="78"/>
+      <c r="J22" s="77"/>
     </row>
     <row r="23" spans="7:10" ht="15.6">
-      <c r="G23" s="80" t="s">
+      <c r="G23" s="79" t="s">
         <v>147</v>
       </c>
       <c r="H23" s="40" t="s">
@@ -60047,114 +60161,114 @@
       <c r="I23" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="73" t="s">
-        <v>307</v>
+      <c r="J23" s="72" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="7:10">
       <c r="G24" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="H24" s="70" t="s">
-        <v>284</v>
-      </c>
-      <c r="J24" s="74"/>
+        <v>281</v>
+      </c>
+      <c r="H24" s="69" t="s">
+        <v>282</v>
+      </c>
+      <c r="J24" s="73"/>
     </row>
     <row r="25" spans="7:10">
       <c r="G25" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H25" s="26"/>
-      <c r="J25" s="74"/>
+      <c r="J25" s="73"/>
     </row>
     <row r="26" spans="7:10">
       <c r="G26" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="H26" s="71"/>
-      <c r="J26" s="75" t="s">
-        <v>432</v>
+        <v>290</v>
+      </c>
+      <c r="H26" s="70"/>
+      <c r="J26" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="7:10">
       <c r="G27" s="36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" t="s">
         <v>199</v>
       </c>
-      <c r="J27" s="75" t="s">
-        <v>432</v>
+      <c r="J27" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="28" spans="7:10">
       <c r="G28" s="36" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H28" s="15"/>
-      <c r="J28" s="75" t="s">
-        <v>382</v>
+      <c r="J28" s="74" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="7:10">
       <c r="G29" s="36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H29" s="15"/>
-      <c r="J29" s="75" t="s">
-        <v>382</v>
+      <c r="J29" s="74" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="7:10">
       <c r="G30" s="36" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H30" s="15"/>
-      <c r="J30" s="75" t="s">
-        <v>382</v>
+      <c r="J30" s="74" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="7:10">
       <c r="G31" s="36" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="75" t="s">
-        <v>382</v>
+      <c r="J31" s="74" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="7:10">
       <c r="G32" s="36" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="75" t="s">
-        <v>382</v>
+      <c r="J32" s="74" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.2" thickBot="1">
       <c r="G33" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="47"/>
-      <c r="J33" s="76" t="s">
-        <v>382</v>
+      <c r="J33" s="75" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.2" thickBot="1">
       <c r="G34" s="14"/>
-      <c r="J34" s="78"/>
+      <c r="J34" s="77"/>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="G35" s="80" t="s">
+      <c r="G35" s="79" t="s">
         <v>148</v>
       </c>
       <c r="H35" s="40" t="s">
@@ -60163,83 +60277,83 @@
       <c r="I35" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="J35" s="73" t="s">
-        <v>307</v>
+      <c r="J35" s="72" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="G36" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="H36" s="72" t="s">
-        <v>286</v>
-      </c>
-      <c r="J36" s="74"/>
+        <v>281</v>
+      </c>
+      <c r="H36" s="71" t="s">
+        <v>284</v>
+      </c>
+      <c r="J36" s="73"/>
     </row>
     <row r="37" spans="1:10">
       <c r="G37" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H37" s="26"/>
-      <c r="J37" s="74"/>
+      <c r="J37" s="73"/>
     </row>
     <row r="38" spans="1:10">
       <c r="G38" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="H38" s="71"/>
-      <c r="J38" s="75" t="s">
-        <v>432</v>
+        <v>290</v>
+      </c>
+      <c r="H38" s="70"/>
+      <c r="J38" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="G39" s="36" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="75" t="s">
-        <v>432</v>
+      <c r="J39" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="G40" s="36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" t="s">
         <v>151</v>
       </c>
-      <c r="J40" s="75" t="s">
-        <v>432</v>
+      <c r="J40" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.2" thickBot="1">
       <c r="G41" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H41" s="42"/>
       <c r="I41" s="47"/>
-      <c r="J41" s="76" t="s">
-        <v>382</v>
+      <c r="J41" s="75" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" thickBot="1">
       <c r="G42" s="3"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="79"/>
+      <c r="J42" s="78"/>
     </row>
     <row r="43" spans="1:10" ht="15.6">
       <c r="A43" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="G43" s="80" t="s">
+        <v>360</v>
+      </c>
+      <c r="G43" s="79" t="s">
         <v>149</v>
       </c>
       <c r="H43" s="40" t="s">
@@ -60248,88 +60362,88 @@
       <c r="I43" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="J43" s="73" t="s">
-        <v>307</v>
+      <c r="J43" s="72" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="G44" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="H44" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="J44" s="74"/>
+        <v>281</v>
+      </c>
+      <c r="H44" s="69" t="s">
+        <v>285</v>
+      </c>
+      <c r="J44" s="73"/>
     </row>
     <row r="45" spans="1:10">
       <c r="G45" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H45" s="26"/>
-      <c r="J45" s="74"/>
+      <c r="J45" s="73"/>
     </row>
     <row r="46" spans="1:10">
       <c r="G46" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="H46" s="71"/>
-      <c r="J46" s="75" t="s">
-        <v>432</v>
+        <v>290</v>
+      </c>
+      <c r="H46" s="70"/>
+      <c r="J46" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="G47" s="36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H47" s="15"/>
       <c r="I47" t="s">
         <v>199</v>
       </c>
-      <c r="J47" s="75" t="s">
-        <v>432</v>
+      <c r="J47" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="G48" s="36" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H48" s="15"/>
-      <c r="J48" s="75" t="s">
-        <v>382</v>
+      <c r="J48" s="74" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="7:10">
       <c r="G49" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" t="s">
         <v>152</v>
       </c>
-      <c r="J49" s="75" t="s">
-        <v>382</v>
+      <c r="J49" s="74" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="7:10">
       <c r="G50" s="36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H50" s="15"/>
       <c r="I50" t="s">
         <v>153</v>
       </c>
-      <c r="J50" s="75" t="s">
-        <v>382</v>
+      <c r="J50" s="74" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="7:10" ht="16.2" thickBot="1">
       <c r="G51" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H51" s="42"/>
       <c r="I51" s="47"/>
-      <c r="J51" s="76" t="s">
-        <v>382</v>
+      <c r="J51" s="75" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -60371,7 +60485,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -60387,14 +60501,14 @@
         <v>163</v>
       </c>
       <c r="B1" s="32"/>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>237</v>
+      <c r="D1" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -60407,209 +60521,209 @@
     </row>
     <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="B5" s="85" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="84" t="s">
         <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="B6" s="84">
+        <v>308</v>
+      </c>
+      <c r="B6" s="83">
         <v>80</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="80" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="B7" s="84">
+        <v>309</v>
+      </c>
+      <c r="B7" s="83">
         <v>1500</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="80" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="B8" s="85" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="81"/>
+      <c r="C8" s="80"/>
       <c r="D8" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="B9" s="85" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" s="84" t="s">
         <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2"/>
-      <c r="B10" s="82"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="15.6">
       <c r="A11" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="B11" s="82"/>
+        <v>313</v>
+      </c>
+      <c r="B11" s="81"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="B12" s="85" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="84" t="s">
         <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="84" t="s">
         <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="84">
+      <c r="B14" s="83">
         <v>350</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="85"/>
+      <c r="B15" s="84"/>
       <c r="D15" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="84"/>
+      <c r="B16" s="83"/>
       <c r="D16" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="B17" s="83"/>
+      <c r="B17" s="82"/>
     </row>
     <row r="18" spans="1:4" ht="15.6">
       <c r="A18" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B18" s="84"/>
+        <v>244</v>
+      </c>
+      <c r="B18" s="83"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="B19" s="84">
+      <c r="B19" s="83">
         <v>0.17199999999999999</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="B20" s="84"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B21" s="84"/>
+        <v>314</v>
+      </c>
+      <c r="B21" s="83"/>
       <c r="C21" s="34"/>
       <c r="D21" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>317</v>
-      </c>
-      <c r="B22" s="84"/>
+        <v>315</v>
+      </c>
+      <c r="B22" s="83"/>
       <c r="C22" s="34"/>
       <c r="D22" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>318</v>
-      </c>
-      <c r="B23" s="84"/>
+        <v>316</v>
+      </c>
+      <c r="B23" s="83"/>
       <c r="C23" s="34"/>
       <c r="D23" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="83"/>
+      <c r="B24" s="82"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="D28" s="56"/>
+      <c r="D28" s="55"/>
     </row>
     <row r="31" spans="1:4">
       <c r="D31" s="1"/>
@@ -60669,8 +60783,8 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -60683,27 +60797,27 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.6" thickBot="1">
       <c r="A1" s="31" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B1" s="32"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="E1" s="61"/>
-      <c r="G1" s="111" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="60"/>
+      <c r="G1" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="113"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="112"/>
     </row>
     <row r="2" spans="1:10" ht="130.5" customHeight="1">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -60724,8 +60838,8 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="15.6">
-      <c r="G5" s="80" t="s">
-        <v>320</v>
+      <c r="G5" s="79" t="s">
+        <v>318</v>
       </c>
       <c r="H5" s="40" t="s">
         <v>140</v>
@@ -60733,22 +60847,22 @@
       <c r="I5" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="J5" s="73" t="s">
-        <v>307</v>
+      <c r="J5" s="72" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="G6" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="H6" s="70" t="s">
-        <v>321</v>
-      </c>
-      <c r="J6" s="74"/>
+        <v>281</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>319</v>
+      </c>
+      <c r="J6" s="73"/>
     </row>
     <row r="7" spans="1:10" ht="15.6">
-      <c r="A7" s="80" t="s">
-        <v>320</v>
+      <c r="A7" s="79" t="s">
+        <v>318</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>140</v>
@@ -60756,139 +60870,139 @@
       <c r="C7" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="73" t="s">
-        <v>307</v>
+      <c r="D7" s="72" t="s">
+        <v>305</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H7" s="26"/>
-      <c r="J7" s="74"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="B8" s="70" t="s">
-        <v>321</v>
-      </c>
-      <c r="D8" s="74"/>
+        <v>281</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" s="73"/>
       <c r="G8" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="H8" s="71"/>
-      <c r="J8" s="75" t="s">
-        <v>432</v>
+        <v>290</v>
+      </c>
+      <c r="H8" s="70"/>
+      <c r="J8" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="36" t="s">
-        <v>293</v>
-      </c>
-      <c r="B9" s="85">
+        <v>291</v>
+      </c>
+      <c r="B9" s="84">
         <v>1</v>
       </c>
-      <c r="D9" s="74"/>
+      <c r="D9" s="73"/>
       <c r="G9" s="36" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H9" s="15"/>
-      <c r="J9" s="75" t="s">
-        <v>432</v>
+      <c r="J9" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="B10" s="96" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="75" t="b">
-        <v>1</v>
+      <c r="D10" s="74" t="s">
+        <v>428</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="75" t="s">
-        <v>432</v>
+      <c r="J10" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="B11" s="88" t="s">
-        <v>361</v>
-      </c>
-      <c r="D11" s="75" t="b">
-        <v>1</v>
+        <v>320</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>359</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>428</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" t="s">
         <v>151</v>
       </c>
-      <c r="J11" s="75" t="s">
-        <v>432</v>
+      <c r="J11" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.2" thickBot="1">
       <c r="A12" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="B12" s="88">
+        <v>293</v>
+      </c>
+      <c r="B12" s="87">
         <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="75" t="b">
-        <v>1</v>
+      <c r="D12" s="74" t="s">
+        <v>428</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H12" s="42"/>
       <c r="I12" s="47"/>
-      <c r="J12" s="76" t="s">
-        <v>382</v>
+      <c r="J12" s="75" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.2" thickBot="1">
       <c r="A13" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="B13" s="88">
+        <v>321</v>
+      </c>
+      <c r="B13" s="87">
         <v>0.25</v>
       </c>
       <c r="C13" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="75" t="b">
-        <v>1</v>
+      <c r="D13" s="74" t="s">
+        <v>428</v>
       </c>
       <c r="G13" s="22"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="77"/>
+      <c r="J13" s="76"/>
     </row>
     <row r="14" spans="1:10" ht="16.2" thickBot="1">
       <c r="A14" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="B14" s="89"/>
+        <v>292</v>
+      </c>
+      <c r="B14" s="88"/>
       <c r="C14" s="47"/>
-      <c r="D14" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="80" t="s">
-        <v>324</v>
+      <c r="D14" s="75" t="s">
+        <v>378</v>
+      </c>
+      <c r="G14" s="79" t="s">
+        <v>322</v>
       </c>
       <c r="H14" s="40" t="s">
         <v>140</v>
@@ -60896,29 +61010,29 @@
       <c r="I14" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="J14" s="73" t="s">
-        <v>307</v>
+      <c r="J14" s="72" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="G15" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="H15" s="70" t="s">
-        <v>325</v>
-      </c>
-      <c r="J15" s="74"/>
+        <v>281</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="J15" s="73"/>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="G16" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H16" s="26"/>
-      <c r="J16" s="74"/>
+      <c r="J16" s="73"/>
     </row>
     <row r="17" spans="1:10" ht="15.6">
-      <c r="A17" s="80" t="s">
-        <v>324</v>
+      <c r="A17" s="79" t="s">
+        <v>322</v>
       </c>
       <c r="B17" s="40" t="s">
         <v>140</v>
@@ -60926,99 +61040,101 @@
       <c r="C17" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="73" t="s">
-        <v>307</v>
+      <c r="D17" s="72" t="s">
+        <v>305</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" t="s">
         <v>199</v>
       </c>
-      <c r="J17" s="75" t="s">
-        <v>432</v>
+      <c r="J17" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="B18" s="70" t="s">
-        <v>325</v>
-      </c>
-      <c r="D18" s="74"/>
+        <v>281</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="D18" s="73"/>
       <c r="G18" s="36" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H18" s="15"/>
-      <c r="J18" s="75" t="s">
-        <v>382</v>
+      <c r="J18" s="74" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="36" t="s">
-        <v>293</v>
-      </c>
-      <c r="B19" s="85">
+        <v>291</v>
+      </c>
+      <c r="B19" s="84">
         <v>2</v>
       </c>
-      <c r="D19" s="74"/>
+      <c r="D19" s="73"/>
       <c r="G19" s="36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" t="s">
         <v>153</v>
       </c>
-      <c r="J19" s="75" t="s">
-        <v>382</v>
+      <c r="J19" s="74" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.2" thickBot="1">
       <c r="A20" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="B20" s="88">
+        <v>286</v>
+      </c>
+      <c r="B20" s="87">
         <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>199</v>
       </c>
-      <c r="D20" s="75" t="b">
-        <v>1</v>
+      <c r="D20" s="74" t="s">
+        <v>428</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="47"/>
-      <c r="J20" s="76" t="s">
-        <v>382</v>
+      <c r="J20" s="75" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="B21" s="88"/>
-      <c r="D21" s="75" t="b">
-        <v>1</v>
+        <v>324</v>
+      </c>
+      <c r="B21" s="87" t="s">
+        <v>432</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.6">
       <c r="A22" s="36" t="s">
-        <v>291</v>
-      </c>
-      <c r="B22" s="88"/>
+        <v>289</v>
+      </c>
+      <c r="B22" s="87"/>
       <c r="C22" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="80" t="s">
-        <v>327</v>
+      <c r="D22" s="74" t="s">
+        <v>378</v>
+      </c>
+      <c r="G22" s="79" t="s">
+        <v>325</v>
       </c>
       <c r="H22" s="40" t="s">
         <v>140</v>
@@ -61026,46 +61142,46 @@
       <c r="I22" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="J22" s="73" t="s">
-        <v>307</v>
+      <c r="J22" s="72" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.2" thickBot="1">
       <c r="A23" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="B23" s="89"/>
+        <v>292</v>
+      </c>
+      <c r="B23" s="88"/>
       <c r="C23" s="47"/>
-      <c r="D23" s="76" t="b">
-        <v>1</v>
+      <c r="D23" s="75" t="s">
+        <v>378</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="H23" s="70" t="s">
-        <v>328</v>
-      </c>
-      <c r="J23" s="74"/>
+        <v>281</v>
+      </c>
+      <c r="H23" s="69" t="s">
+        <v>326</v>
+      </c>
+      <c r="J23" s="73"/>
     </row>
     <row r="24" spans="1:10">
       <c r="G24" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H24" s="26"/>
-      <c r="J24" s="74"/>
+      <c r="J24" s="73"/>
     </row>
     <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="G25" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="H25" s="71"/>
-      <c r="J25" s="75" t="s">
-        <v>432</v>
+        <v>290</v>
+      </c>
+      <c r="H25" s="70"/>
+      <c r="J25" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.6">
-      <c r="A26" s="80" t="s">
-        <v>327</v>
+      <c r="A26" s="79" t="s">
+        <v>325</v>
       </c>
       <c r="B26" s="40" t="s">
         <v>140</v>
@@ -61073,99 +61189,99 @@
       <c r="C26" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="73" t="s">
-        <v>307</v>
+      <c r="D26" s="72" t="s">
+        <v>305</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H26" s="26"/>
-      <c r="J26" s="75" t="s">
-        <v>432</v>
+      <c r="J26" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="B27" s="70" t="s">
-        <v>328</v>
-      </c>
-      <c r="D27" s="74"/>
+        <v>281</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>326</v>
+      </c>
+      <c r="D27" s="73"/>
       <c r="G27" s="36" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="75" t="s">
-        <v>432</v>
+      <c r="J27" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="36" t="s">
-        <v>293</v>
-      </c>
-      <c r="B28" s="85">
+        <v>291</v>
+      </c>
+      <c r="B28" s="84">
         <v>3</v>
       </c>
-      <c r="D28" s="74"/>
+      <c r="D28" s="73"/>
       <c r="G28" s="36" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H28" s="15"/>
       <c r="I28" t="s">
         <v>151</v>
       </c>
-      <c r="J28" s="75" t="s">
-        <v>432</v>
+      <c r="J28" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.2" thickBot="1">
       <c r="A29" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="B29" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>428</v>
+      </c>
+      <c r="G29" s="46" t="s">
         <v>292</v>
-      </c>
-      <c r="B29" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="46" t="s">
-        <v>294</v>
       </c>
       <c r="H29" s="42"/>
       <c r="I29" s="47"/>
-      <c r="J29" s="76" t="s">
-        <v>382</v>
+      <c r="J29" s="75" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" thickBot="1">
       <c r="A30" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="B30" s="85" t="s">
+        <v>327</v>
+      </c>
+      <c r="B30" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="75" t="b">
-        <v>1</v>
+      <c r="D30" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.6">
       <c r="A31" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="B31" s="88">
+        <v>293</v>
+      </c>
+      <c r="B31" s="87">
         <v>25</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="75" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="80" t="s">
+      <c r="D31" s="74" t="s">
+        <v>428</v>
+      </c>
+      <c r="G31" s="79" t="s">
         <v>164</v>
       </c>
       <c r="H31" s="40" t="s">
@@ -61174,113 +61290,113 @@
       <c r="I31" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="J31" s="73" t="s">
-        <v>307</v>
+      <c r="J31" s="72" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="B32" s="88">
+        <v>321</v>
+      </c>
+      <c r="B32" s="87">
         <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="75" t="b">
-        <v>1</v>
+      <c r="D32" s="74" t="s">
+        <v>428</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="H32" s="86" t="s">
-        <v>330</v>
-      </c>
-      <c r="J32" s="74"/>
+        <v>281</v>
+      </c>
+      <c r="H32" s="85" t="s">
+        <v>328</v>
+      </c>
+      <c r="J32" s="73"/>
     </row>
     <row r="33" spans="1:10" ht="16.2" thickBot="1">
       <c r="A33" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="B33" s="89"/>
+        <v>292</v>
+      </c>
+      <c r="B33" s="88"/>
       <c r="C33" s="47"/>
-      <c r="D33" s="76" t="b">
-        <v>1</v>
+      <c r="D33" s="75" t="s">
+        <v>378</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H33" s="26"/>
-      <c r="J33" s="74"/>
+      <c r="J33" s="73"/>
     </row>
     <row r="34" spans="1:10">
       <c r="G34" s="36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H34" s="15"/>
-      <c r="J34" s="75" t="s">
-        <v>432</v>
+      <c r="J34" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="G35" s="36" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="75" t="s">
-        <v>432</v>
+      <c r="J35" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="G36" s="36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" t="s">
         <v>151</v>
       </c>
-      <c r="J36" s="75" t="s">
-        <v>432</v>
+      <c r="J36" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="G37" s="36" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H37" s="38"/>
       <c r="J37" s="37" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="G38" s="36" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H38" s="38"/>
       <c r="J38" s="37" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.2" thickBot="1">
       <c r="G39" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H39" s="42"/>
       <c r="I39" s="47"/>
-      <c r="J39" s="76" t="s">
-        <v>382</v>
+      <c r="J39" s="75" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -61320,8 +61436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E323FD3-6C48-44BB-9F06-8E13A7AFDEDD}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41:I42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -61343,22 +61459,22 @@
       <c r="B1" s="35"/>
       <c r="C1" s="6"/>
       <c r="D1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F1" s="111" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="113"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="112"/>
     </row>
     <row r="2" spans="1:10" ht="93" customHeight="1">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="87"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="86"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -61391,7 +61507,7 @@
         <v>141</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.6">
@@ -61403,113 +61519,113 @@
         <v>141</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>338</v>
-      </c>
-      <c r="G6" s="72" t="s">
-        <v>339</v>
+        <v>336</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>337</v>
       </c>
       <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="36" t="s">
-        <v>338</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>339</v>
+        <v>336</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>337</v>
       </c>
       <c r="D7" s="37"/>
       <c r="F7" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="G7" s="90"/>
+        <v>338</v>
+      </c>
+      <c r="G7" s="89"/>
       <c r="I7" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="B8" s="90"/>
+        <v>338</v>
+      </c>
+      <c r="B8" s="89"/>
       <c r="D8" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="G8" s="86"/>
+        <v>341</v>
+      </c>
+      <c r="G8" s="85"/>
       <c r="H8" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="B9" s="86"/>
+        <v>341</v>
+      </c>
+      <c r="B9" s="85"/>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="G9" s="86"/>
+        <v>342</v>
+      </c>
+      <c r="G9" s="85"/>
       <c r="H9" t="s">
         <v>198</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="36" t="s">
-        <v>344</v>
-      </c>
-      <c r="B10" s="86"/>
+        <v>342</v>
+      </c>
+      <c r="B10" s="85"/>
       <c r="C10" t="s">
         <v>198</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="J10" s="37"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="36" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="G11" s="86"/>
+        <v>343</v>
+      </c>
+      <c r="G11" s="85"/>
       <c r="I11" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="J11" s="37" t="s">
         <v>168</v>
@@ -61517,96 +61633,96 @@
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="B12" s="86"/>
+        <v>343</v>
+      </c>
+      <c r="B12" s="85"/>
       <c r="D12" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="G12" s="91"/>
+        <v>292</v>
+      </c>
+      <c r="G12" s="90"/>
       <c r="H12" s="50"/>
       <c r="I12" s="43" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1">
       <c r="A13" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="B13" s="91"/>
+        <v>292</v>
+      </c>
+      <c r="B13" s="90"/>
       <c r="C13" s="50"/>
       <c r="D13" s="43" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="15.6">
-      <c r="F14" s="92" t="s">
+      <c r="F14" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93" t="s">
+      <c r="G14" s="92"/>
+      <c r="H14" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="94" t="s">
-        <v>307</v>
+      <c r="I14" s="93" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="F15" s="36" t="s">
-        <v>338</v>
-      </c>
-      <c r="G15" s="72" t="s">
-        <v>342</v>
+        <v>336</v>
+      </c>
+      <c r="G15" s="71" t="s">
+        <v>340</v>
       </c>
       <c r="I15" s="37"/>
     </row>
     <row r="16" spans="1:10">
       <c r="F16" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="G16" s="95"/>
+        <v>338</v>
+      </c>
+      <c r="G16" s="94"/>
       <c r="I16" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="6:10">
       <c r="F17" s="36" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G17" s="15"/>
       <c r="I17" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="6:10">
       <c r="F18" s="36" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G18" s="15"/>
       <c r="I18" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="6:10">
       <c r="F19" s="36" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G19" s="15"/>
       <c r="I19" s="37" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="6:10">
       <c r="F20" s="36" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G20" s="15"/>
       <c r="I20" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="J20" s="48" t="s">
         <v>217</v>
@@ -61614,54 +61730,54 @@
     </row>
     <row r="21" spans="6:10">
       <c r="F21" s="36" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="6:10">
       <c r="F22" s="36" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" t="s">
         <v>169</v>
       </c>
       <c r="I22" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="6:10">
       <c r="F23" s="36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G23" s="15"/>
       <c r="I23" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="6:10">
       <c r="F24" s="36" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G24" s="26"/>
       <c r="I24" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="6:10" ht="15" thickBot="1">
       <c r="F25" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="G25" s="91"/>
+        <v>292</v>
+      </c>
+      <c r="G25" s="90"/>
       <c r="H25" s="50"/>
       <c r="I25" s="43" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="6:10" ht="16.2" thickBot="1">
@@ -61677,37 +61793,37 @@
         <v>141</v>
       </c>
       <c r="I27" s="41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="6:10">
       <c r="F28" s="36" t="s">
-        <v>338</v>
-      </c>
-      <c r="G28" s="72" t="s">
-        <v>341</v>
+        <v>336</v>
+      </c>
+      <c r="G28" s="71" t="s">
+        <v>339</v>
       </c>
       <c r="I28" s="37"/>
     </row>
     <row r="29" spans="6:10">
       <c r="F29" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="G29" s="90"/>
+        <v>338</v>
+      </c>
+      <c r="G29" s="89"/>
       <c r="I29" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="6:10" ht="15" thickBot="1">
       <c r="F30" s="44" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G30" s="42"/>
       <c r="H30" s="50" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I30" s="43" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="31" spans="6:10" ht="15" thickBot="1">
@@ -61717,113 +61833,113 @@
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="6:10" ht="15.6">
-      <c r="F32" s="92" t="s">
-        <v>358</v>
-      </c>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93" t="s">
+      <c r="F32" s="91" t="s">
+        <v>356</v>
+      </c>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="94" t="s">
-        <v>307</v>
+      <c r="I32" s="93" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="6:10">
       <c r="F33" s="36" t="s">
-        <v>338</v>
-      </c>
-      <c r="G33" s="95"/>
+        <v>336</v>
+      </c>
+      <c r="G33" s="94"/>
       <c r="I33" s="37"/>
       <c r="J33" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="6:10">
       <c r="F34" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="G34" s="95"/>
+        <v>338</v>
+      </c>
+      <c r="G34" s="94"/>
       <c r="I34" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="6:10">
       <c r="F35" s="36" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G35" s="15"/>
       <c r="I35" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="6:10">
       <c r="F36" s="36" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" t="s">
         <v>22</v>
       </c>
       <c r="I36" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37" spans="6:10">
       <c r="F37" s="36" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G37" s="26"/>
       <c r="I37" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="6:10">
       <c r="F38" s="36" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G38" s="15"/>
       <c r="I38" s="37" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="6:10">
       <c r="F39" s="36" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G39" s="38"/>
       <c r="I39" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="J39" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="6:10">
       <c r="F40" s="36" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G40" s="15"/>
       <c r="I40" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="41" spans="6:10">
       <c r="F41" s="36" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G41" s="38"/>
       <c r="I41" s="37" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="6:10" ht="15" thickBot="1">
       <c r="F42" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="G42" s="91"/>
+        <v>355</v>
+      </c>
+      <c r="G42" s="90"/>
       <c r="H42" s="50"/>
       <c r="I42" s="43" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="6:9" ht="15" thickBot="1"/>
@@ -61908,41 +62024,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407D2B8A-E356-4CF8-BF78-D6DBB98A494F}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.5546875" customWidth="1"/>
     <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.6" thickBot="1">
       <c r="A1" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B1" s="32"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="E1" s="61"/>
-      <c r="G1" s="111" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="60"/>
+      <c r="G1" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="113"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="112"/>
     </row>
     <row r="2" spans="1:10" ht="129.75" customHeight="1">
-      <c r="A2" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
+      <c r="A2" s="108" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -61957,274 +62075,277 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1">
+      <c r="A4" s="105" t="s">
+        <v>393</v>
+      </c>
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="15.6">
-      <c r="A5" s="80"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="73"/>
-      <c r="G5" s="80" t="s">
-        <v>336</v>
+      <c r="D5" s="72"/>
+      <c r="G5" s="79" t="s">
+        <v>334</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>140</v>
+        <v>433</v>
       </c>
       <c r="I5" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="J5" s="73" t="s">
-        <v>307</v>
+      <c r="J5" s="72" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="36"/>
-      <c r="B6" s="70"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="69"/>
+      <c r="D6" s="73"/>
       <c r="G6" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="H6" s="70" t="s">
-        <v>337</v>
-      </c>
-      <c r="J6" s="74"/>
+        <v>281</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>335</v>
+      </c>
+      <c r="J6" s="73"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="36"/>
       <c r="B7" s="26"/>
-      <c r="D7" s="74"/>
+      <c r="D7" s="73"/>
       <c r="G7" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H7" s="26"/>
-      <c r="J7" s="74"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="36"/>
-      <c r="B8" s="71"/>
-      <c r="D8" s="75"/>
+      <c r="B8" s="70"/>
+      <c r="D8" s="74"/>
       <c r="G8" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="H8" s="71"/>
-      <c r="J8" s="75" t="s">
-        <v>432</v>
+        <v>290</v>
+      </c>
+      <c r="H8" s="70"/>
+      <c r="J8" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="36"/>
       <c r="B9" s="15"/>
-      <c r="D9" s="75"/>
+      <c r="D9" s="74"/>
       <c r="G9" s="36" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="75" t="s">
-        <v>432</v>
+      <c r="J9" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="36"/>
       <c r="B10" s="15"/>
-      <c r="D10" s="75"/>
+      <c r="D10" s="74"/>
       <c r="G10" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" t="s">
         <v>151</v>
       </c>
-      <c r="J10" s="75" t="s">
-        <v>432</v>
+      <c r="J10" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.2" thickBot="1">
       <c r="A11" s="46"/>
       <c r="B11" s="42"/>
       <c r="C11" s="47"/>
-      <c r="D11" s="76"/>
+      <c r="D11" s="75"/>
       <c r="G11" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H11" s="42"/>
       <c r="I11" s="47"/>
-      <c r="J11" s="76" t="s">
-        <v>382</v>
+      <c r="J11" s="75" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.2" thickBot="1">
       <c r="G12" s="22"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="77"/>
+      <c r="J12" s="76"/>
     </row>
     <row r="13" spans="1:10" ht="15.6">
-      <c r="G13" s="80" t="s">
-        <v>320</v>
+      <c r="G13" s="79" t="s">
+        <v>318</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>140</v>
+        <v>433</v>
       </c>
       <c r="I13" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="J13" s="73" t="s">
-        <v>307</v>
+      <c r="J13" s="72" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="G14" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="H14" s="70" t="s">
-        <v>321</v>
-      </c>
-      <c r="J14" s="74"/>
+        <v>281</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>319</v>
+      </c>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" spans="1:10">
       <c r="G15" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H15" s="26"/>
-      <c r="J15" s="74"/>
+      <c r="J15" s="73"/>
     </row>
     <row r="16" spans="1:10">
       <c r="G16" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="H16" s="71"/>
-      <c r="J16" s="75" t="s">
-        <v>432</v>
+        <v>290</v>
+      </c>
+      <c r="H16" s="70"/>
+      <c r="J16" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="7:10">
       <c r="G17" s="36" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H17" s="15"/>
-      <c r="J17" s="75" t="s">
-        <v>432</v>
+      <c r="J17" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="7:10">
       <c r="G18" s="36" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="75" t="s">
-        <v>432</v>
+      <c r="J18" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="7:10">
       <c r="G19" s="36" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" t="s">
         <v>151</v>
       </c>
-      <c r="J19" s="75" t="s">
-        <v>432</v>
+      <c r="J19" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="7:10" ht="16.2" thickBot="1">
       <c r="G20" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H20" s="42"/>
       <c r="I20" s="47"/>
-      <c r="J20" s="76" t="s">
-        <v>382</v>
+      <c r="J20" s="75" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="7:10" ht="15" thickBot="1"/>
     <row r="22" spans="7:10" ht="15.6">
-      <c r="G22" s="80" t="s">
+      <c r="G22" s="79" t="s">
         <v>164</v>
       </c>
       <c r="H22" s="40" t="s">
-        <v>140</v>
+        <v>433</v>
       </c>
       <c r="I22" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="J22" s="73" t="s">
-        <v>307</v>
+      <c r="J22" s="72" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="7:10">
       <c r="G23" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="H23" s="86" t="s">
-        <v>330</v>
-      </c>
-      <c r="J23" s="74"/>
+        <v>281</v>
+      </c>
+      <c r="H23" s="85" t="s">
+        <v>328</v>
+      </c>
+      <c r="J23" s="73"/>
     </row>
     <row r="24" spans="7:10">
       <c r="G24" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H24" s="26"/>
-      <c r="J24" s="74"/>
+      <c r="J24" s="73"/>
     </row>
     <row r="25" spans="7:10">
       <c r="G25" s="36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H25" s="15"/>
-      <c r="J25" s="75" t="s">
-        <v>432</v>
+      <c r="J25" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="7:10">
       <c r="G26" s="36" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="75" t="s">
-        <v>432</v>
+      <c r="J26" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="7:10">
       <c r="G27" s="36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" t="s">
         <v>151</v>
       </c>
-      <c r="J27" s="75" t="s">
-        <v>432</v>
+      <c r="J27" s="74" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="28" spans="7:10" ht="16.2" thickBot="1">
       <c r="G28" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H28" s="42"/>
       <c r="I28" s="47"/>
-      <c r="J28" s="76" t="s">
-        <v>382</v>
+      <c r="J28" s="75" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -62258,8 +62379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74937810-402C-794A-86DB-3B61877792EA}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -62282,25 +62403,25 @@
         <v>54</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G1"/>
-      <c r="H1" s="111" t="s">
+      <c r="H1" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="113"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:13" s="9" customFormat="1" ht="15.6">
-      <c r="A2" s="97" t="s">
-        <v>399</v>
+      <c r="A2" s="96" t="s">
+        <v>395</v>
       </c>
       <c r="B2" s="16"/>
       <c r="F2" s="3"/>
@@ -62314,15 +62435,15 @@
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I3" s="45"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
-      <c r="A4" s="106" t="s">
-        <v>397</v>
+      <c r="A4" s="105" t="s">
+        <v>393</v>
       </c>
       <c r="B4" s="2"/>
       <c r="F4" s="51"/>
@@ -62332,48 +62453,50 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
-      <c r="H5" s="99" t="s">
-        <v>380</v>
-      </c>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100" t="s">
+      <c r="H5" s="98" t="s">
+        <v>376</v>
+      </c>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="100" t="s">
-        <v>377</v>
-      </c>
-      <c r="L5" s="100" t="s">
-        <v>378</v>
-      </c>
-      <c r="M5" s="101" t="s">
-        <v>307</v>
+      <c r="K5" s="99" t="s">
+        <v>373</v>
+      </c>
+      <c r="L5" s="99" t="s">
+        <v>374</v>
+      </c>
+      <c r="M5" s="100" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.6">
-      <c r="A6" s="99" t="s">
-        <v>380</v>
-      </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100" t="s">
+      <c r="A6" s="98" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>433</v>
+      </c>
+      <c r="C6" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="100" t="s">
-        <v>377</v>
-      </c>
-      <c r="E6" s="100" t="s">
-        <v>378</v>
-      </c>
-      <c r="F6" s="101" t="s">
-        <v>307</v>
-      </c>
-      <c r="H6" s="102" t="s">
-        <v>392</v>
+      <c r="D6" s="99" t="s">
+        <v>373</v>
+      </c>
+      <c r="E6" s="99" t="s">
+        <v>374</v>
+      </c>
+      <c r="F6" s="100" t="s">
+        <v>305</v>
+      </c>
+      <c r="H6" s="101" t="s">
+        <v>388</v>
       </c>
       <c r="M6" s="48"/>
     </row>
     <row r="7" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A7" s="102" t="s">
-        <v>392</v>
+      <c r="A7" s="101" t="s">
+        <v>388</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -62382,169 +62505,179 @@
       <c r="F7" s="48"/>
       <c r="G7" s="3"/>
       <c r="H7" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="I7" s="72" t="s">
-        <v>375</v>
+        <v>364</v>
+      </c>
+      <c r="I7" s="71" t="s">
+        <v>371</v>
       </c>
       <c r="J7"/>
       <c r="M7" s="37"/>
     </row>
     <row r="8" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A8" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>375</v>
+        <v>364</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>371</v>
       </c>
       <c r="C8"/>
       <c r="F8" s="37"/>
       <c r="G8" s="3"/>
       <c r="H8" s="36" t="s">
-        <v>381</v>
-      </c>
-      <c r="I8" s="85"/>
+        <v>377</v>
+      </c>
+      <c r="I8" s="84"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A9" s="36" t="s">
-        <v>381</v>
-      </c>
-      <c r="B9" s="85"/>
+        <v>377</v>
+      </c>
+      <c r="B9" s="84"/>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="36" t="s">
-        <v>374</v>
-      </c>
-      <c r="I9" s="88">
+        <v>370</v>
+      </c>
+      <c r="I9" s="87">
         <v>2.02E-4</v>
       </c>
       <c r="J9" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K9" s="33"/>
       <c r="L9" s="26"/>
       <c r="M9" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A10" s="36" t="s">
-        <v>374</v>
-      </c>
-      <c r="B10" s="88">
+        <v>370</v>
+      </c>
+      <c r="B10" s="87">
         <v>2.02E-4</v>
       </c>
       <c r="C10" t="s">
-        <v>376</v>
-      </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="26"/>
+        <v>372</v>
+      </c>
+      <c r="D10" s="33">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="F10" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="H10" s="103" t="s">
-        <v>385</v>
-      </c>
-      <c r="I10" s="85" t="s">
+        <v>375</v>
+      </c>
+      <c r="H10" s="102" t="s">
+        <v>381</v>
+      </c>
+      <c r="I10" s="84" t="s">
         <v>226</v>
       </c>
       <c r="M10" s="37" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A11" s="103" t="s">
-        <v>385</v>
-      </c>
-      <c r="B11" s="85" t="s">
+      <c r="A11" s="102" t="s">
+        <v>381</v>
+      </c>
+      <c r="B11" s="84" t="s">
         <v>226</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="36" t="s">
-        <v>372</v>
-      </c>
-      <c r="I11" s="88"/>
+        <v>368</v>
+      </c>
+      <c r="I11" s="87"/>
       <c r="J11"/>
       <c r="K11" s="33"/>
       <c r="L11" s="26"/>
       <c r="M11" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A12" s="36" t="s">
-        <v>372</v>
-      </c>
-      <c r="B12" s="88"/>
+        <v>368</v>
+      </c>
+      <c r="B12" s="87">
+        <v>-10</v>
+      </c>
       <c r="C12"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>119</v>
+      </c>
       <c r="F12" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="I12" s="88"/>
+        <v>369</v>
+      </c>
+      <c r="I12" s="87"/>
       <c r="J12"/>
       <c r="K12" s="33"/>
       <c r="L12" s="26"/>
       <c r="M12" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A13" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="B13" s="88"/>
+        <v>369</v>
+      </c>
+      <c r="B13" s="87"/>
       <c r="C13"/>
       <c r="D13" s="33"/>
       <c r="E13" s="26"/>
       <c r="F13" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="I13" s="88"/>
+        <v>387</v>
+      </c>
+      <c r="I13" s="87"/>
       <c r="J13" t="s">
         <v>58</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="26"/>
       <c r="M13" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="B14" s="88"/>
+        <v>387</v>
+      </c>
+      <c r="B14" s="87"/>
       <c r="C14" t="s">
         <v>58</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="26"/>
       <c r="F14" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H14" s="36"/>
       <c r="M14" s="48"/>
@@ -62552,78 +62685,78 @@
     <row r="15" spans="1:13" ht="15.6">
       <c r="A15" s="36"/>
       <c r="F15" s="48"/>
-      <c r="H15" s="102" t="s">
-        <v>393</v>
+      <c r="H15" s="101" t="s">
+        <v>389</v>
       </c>
       <c r="M15" s="48"/>
     </row>
     <row r="16" spans="1:13" ht="15.6">
-      <c r="A16" s="102" t="s">
-        <v>393</v>
+      <c r="A16" s="101" t="s">
+        <v>389</v>
       </c>
       <c r="F16" s="48"/>
       <c r="G16" s="3"/>
       <c r="H16" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="I16" s="71" t="s">
+        <v>379</v>
+      </c>
+      <c r="I16" s="70" t="s">
         <v>115</v>
       </c>
       <c r="M16" s="37" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="B17" s="71" t="s">
+        <v>379</v>
+      </c>
+      <c r="B17" s="70" t="s">
         <v>115</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="I17" s="86"/>
+        <v>380</v>
+      </c>
+      <c r="I17" s="85"/>
       <c r="J17" t="s">
         <v>22</v>
       </c>
       <c r="M17" s="37" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="B18" s="86"/>
+        <v>380</v>
+      </c>
+      <c r="B18" s="85"/>
       <c r="C18" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="H18" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="H18" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="I18" s="86">
+      <c r="I18" s="85">
         <v>-3</v>
       </c>
       <c r="J18" t="s">
         <v>57</v>
       </c>
       <c r="M18" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A19" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="B19" s="86">
+        <v>382</v>
+      </c>
+      <c r="B19" s="85">
         <v>-3</v>
       </c>
       <c r="C19" t="s">
@@ -62632,157 +62765,157 @@
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G19"/>
       <c r="H19" s="36" t="s">
-        <v>387</v>
-      </c>
-      <c r="I19" s="86"/>
+        <v>383</v>
+      </c>
+      <c r="I19" s="85"/>
       <c r="J19" t="s">
         <v>57</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A20" s="36" t="s">
-        <v>387</v>
-      </c>
-      <c r="B20" s="86"/>
+        <v>383</v>
+      </c>
+      <c r="B20" s="85"/>
       <c r="C20" t="s">
         <v>57</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G20"/>
       <c r="H20" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="I20" s="86" t="s">
+        <v>324</v>
+      </c>
+      <c r="I20" s="85" t="s">
         <v>227</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="B21" s="86" t="s">
+        <v>324</v>
+      </c>
+      <c r="B21" s="85" t="s">
         <v>227</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G21"/>
       <c r="H21" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="I21" s="86"/>
+        <v>314</v>
+      </c>
+      <c r="I21" s="85"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="B22" s="86"/>
+        <v>314</v>
+      </c>
+      <c r="B22" s="85"/>
       <c r="F22" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="I22" s="86"/>
+        <v>315</v>
+      </c>
+      <c r="I22" s="85"/>
       <c r="M22" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="B23" s="86"/>
+        <v>315</v>
+      </c>
+      <c r="B23" s="85"/>
       <c r="F23" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="I23" s="105"/>
+        <v>316</v>
+      </c>
+      <c r="I23" s="104"/>
       <c r="M23" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="B24" s="105"/>
+        <v>316</v>
+      </c>
+      <c r="B24" s="104"/>
       <c r="F24" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="G24" s="108" t="s">
-        <v>403</v>
+        <v>378</v>
+      </c>
+      <c r="G24" s="107" t="s">
+        <v>399</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I24" s="105"/>
+        <v>427</v>
+      </c>
+      <c r="I24" s="104"/>
       <c r="M24" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
       <c r="A25" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B25" s="105"/>
+        <v>398</v>
+      </c>
+      <c r="B25" s="104"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="I25" s="91"/>
+        <v>292</v>
+      </c>
+      <c r="I25" s="90"/>
       <c r="J25" s="50"/>
       <c r="K25" s="50"/>
       <c r="L25" s="50"/>
       <c r="M25" s="52" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
       <c r="A26" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="B26" s="91"/>
+        <v>292</v>
+      </c>
+      <c r="B26" s="90"/>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
       <c r="E26" s="50"/>
       <c r="F26" s="52" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
@@ -62807,21 +62940,21 @@
     </row>
     <row r="29" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="G29" s="3"/>
-      <c r="H29" s="99" t="s">
-        <v>394</v>
-      </c>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100" t="s">
+      <c r="H29" s="98" t="s">
+        <v>390</v>
+      </c>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="K29" s="100" t="s">
-        <v>377</v>
-      </c>
-      <c r="L29" s="100" t="s">
-        <v>378</v>
-      </c>
-      <c r="M29" s="101" t="s">
-        <v>307</v>
+      <c r="K29" s="99" t="s">
+        <v>373</v>
+      </c>
+      <c r="L29" s="99" t="s">
+        <v>374</v>
+      </c>
+      <c r="M29" s="100" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
@@ -62832,8 +62965,8 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="102" t="s">
-        <v>392</v>
+      <c r="H30" s="101" t="s">
+        <v>388</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -62844,10 +62977,10 @@
     <row r="31" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="F31" s="51"/>
       <c r="H31" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="I31" s="72" t="s">
-        <v>395</v>
+        <v>364</v>
+      </c>
+      <c r="I31" s="71" t="s">
+        <v>391</v>
       </c>
       <c r="J31"/>
       <c r="M31" s="37"/>
@@ -62861,63 +62994,63 @@
       <c r="F32"/>
       <c r="G32" s="3"/>
       <c r="H32" s="36" t="s">
-        <v>381</v>
-      </c>
-      <c r="I32" s="85"/>
+        <v>377</v>
+      </c>
+      <c r="I32" s="84"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="G33" s="3"/>
       <c r="H33" s="36" t="s">
-        <v>374</v>
-      </c>
-      <c r="I33" s="88">
+        <v>370</v>
+      </c>
+      <c r="I33" s="87">
         <v>2.02E-4</v>
       </c>
       <c r="J33" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K33" s="33"/>
       <c r="L33" s="26"/>
       <c r="M33" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="G34" s="3"/>
-      <c r="H34" s="103" t="s">
-        <v>385</v>
-      </c>
-      <c r="I34" s="85" t="s">
+      <c r="H34" s="102" t="s">
+        <v>381</v>
+      </c>
+      <c r="I34" s="84" t="s">
         <v>226</v>
       </c>
-      <c r="M34" s="104"/>
+      <c r="M34" s="103"/>
     </row>
     <row r="35" spans="1:13">
       <c r="H35" s="36" t="s">
-        <v>372</v>
-      </c>
-      <c r="I35" s="88"/>
+        <v>368</v>
+      </c>
+      <c r="I35" s="87"/>
       <c r="K35" s="33"/>
       <c r="L35" s="26"/>
       <c r="M35" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="H36" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="I36" s="88"/>
+        <v>369</v>
+      </c>
+      <c r="I36" s="87"/>
       <c r="K36" s="33"/>
       <c r="L36" s="26"/>
       <c r="M36" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -62929,16 +63062,16 @@
       <c r="F37" s="9"/>
       <c r="G37" s="3"/>
       <c r="H37" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="I37" s="88"/>
+        <v>387</v>
+      </c>
+      <c r="I37" s="87"/>
       <c r="J37" t="s">
         <v>58</v>
       </c>
       <c r="K37" s="33"/>
       <c r="L37" s="26"/>
       <c r="M37" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -62959,24 +63092,24 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="H39" s="102" t="s">
-        <v>393</v>
+      <c r="H39" s="101" t="s">
+        <v>389</v>
       </c>
       <c r="M39" s="48"/>
     </row>
     <row r="40" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="G40"/>
       <c r="H40" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="I40" s="71" t="s">
+        <v>379</v>
+      </c>
+      <c r="I40" s="70" t="s">
         <v>115</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40" s="37" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -62987,14 +63120,14 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="H41" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="I41" s="86"/>
+        <v>380</v>
+      </c>
+      <c r="I41" s="85"/>
       <c r="J41" t="s">
         <v>22</v>
       </c>
       <c r="M41" s="37" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -63005,31 +63138,31 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="H42" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="I42" s="86">
+        <v>382</v>
+      </c>
+      <c r="I42" s="85">
         <v>-3</v>
       </c>
       <c r="J42" t="s">
         <v>57</v>
       </c>
       <c r="M42" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
       <c r="G43" s="3"/>
       <c r="H43" s="36" t="s">
-        <v>387</v>
-      </c>
-      <c r="I43" s="86"/>
+        <v>383</v>
+      </c>
+      <c r="I43" s="85"/>
       <c r="J43" t="s">
         <v>57</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
@@ -63041,16 +63174,16 @@
       <c r="F44"/>
       <c r="G44" s="3"/>
       <c r="H44" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="I44" s="86" t="s">
+        <v>324</v>
+      </c>
+      <c r="I44" s="85" t="s">
         <v>227</v>
       </c>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
@@ -63062,14 +63195,14 @@
       <c r="F45"/>
       <c r="G45" s="3"/>
       <c r="H45" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="I45" s="86"/>
+        <v>314</v>
+      </c>
+      <c r="I45" s="85"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
@@ -63080,14 +63213,14 @@
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="I46" s="86"/>
+        <v>315</v>
+      </c>
+      <c r="I46" s="85"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
@@ -63098,14 +63231,14 @@
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="I47" s="105"/>
+        <v>316</v>
+      </c>
+      <c r="I47" s="104"/>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1">
@@ -63115,14 +63248,14 @@
       <c r="E48"/>
       <c r="F48"/>
       <c r="H48" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="I48" s="105"/>
+        <v>427</v>
+      </c>
+      <c r="I48" s="104"/>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="9" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
@@ -63132,14 +63265,14 @@
       <c r="E49"/>
       <c r="F49"/>
       <c r="H49" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="I49" s="91"/>
+        <v>292</v>
+      </c>
+      <c r="I49" s="90"/>
       <c r="J49" s="50"/>
       <c r="K49" s="50"/>
       <c r="L49" s="50"/>
       <c r="M49" s="52" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -63153,10 +63286,10 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -63179,7 +63312,7 @@
       <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:13" ht="15.6">
-      <c r="A54" s="98"/>
+      <c r="A54" s="97"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -63187,7 +63320,7 @@
       <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:13" ht="15.6">
-      <c r="A55" s="98"/>
+      <c r="A55" s="97"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -63236,8 +63369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD2D44-9B1B-421A-86D6-11D29F42E873}">
   <dimension ref="A1:XEX120"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -63260,34 +63393,34 @@
   <sheetData>
     <row r="1" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="21.6" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F1" t="s">
-        <v>307</v>
-      </c>
-      <c r="H1" s="111" t="s">
+        <v>305</v>
+      </c>
+      <c r="H1" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="113"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="90" customHeight="1">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="H2" s="3"/>
@@ -63296,22 +63429,22 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="16.95" customHeight="1">
-      <c r="A3" s="107" t="s">
-        <v>397</v>
+      <c r="A3" s="106" t="s">
+        <v>393</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="H3" s="45" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I3" s="45"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" s="9" customFormat="1" ht="16.95" customHeight="1" thickBot="1">
-      <c r="A4" s="107"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -63322,28 +63455,42 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.6">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
+      <c r="A5" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>305</v>
+      </c>
       <c r="G5"/>
       <c r="H5" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="I5" s="40"/>
+      <c r="I5" s="40" t="s">
+        <v>433</v>
+      </c>
       <c r="J5" s="40" t="s">
         <v>54</v>
       </c>
       <c r="K5" s="40" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M5" s="41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="R5"/>
       <c r="Z5"/>
@@ -65393,17 +65540,21 @@
       <c r="XEX5"/>
     </row>
     <row r="6" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
-      <c r="A6" s="36"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>406</v>
+      </c>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" s="37"/>
       <c r="H6" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="I6" s="72" t="s">
-        <v>410</v>
+        <v>364</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>406</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
@@ -65411,159 +65562,291 @@
       <c r="M6" s="37"/>
     </row>
     <row r="7" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
-      <c r="A7" s="36"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>397</v>
+      </c>
       <c r="C7"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="37"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7" s="48" t="s">
+        <v>378</v>
+      </c>
       <c r="H7" s="36" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
-      <c r="A8" s="36"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="B8" s="33">
+        <v>0.54</v>
+      </c>
       <c r="C8"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="37"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="37" t="s">
+        <v>375</v>
+      </c>
       <c r="H8" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="I8" s="33"/>
+        <v>426</v>
+      </c>
+      <c r="I8" s="33">
+        <v>0.54</v>
+      </c>
       <c r="J8"/>
       <c r="K8" s="33"/>
       <c r="L8" s="26"/>
       <c r="M8" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15" thickBot="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="43"/>
+    <row r="9" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
+      <c r="A9" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="B9" s="33">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="37" t="s">
+        <v>375</v>
+      </c>
       <c r="H9" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="I9" s="33"/>
+        <v>413</v>
+      </c>
+      <c r="I9" s="33">
+        <v>50</v>
+      </c>
       <c r="J9" t="s">
         <v>175</v>
       </c>
       <c r="K9" s="33"/>
       <c r="L9" s="26"/>
       <c r="M9" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
+      <c r="A10" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="37" t="s">
+        <v>375</v>
+      </c>
       <c r="H10" s="36" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I10" s="33"/>
       <c r="J10"/>
       <c r="K10" s="33"/>
       <c r="L10" s="26"/>
       <c r="M10" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
+      <c r="A11" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" s="48" t="s">
+        <v>378</v>
+      </c>
       <c r="H11" s="36" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I11" s="33"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15" thickBot="1">
+      <c r="A12" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="52" t="s">
+        <v>378</v>
+      </c>
       <c r="H12" s="44" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I12" s="54"/>
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
       <c r="L12" s="50"/>
       <c r="M12" s="52" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
-    <row r="14" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15" thickBot="1"/>
+    <row r="13" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15" thickBot="1"/>
+    <row r="14" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="16.2" thickBot="1">
+      <c r="A14" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>305</v>
+      </c>
+    </row>
     <row r="15" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378" ht="15.6">
+      <c r="A15" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>403</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" s="37"/>
       <c r="H15" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="I15" s="40"/>
+      <c r="I15" s="40" t="s">
+        <v>433</v>
+      </c>
       <c r="J15" s="40" t="s">
         <v>54</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L15" s="40" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M15" s="41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:1018 1026:2042 2050:3066 3074:4090 4098:5114 5122:6138 6146:7162 7170:8186 8194:9210 9218:10234 10242:11258 11266:12282 12290:13306 13314:14330 14338:15354 15362:16378">
+      <c r="A16" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16" s="48" t="s">
+        <v>378</v>
+      </c>
       <c r="H16" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="I16" s="72" t="s">
-        <v>409</v>
+        <v>364</v>
+      </c>
+      <c r="I16" s="71" t="s">
+        <v>405</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16" s="37"/>
     </row>
-    <row r="17" spans="8:13">
+    <row r="17" spans="1:13">
+      <c r="A17" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="B17" s="33">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="37" t="s">
+        <v>375</v>
+      </c>
       <c r="H17" s="36" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
-    <row r="18" spans="8:13">
+    <row r="18" spans="1:13">
+      <c r="A18" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="37" t="s">
+        <v>375</v>
+      </c>
       <c r="H18" s="36" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I18" s="33"/>
       <c r="J18"/>
       <c r="K18" s="33"/>
       <c r="L18" s="26"/>
       <c r="M18" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
-    <row r="19" spans="8:13">
+    <row r="19" spans="1:13">
+      <c r="A19" s="36" t="s">
+        <v>407</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="37" t="s">
+        <v>375</v>
+      </c>
       <c r="H19" s="36" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I19" s="33"/>
       <c r="J19" t="s">
@@ -65572,67 +65855,148 @@
       <c r="K19" s="33"/>
       <c r="L19" s="26"/>
       <c r="M19" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
-    <row r="20" spans="8:13">
+    <row r="20" spans="1:13">
+      <c r="A20" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="37" t="s">
+        <v>375</v>
+      </c>
       <c r="H20" s="36" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I20" s="33"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
-    <row r="21" spans="8:13" ht="15" thickBot="1">
+    <row r="21" spans="1:13" ht="15" thickBot="1">
+      <c r="A21" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="37" t="s">
+        <v>375</v>
+      </c>
       <c r="H21" s="44" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I21" s="54"/>
       <c r="J21" s="50"/>
       <c r="K21" s="50"/>
       <c r="L21" s="50"/>
       <c r="M21" s="52" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
-    <row r="23" spans="8:13" ht="15" thickBot="1"/>
-    <row r="24" spans="8:13" ht="15.6">
+    <row r="22" spans="1:13">
+      <c r="A22" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="37" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1">
+      <c r="A23" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="37" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.6">
+      <c r="A24" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="37" t="s">
+        <v>375</v>
+      </c>
       <c r="H24" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="I24" s="40"/>
+      <c r="I24" s="40" t="s">
+        <v>433</v>
+      </c>
       <c r="J24" s="40" t="s">
         <v>54</v>
       </c>
       <c r="K24" s="40" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M24" s="41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="25" spans="8:13">
+    <row r="25" spans="1:13">
+      <c r="A25" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="37" t="s">
+        <v>375</v>
+      </c>
       <c r="H25" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="I25" s="72" t="s">
-        <v>408</v>
+        <v>364</v>
+      </c>
+      <c r="I25" s="71" t="s">
+        <v>404</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25" s="37"/>
     </row>
-    <row r="26" spans="8:13">
+    <row r="26" spans="1:13">
+      <c r="A26" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="37" t="s">
+        <v>375</v>
+      </c>
       <c r="H26" s="36" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I26" s="33" t="s">
         <v>228</v>
@@ -65641,40 +66005,58 @@
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
-    <row r="27" spans="8:13">
+    <row r="27" spans="1:13">
+      <c r="A27" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27" s="48" t="s">
+        <v>378</v>
+      </c>
       <c r="H27" s="36" t="s">
-        <v>420</v>
-      </c>
-      <c r="I27" s="33">
-        <v>1000</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="I27" s="33"/>
       <c r="J27" t="s">
         <v>9</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
-    <row r="28" spans="8:13">
+    <row r="28" spans="1:13" ht="15" thickBot="1">
+      <c r="A28" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="52" t="s">
+        <v>378</v>
+      </c>
       <c r="H28" s="36" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="I28" s="33"/>
       <c r="J28"/>
       <c r="K28" s="33"/>
       <c r="L28" s="26"/>
       <c r="M28" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
-    <row r="29" spans="8:13">
+    <row r="29" spans="1:13">
       <c r="H29" s="36" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I29" s="33"/>
       <c r="J29" t="s">
@@ -65683,61 +66065,59 @@
       <c r="K29" s="33"/>
       <c r="L29" s="26"/>
       <c r="M29" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
-    <row r="30" spans="8:13">
+    <row r="30" spans="1:13">
       <c r="H30" s="36" t="s">
-        <v>422</v>
-      </c>
-      <c r="I30" s="57">
-        <v>175</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="I30" s="56"/>
       <c r="J30" t="s">
         <v>9</v>
       </c>
       <c r="K30" s="33"/>
       <c r="L30" s="26"/>
       <c r="M30" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
-    <row r="31" spans="8:13">
+    <row r="31" spans="1:13">
       <c r="H31" s="36" t="s">
-        <v>423</v>
-      </c>
-      <c r="I31" s="57"/>
+        <v>419</v>
+      </c>
+      <c r="I31" s="56"/>
       <c r="J31" t="s">
         <v>179</v>
       </c>
       <c r="K31" s="33"/>
       <c r="L31" s="26"/>
       <c r="M31" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
-    <row r="32" spans="8:13">
+    <row r="32" spans="1:13">
       <c r="H32" s="36" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I32" s="33"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="8:13" ht="15" thickBot="1">
       <c r="H33" s="44" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I33" s="54"/>
       <c r="J33" s="50"/>
       <c r="K33" s="50"/>
       <c r="L33" s="50"/>
       <c r="M33" s="52" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="8:13" ht="15" thickBot="1"/>
@@ -65745,26 +66125,28 @@
       <c r="H36" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="I36" s="40"/>
+      <c r="I36" s="40" t="s">
+        <v>433</v>
+      </c>
       <c r="J36" s="40" t="s">
         <v>54</v>
       </c>
       <c r="K36" s="40" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L36" s="40" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M36" s="41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="8:13">
       <c r="H37" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="I37" s="72" t="s">
-        <v>407</v>
+        <v>364</v>
+      </c>
+      <c r="I37" s="71" t="s">
+        <v>403</v>
       </c>
       <c r="J37"/>
       <c r="K37"/>
@@ -65773,51 +66155,45 @@
     </row>
     <row r="38" spans="8:13">
       <c r="H38" s="36" t="s">
-        <v>405</v>
-      </c>
-      <c r="I38" s="33" t="s">
-        <v>229</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="I38" s="33"/>
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="8:13">
       <c r="H39" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="I39" s="33">
-        <v>17.600000000000001</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="I39" s="33"/>
       <c r="J39" t="s">
         <v>181</v>
       </c>
       <c r="K39" s="33"/>
       <c r="L39" s="26"/>
       <c r="M39" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="8:13">
       <c r="H40" s="36" t="s">
-        <v>424</v>
-      </c>
-      <c r="I40" s="33">
-        <v>75</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="I40" s="33"/>
       <c r="J40"/>
       <c r="K40" s="33"/>
       <c r="L40" s="26"/>
       <c r="M40" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="8:13">
       <c r="H41" s="36" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I41" s="33"/>
       <c r="J41" t="s">
@@ -65826,24 +66202,24 @@
       <c r="K41" s="33"/>
       <c r="L41" s="26"/>
       <c r="M41" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="8:13">
       <c r="H42" s="36" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I42" s="33"/>
       <c r="J42"/>
       <c r="K42" s="33"/>
       <c r="L42" s="26"/>
       <c r="M42" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="8:13">
       <c r="H43" s="36" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="I43" s="33"/>
       <c r="J43" t="s">
@@ -65852,24 +66228,24 @@
       <c r="K43" s="33"/>
       <c r="L43" s="26"/>
       <c r="M43" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="8:13">
       <c r="H44" s="36" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I44" s="33"/>
       <c r="J44"/>
       <c r="K44" s="33"/>
       <c r="L44" s="26"/>
       <c r="M44" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="8:13">
       <c r="H45" s="36" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I45" s="33"/>
       <c r="J45" t="s">
@@ -65878,24 +66254,24 @@
       <c r="K45" s="33"/>
       <c r="L45" s="26"/>
       <c r="M45" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="8:13">
       <c r="H46" s="36" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I46" s="33"/>
       <c r="J46"/>
       <c r="K46" s="33"/>
       <c r="L46" s="26"/>
       <c r="M46" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="8:13">
       <c r="H47" s="36" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I47" s="33"/>
       <c r="J47" t="s">
@@ -65904,43 +66280,43 @@
       <c r="K47" s="33"/>
       <c r="L47" s="26"/>
       <c r="M47" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="8:13">
       <c r="H48" s="36" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="I48" s="33"/>
       <c r="J48"/>
       <c r="K48" s="33"/>
       <c r="L48" s="26"/>
       <c r="M48" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="H49" s="36" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I49" s="33"/>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15" thickBot="1">
       <c r="H50" s="44" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I50" s="54"/>
       <c r="J50" s="50"/>
       <c r="K50" s="50"/>
       <c r="L50" s="50"/>
       <c r="M50" s="52" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15" thickBot="1"/>
@@ -65948,26 +66324,28 @@
       <c r="H52" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="I52" s="40"/>
+      <c r="I52" s="40" t="s">
+        <v>433</v>
+      </c>
       <c r="J52" s="40" t="s">
         <v>54</v>
       </c>
       <c r="K52" s="40" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L52" s="40" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M52" s="41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="H53" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="I53" s="72" t="s">
-        <v>404</v>
+        <v>364</v>
+      </c>
+      <c r="I53" s="71" t="s">
+        <v>400</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
@@ -65976,19 +66354,19 @@
     </row>
     <row r="54" spans="1:13">
       <c r="H54" s="36" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I54" s="33"/>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="H55" s="36" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="I55" s="33"/>
       <c r="J55" t="s">
@@ -65997,31 +66375,31 @@
       <c r="K55" s="33"/>
       <c r="L55" s="26"/>
       <c r="M55" s="37" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="H56" s="36" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I56" s="33"/>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15" thickBot="1">
       <c r="H57" s="44" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I57" s="54"/>
       <c r="J57" s="50"/>
       <c r="K57" s="50"/>
       <c r="L57" s="50"/>
       <c r="M57" s="52" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -66070,10 +66448,10 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>
@@ -66591,7 +66969,7 @@
           <x14:formula1>
             <xm:f>'Dropdown Items'!$B$55:$B$57</xm:f>
           </x14:formula1>
-          <xm:sqref>D7:D9 L55 L8:L10 L39:L48 L28:L31 L18:L19</xm:sqref>
+          <xm:sqref>L18:L19 L55 L8:L10 L39:L48 L28:L31 E8:E10 E17:E26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/db_feed/new_template_v4.xlsx
+++ b/db_feed/new_template_v4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A9B8CB-9BE7-44B0-BBF9-50809F4C423B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ADEEC5-B9B2-43AE-98F5-1210FCA4EAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -2677,7 +2677,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4970,7 +4970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FF38F2-F6A4-4E96-86E9-D45968350123}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -6865,8 +6865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74937810-402C-794A-86DB-3B61877792EA}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
